--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,121 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7238800</v>
+        <v>6016300</v>
       </c>
       <c r="E8" s="3">
-        <v>7637800</v>
+        <v>7197900</v>
       </c>
       <c r="F8" s="3">
-        <v>8575800</v>
+        <v>5739400</v>
       </c>
       <c r="G8" s="3">
-        <v>6157800</v>
+        <v>5464700</v>
       </c>
       <c r="H8" s="3">
-        <v>4515200</v>
+        <v>5259800</v>
       </c>
       <c r="I8" s="3">
+        <v>5944300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4358700</v>
+      </c>
+      <c r="K8" s="3">
         <v>5138500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4511500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6435900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4134100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6044500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5384500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1817600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +822,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +872,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,8 +992,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,11 +1024,11 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>5</v>
@@ -1004,8 +1042,14 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1092,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6613300</v>
+        <v>4153000</v>
       </c>
       <c r="E17" s="3">
-        <v>7007000</v>
+        <v>5463300</v>
       </c>
       <c r="F17" s="3">
-        <v>7905800</v>
+        <v>6384000</v>
       </c>
       <c r="G17" s="3">
-        <v>5515700</v>
+        <v>6764000</v>
       </c>
       <c r="H17" s="3">
-        <v>3661600</v>
+        <v>7631700</v>
       </c>
       <c r="I17" s="3">
+        <v>5324500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3534600</v>
+      </c>
+      <c r="K17" s="3">
         <v>4363200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3910000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6241700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3305000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5519100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4607800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>965700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>625600</v>
+        <v>1863200</v>
       </c>
       <c r="E18" s="3">
-        <v>630800</v>
+        <v>1734600</v>
       </c>
       <c r="F18" s="3">
-        <v>670000</v>
+        <v>-644600</v>
       </c>
       <c r="G18" s="3">
-        <v>642100</v>
+        <v>-1299300</v>
       </c>
       <c r="H18" s="3">
-        <v>853700</v>
+        <v>-2371900</v>
       </c>
       <c r="I18" s="3">
+        <v>619900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>824100</v>
+      </c>
+      <c r="K18" s="3">
         <v>775400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>601500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>194200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>829000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>525400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>776700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>852000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,25 +1233,27 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-1314600</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-1002800</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1248500</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>1908300</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>3018700</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1213,8 +1279,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1257,140 +1329,164 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>48900</v>
+        <v>65400</v>
       </c>
       <c r="E22" s="3">
-        <v>63200</v>
+        <v>69800</v>
       </c>
       <c r="F22" s="3">
-        <v>66200</v>
+        <v>47200</v>
       </c>
       <c r="G22" s="3">
-        <v>59500</v>
+        <v>61000</v>
       </c>
       <c r="H22" s="3">
-        <v>55000</v>
+        <v>63900</v>
       </c>
       <c r="I22" s="3">
+        <v>57400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>53000</v>
+      </c>
+      <c r="K22" s="3">
         <v>58700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>56500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>60300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>40900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>64700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>61500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>61500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>576600</v>
+        <v>483200</v>
       </c>
       <c r="E23" s="3">
-        <v>567600</v>
+        <v>662000</v>
       </c>
       <c r="F23" s="3">
-        <v>603700</v>
+        <v>556600</v>
       </c>
       <c r="G23" s="3">
-        <v>582700</v>
+        <v>547900</v>
       </c>
       <c r="H23" s="3">
-        <v>798700</v>
+        <v>582800</v>
       </c>
       <c r="I23" s="3">
+        <v>562500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>771000</v>
+      </c>
+      <c r="K23" s="3">
         <v>716700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>545000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>134000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>788100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>460700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>715200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>790500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7500</v>
+        <v>202700</v>
       </c>
       <c r="E24" s="3">
-        <v>67800</v>
+        <v>69800</v>
       </c>
       <c r="F24" s="3">
-        <v>66200</v>
+        <v>7300</v>
       </c>
       <c r="G24" s="3">
-        <v>84300</v>
+        <v>65400</v>
       </c>
       <c r="H24" s="3">
-        <v>138500</v>
+        <v>63900</v>
       </c>
       <c r="I24" s="3">
+        <v>81400</v>
+      </c>
+      <c r="J24" s="3">
+        <v>133700</v>
+      </c>
+      <c r="K24" s="3">
         <v>137000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>89600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-43900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>155500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-17100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>139800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>154400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>569100</v>
+        <v>280500</v>
       </c>
       <c r="E26" s="3">
-        <v>499900</v>
+        <v>592300</v>
       </c>
       <c r="F26" s="3">
-        <v>537500</v>
+        <v>549400</v>
       </c>
       <c r="G26" s="3">
-        <v>498300</v>
+        <v>482500</v>
       </c>
       <c r="H26" s="3">
-        <v>660200</v>
+        <v>518900</v>
       </c>
       <c r="I26" s="3">
+        <v>481100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>637300</v>
+      </c>
+      <c r="K26" s="3">
         <v>579600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>455400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>177900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>632600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>477800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>575400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>636100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>512600</v>
+        <v>284100</v>
       </c>
       <c r="E27" s="3">
-        <v>447900</v>
+        <v>523900</v>
       </c>
       <c r="F27" s="3">
-        <v>469000</v>
+        <v>494900</v>
       </c>
       <c r="G27" s="3">
-        <v>436600</v>
+        <v>432400</v>
       </c>
       <c r="H27" s="3">
-        <v>426800</v>
+        <v>452700</v>
       </c>
       <c r="I27" s="3">
+        <v>421500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>412000</v>
+      </c>
+      <c r="K27" s="3">
         <v>531500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>503600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>148800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>608000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>427200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>423300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>559300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,16 +1679,22 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>-1500</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -1591,15 +1711,15 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>5200</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,25 +1829,31 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>1314600</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1002800</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-1248500</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>-1908300</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-3018700</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1741,52 +1879,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>512600</v>
+        <v>284100</v>
       </c>
       <c r="E33" s="3">
-        <v>447900</v>
+        <v>522500</v>
       </c>
       <c r="F33" s="3">
-        <v>469000</v>
+        <v>494900</v>
       </c>
       <c r="G33" s="3">
-        <v>436600</v>
+        <v>432400</v>
       </c>
       <c r="H33" s="3">
-        <v>426800</v>
+        <v>452700</v>
       </c>
       <c r="I33" s="3">
+        <v>421500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>412000</v>
+      </c>
+      <c r="K33" s="3">
         <v>531500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>503600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>154100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>608000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>427200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>423300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>559300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>512600</v>
+        <v>284100</v>
       </c>
       <c r="E35" s="3">
-        <v>447900</v>
+        <v>522500</v>
       </c>
       <c r="F35" s="3">
-        <v>469000</v>
+        <v>494900</v>
       </c>
       <c r="G35" s="3">
-        <v>436600</v>
+        <v>432400</v>
       </c>
       <c r="H35" s="3">
-        <v>426800</v>
+        <v>452700</v>
       </c>
       <c r="I35" s="3">
+        <v>421500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>412000</v>
+      </c>
+      <c r="K35" s="3">
         <v>531500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>503600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>154100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>608000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>427200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>423300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>559300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,52 +2128,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4686100</v>
+        <v>4681300</v>
       </c>
       <c r="E41" s="3">
-        <v>4764400</v>
+        <v>4879700</v>
       </c>
       <c r="F41" s="3">
-        <v>4084600</v>
+        <v>4523600</v>
       </c>
       <c r="G41" s="3">
-        <v>5493900</v>
+        <v>4599200</v>
       </c>
       <c r="H41" s="3">
-        <v>4569400</v>
+        <v>3943000</v>
       </c>
       <c r="I41" s="3">
+        <v>5303400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4411000</v>
+      </c>
+      <c r="K41" s="3">
         <v>4235200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4173500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4536700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4168300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4160100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3698300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>6639000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2046,8 +2224,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2081,17 +2265,23 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2152600</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2324,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,140 +2424,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>110042800</v>
+        <v>110225800</v>
       </c>
       <c r="E47" s="3">
-        <v>106265300</v>
+        <v>106133100</v>
       </c>
       <c r="F47" s="3">
-        <v>105702300</v>
+        <v>106227500</v>
       </c>
       <c r="G47" s="3">
-        <v>102499100</v>
+        <v>102581000</v>
       </c>
       <c r="H47" s="3">
-        <v>98658400</v>
+        <v>102037400</v>
       </c>
       <c r="I47" s="3">
+        <v>98945400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>95237800</v>
+      </c>
+      <c r="K47" s="3">
         <v>100356700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>99454100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>97862100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>94758000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>96311200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>98931100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>96419000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5521700</v>
+        <v>5347700</v>
       </c>
       <c r="E48" s="3">
-        <v>5441900</v>
+        <v>5309200</v>
       </c>
       <c r="F48" s="3">
-        <v>5268800</v>
+        <v>5330300</v>
       </c>
       <c r="G48" s="3">
-        <v>5387700</v>
+        <v>5253200</v>
       </c>
       <c r="H48" s="3">
-        <v>5472800</v>
+        <v>5086100</v>
       </c>
       <c r="I48" s="3">
+        <v>5200900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5283000</v>
+      </c>
+      <c r="K48" s="3">
         <v>5523200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5452500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5259300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5234800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5196100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5066500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5064200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5935000</v>
+        <v>5979200</v>
       </c>
       <c r="E49" s="3">
-        <v>5316200</v>
+        <v>5751800</v>
       </c>
       <c r="F49" s="3">
-        <v>5353800</v>
+        <v>5729200</v>
       </c>
       <c r="G49" s="3">
-        <v>5413300</v>
+        <v>5131900</v>
       </c>
       <c r="H49" s="3">
-        <v>5255200</v>
+        <v>5168200</v>
       </c>
       <c r="I49" s="3">
+        <v>5225600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5073000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5305700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5245400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5097800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5018200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5123100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>5357600</v>
-      </c>
-      <c r="O49" s="3">
-        <v>5393000</v>
       </c>
       <c r="P49" s="3">
         <v>5357600</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>5393000</v>
+      </c>
+      <c r="R49" s="3">
+        <v>5357600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1077200</v>
+        <v>1167100</v>
       </c>
       <c r="E52" s="3">
-        <v>982400</v>
+        <v>1057300</v>
       </c>
       <c r="F52" s="3">
-        <v>962100</v>
+        <v>1039900</v>
       </c>
       <c r="G52" s="3">
-        <v>910100</v>
+        <v>948300</v>
       </c>
       <c r="H52" s="3">
-        <v>844600</v>
+        <v>928700</v>
       </c>
       <c r="I52" s="3">
+        <v>878600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>815300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1002700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1011700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>963800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1096200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1117100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1064800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1112400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>220576500</v>
+        <v>211604900</v>
       </c>
       <c r="E54" s="3">
-        <v>215304700</v>
+        <v>215973700</v>
       </c>
       <c r="F54" s="3">
-        <v>212557000</v>
+        <v>212928900</v>
       </c>
       <c r="G54" s="3">
-        <v>204628600</v>
+        <v>207839900</v>
       </c>
       <c r="H54" s="3">
-        <v>203808100</v>
+        <v>205187500</v>
       </c>
       <c r="I54" s="3">
+        <v>197534000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>196741900</v>
+      </c>
+      <c r="K54" s="3">
         <v>205813500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>203042500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200275800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>194234300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>196338200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>200584100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>198386200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2868,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2654,8 +2914,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2689,61 +2955,73 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>145200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>185786300</v>
+        <v>175274700</v>
       </c>
       <c r="E59" s="3">
-        <v>182594500</v>
+        <v>182597600</v>
       </c>
       <c r="F59" s="3">
-        <v>179644300</v>
+        <v>179344900</v>
       </c>
       <c r="G59" s="3">
-        <v>171748300</v>
+        <v>176263700</v>
       </c>
       <c r="H59" s="3">
-        <v>172324900</v>
+        <v>173415800</v>
       </c>
       <c r="I59" s="3">
+        <v>165793600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>166350200</v>
+      </c>
+      <c r="K59" s="3">
         <v>174071400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>171658700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>169128400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>163182200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>164999500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>168698700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>170079200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,96 +3064,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3416200</v>
+        <v>2935100</v>
       </c>
       <c r="E61" s="3">
-        <v>3079700</v>
+        <v>2934400</v>
       </c>
       <c r="F61" s="3">
-        <v>3266400</v>
+        <v>3297700</v>
       </c>
       <c r="G61" s="3">
-        <v>3265600</v>
+        <v>2972900</v>
       </c>
       <c r="H61" s="3">
-        <v>3265600</v>
+        <v>3153100</v>
       </c>
       <c r="I61" s="3">
+        <v>3152400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3152400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3264900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3264100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4533000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3227600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3227600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3331000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7968800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>298900</v>
+        <v>227500</v>
       </c>
       <c r="E62" s="3">
-        <v>295800</v>
+        <v>295000</v>
       </c>
       <c r="F62" s="3">
-        <v>246900</v>
+        <v>288500</v>
       </c>
       <c r="G62" s="3">
-        <v>242400</v>
+        <v>285600</v>
       </c>
       <c r="H62" s="3">
-        <v>270300</v>
+        <v>238400</v>
       </c>
       <c r="I62" s="3">
+        <v>234000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>260900</v>
+      </c>
+      <c r="K62" s="3">
         <v>353800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>322200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>299900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>555900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>571600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>569300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>527800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>202375500</v>
+        <v>193261800</v>
       </c>
       <c r="E66" s="3">
-        <v>197475600</v>
+        <v>198177800</v>
       </c>
       <c r="F66" s="3">
-        <v>194654200</v>
+        <v>195359000</v>
       </c>
       <c r="G66" s="3">
-        <v>186783000</v>
+        <v>190629000</v>
       </c>
       <c r="H66" s="3">
-        <v>186618900</v>
+        <v>187905300</v>
       </c>
       <c r="I66" s="3">
+        <v>179679200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>180148600</v>
+      </c>
+      <c r="K66" s="3">
         <v>188336800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>185875900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>183664300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>177640000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>179730400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>183510200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>181518900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,52 +3484,64 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1640100</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1640100</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1640100</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1640100</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1640100</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1640100</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1640100</v>
+      </c>
+      <c r="K70" s="3">
         <v>1699000</v>
       </c>
-      <c r="E70" s="3">
+      <c r="L70" s="3">
         <v>1699000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1699000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1699000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1699000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1699000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1699000</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1679700</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1679700</v>
       </c>
       <c r="M70" s="3">
         <v>1679700</v>
       </c>
       <c r="N70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="O70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="P70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>1733900</v>
+      </c>
+      <c r="R70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8216700</v>
+        <v>8165100</v>
       </c>
       <c r="E72" s="3">
-        <v>8701500</v>
+        <v>8224700</v>
       </c>
       <c r="F72" s="3">
-        <v>8599100</v>
+        <v>7931800</v>
       </c>
       <c r="G72" s="3">
-        <v>8481700</v>
+        <v>8399800</v>
       </c>
       <c r="H72" s="3">
-        <v>8387600</v>
+        <v>8301000</v>
       </c>
       <c r="I72" s="3">
+        <v>8187600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>8096800</v>
+      </c>
+      <c r="K72" s="3">
         <v>8286700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>7994600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>7669100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>7765800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>7402700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>7415700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>7190600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16501900</v>
+        <v>16703000</v>
       </c>
       <c r="E76" s="3">
-        <v>16130000</v>
+        <v>16155800</v>
       </c>
       <c r="F76" s="3">
-        <v>16203800</v>
+        <v>15929800</v>
       </c>
       <c r="G76" s="3">
-        <v>16146600</v>
+        <v>15570800</v>
       </c>
       <c r="H76" s="3">
-        <v>15490200</v>
+        <v>15642000</v>
       </c>
       <c r="I76" s="3">
+        <v>16214600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>14953100</v>
+      </c>
+      <c r="K76" s="3">
         <v>15777700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15467600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14931800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>14914700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>14928100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>15340000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>15133400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>512600</v>
+        <v>284100</v>
       </c>
       <c r="E81" s="3">
-        <v>447900</v>
+        <v>522500</v>
       </c>
       <c r="F81" s="3">
-        <v>469000</v>
+        <v>494900</v>
       </c>
       <c r="G81" s="3">
-        <v>436600</v>
+        <v>432400</v>
       </c>
       <c r="H81" s="3">
-        <v>426800</v>
+        <v>452700</v>
       </c>
       <c r="I81" s="3">
+        <v>421500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>412000</v>
+      </c>
+      <c r="K81" s="3">
         <v>531500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>503600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>154100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>608000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>427200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>423300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>559300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,8 +4013,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3663,8 +4059,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,52 +4309,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>145300</v>
+        <v>60300</v>
       </c>
       <c r="E89" s="3">
-        <v>1431100</v>
+        <v>1220800</v>
       </c>
       <c r="F89" s="3">
-        <v>-923700</v>
+        <v>140300</v>
       </c>
       <c r="G89" s="3">
-        <v>1417500</v>
+        <v>1381400</v>
       </c>
       <c r="H89" s="3">
-        <v>841600</v>
+        <v>-891600</v>
       </c>
       <c r="I89" s="3">
+        <v>1368400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>812400</v>
+      </c>
+      <c r="K89" s="3">
         <v>303400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>323700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>483700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>468900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>983800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-474800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1057900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,52 +4383,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-12800</v>
+        <v>-26900</v>
       </c>
       <c r="E91" s="3">
-        <v>-15800</v>
+        <v>-32700</v>
       </c>
       <c r="F91" s="3">
-        <v>-23300</v>
+        <v>-12400</v>
       </c>
       <c r="G91" s="3">
-        <v>-38400</v>
+        <v>-15300</v>
       </c>
       <c r="H91" s="3">
-        <v>-21800</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-35700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-29800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-38000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-33000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-39900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,52 +4529,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-159600</v>
+        <v>-70500</v>
       </c>
       <c r="E94" s="3">
+        <v>-91600</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-96600</v>
+      </c>
+      <c r="J94" s="3">
         <v>-41400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-27900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-42900</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-51200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-16600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-104900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-49100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-111600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>13800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-77600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,52 +4603,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-245400</v>
+        <v>-247800</v>
       </c>
       <c r="E96" s="3">
-        <v>-249200</v>
+        <v>-248500</v>
       </c>
       <c r="F96" s="3">
-        <v>-240100</v>
+        <v>-236900</v>
       </c>
       <c r="G96" s="3">
-        <v>-237900</v>
+        <v>-240500</v>
       </c>
       <c r="H96" s="3">
-        <v>-231100</v>
+        <v>-231800</v>
       </c>
       <c r="I96" s="3">
+        <v>-229600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-223100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-231900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-222800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-221000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-214300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-217300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-213600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-212800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,136 +4799,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-132500</v>
+        <v>-500000</v>
       </c>
       <c r="E100" s="3">
-        <v>-523900</v>
+        <v>-699800</v>
       </c>
       <c r="F100" s="3">
-        <v>-452400</v>
+        <v>-127900</v>
       </c>
       <c r="G100" s="3">
-        <v>-470500</v>
+        <v>-505800</v>
       </c>
       <c r="H100" s="3">
-        <v>-441900</v>
+        <v>-436700</v>
       </c>
       <c r="I100" s="3">
+        <v>-454200</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-426600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-299600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-719700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-14900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-337100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-277600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-901100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-574600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>26300</v>
+        <v>259400</v>
       </c>
       <c r="E101" s="3">
-        <v>-61000</v>
+        <v>-48700</v>
       </c>
       <c r="F101" s="3">
-        <v>-58000</v>
+        <v>25400</v>
       </c>
       <c r="G101" s="3">
-        <v>152100</v>
+        <v>-58900</v>
       </c>
       <c r="H101" s="3">
-        <v>-49700</v>
+        <v>-56000</v>
       </c>
       <c r="I101" s="3">
+        <v>146800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="K101" s="3">
         <v>28600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>57200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>26800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-77400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-59500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-23800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>50700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-120400</v>
+        <v>-250700</v>
       </c>
       <c r="E102" s="3">
-        <v>804700</v>
+        <v>380800</v>
       </c>
       <c r="F102" s="3">
-        <v>-1461900</v>
+        <v>-116300</v>
       </c>
       <c r="G102" s="3">
-        <v>999000</v>
+        <v>776800</v>
       </c>
       <c r="H102" s="3">
-        <v>307100</v>
+        <v>-1411200</v>
       </c>
       <c r="I102" s="3">
+        <v>964300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>296500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-18800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-355300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>390700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>535100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>456300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,127 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6016300</v>
+        <v>6517200</v>
       </c>
       <c r="E8" s="3">
-        <v>7197900</v>
+        <v>6301100</v>
       </c>
       <c r="F8" s="3">
-        <v>5739400</v>
+        <v>7538600</v>
       </c>
       <c r="G8" s="3">
-        <v>5464700</v>
+        <v>6011100</v>
       </c>
       <c r="H8" s="3">
-        <v>5259800</v>
+        <v>5723400</v>
       </c>
       <c r="I8" s="3">
-        <v>5944300</v>
+        <v>5508800</v>
       </c>
       <c r="J8" s="3">
+        <v>6225700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4358700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5138500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4511500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6435900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4134100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6044500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5384500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1817600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1030,8 +1049,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
@@ -1048,8 +1067,11 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4153000</v>
+        <v>10946800</v>
       </c>
       <c r="E17" s="3">
-        <v>5463300</v>
+        <v>4349600</v>
       </c>
       <c r="F17" s="3">
-        <v>6384000</v>
+        <v>5721900</v>
       </c>
       <c r="G17" s="3">
-        <v>6764000</v>
+        <v>6686200</v>
       </c>
       <c r="H17" s="3">
-        <v>7631700</v>
+        <v>7084200</v>
       </c>
       <c r="I17" s="3">
-        <v>5324500</v>
+        <v>7993000</v>
       </c>
       <c r="J17" s="3">
+        <v>5576500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3534600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4363200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3910000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6241700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3305000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5519100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4607800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>965700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1863200</v>
+        <v>-4429500</v>
       </c>
       <c r="E18" s="3">
-        <v>1734600</v>
+        <v>1951400</v>
       </c>
       <c r="F18" s="3">
-        <v>-644600</v>
+        <v>1816700</v>
       </c>
       <c r="G18" s="3">
-        <v>-1299300</v>
+        <v>-675100</v>
       </c>
       <c r="H18" s="3">
-        <v>-2371900</v>
+        <v>-1360800</v>
       </c>
       <c r="I18" s="3">
-        <v>619900</v>
+        <v>-2484200</v>
       </c>
       <c r="J18" s="3">
+        <v>649200</v>
+      </c>
+      <c r="K18" s="3">
         <v>824100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>775400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>601500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>194200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>829000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>525400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>776700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>852000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,28 +1267,29 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1314600</v>
+        <v>5040700</v>
       </c>
       <c r="E20" s="3">
-        <v>-1002800</v>
+        <v>-1376800</v>
       </c>
       <c r="F20" s="3">
-        <v>1248500</v>
+        <v>-1050300</v>
       </c>
       <c r="G20" s="3">
-        <v>1908300</v>
+        <v>1307600</v>
       </c>
       <c r="H20" s="3">
-        <v>3018700</v>
+        <v>1998600</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>3161600</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
@@ -1285,8 +1318,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1335,158 +1371,170 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65400</v>
+        <v>68500</v>
       </c>
       <c r="E22" s="3">
-        <v>69800</v>
+        <v>68500</v>
       </c>
       <c r="F22" s="3">
-        <v>47200</v>
+        <v>73100</v>
       </c>
       <c r="G22" s="3">
-        <v>61000</v>
+        <v>49500</v>
       </c>
       <c r="H22" s="3">
         <v>63900</v>
       </c>
       <c r="I22" s="3">
-        <v>57400</v>
+        <v>67000</v>
       </c>
       <c r="J22" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K22" s="3">
         <v>53000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>56500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>40900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>64700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>61500</v>
       </c>
       <c r="Q22" s="3">
         <v>61500</v>
       </c>
       <c r="R22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="S22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>483200</v>
+        <v>542700</v>
       </c>
       <c r="E23" s="3">
-        <v>662000</v>
+        <v>506100</v>
       </c>
       <c r="F23" s="3">
-        <v>556600</v>
+        <v>693400</v>
       </c>
       <c r="G23" s="3">
-        <v>547900</v>
+        <v>583000</v>
       </c>
       <c r="H23" s="3">
-        <v>582800</v>
+        <v>573900</v>
       </c>
       <c r="I23" s="3">
-        <v>562500</v>
+        <v>610400</v>
       </c>
       <c r="J23" s="3">
+        <v>589100</v>
+      </c>
+      <c r="K23" s="3">
         <v>771000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>716700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>545000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>134000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>788100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>460700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>715200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>790500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>202700</v>
+        <v>46400</v>
       </c>
       <c r="E24" s="3">
-        <v>69800</v>
+        <v>212300</v>
       </c>
       <c r="F24" s="3">
-        <v>7300</v>
+        <v>73100</v>
       </c>
       <c r="G24" s="3">
-        <v>65400</v>
+        <v>7600</v>
       </c>
       <c r="H24" s="3">
-        <v>63900</v>
+        <v>68500</v>
       </c>
       <c r="I24" s="3">
-        <v>81400</v>
+        <v>67000</v>
       </c>
       <c r="J24" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K24" s="3">
         <v>133700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>137000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>89600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-43900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>155500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-17100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>139800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>154400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>280500</v>
+        <v>496200</v>
       </c>
       <c r="E26" s="3">
-        <v>592300</v>
+        <v>293800</v>
       </c>
       <c r="F26" s="3">
-        <v>549400</v>
+        <v>620300</v>
       </c>
       <c r="G26" s="3">
-        <v>482500</v>
+        <v>575400</v>
       </c>
       <c r="H26" s="3">
-        <v>518900</v>
+        <v>505400</v>
       </c>
       <c r="I26" s="3">
-        <v>481100</v>
+        <v>543400</v>
       </c>
       <c r="J26" s="3">
+        <v>503800</v>
+      </c>
+      <c r="K26" s="3">
         <v>637300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>579600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>455400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>177900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>632600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>477800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>575400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>636100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>284100</v>
+        <v>395000</v>
       </c>
       <c r="E27" s="3">
-        <v>523900</v>
+        <v>297600</v>
       </c>
       <c r="F27" s="3">
-        <v>494900</v>
+        <v>548700</v>
       </c>
       <c r="G27" s="3">
-        <v>432400</v>
+        <v>518300</v>
       </c>
       <c r="H27" s="3">
-        <v>452700</v>
+        <v>452800</v>
       </c>
       <c r="I27" s="3">
-        <v>421500</v>
+        <v>474200</v>
       </c>
       <c r="J27" s="3">
+        <v>441400</v>
+      </c>
+      <c r="K27" s="3">
         <v>412000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>531500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>503600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>148800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>608000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>427200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>423300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>559300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,20 +1742,23 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
         <v>-1500</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1717,12 +1777,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>5200</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,28 +1901,31 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1314600</v>
+        <v>-5040700</v>
       </c>
       <c r="E32" s="3">
-        <v>1002800</v>
+        <v>1376800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1248500</v>
+        <v>1050300</v>
       </c>
       <c r="G32" s="3">
-        <v>-1908300</v>
+        <v>-1307600</v>
       </c>
       <c r="H32" s="3">
-        <v>-3018700</v>
+        <v>-1998600</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-3161600</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1885,58 +1954,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>284100</v>
+        <v>395000</v>
       </c>
       <c r="E33" s="3">
-        <v>522500</v>
+        <v>297600</v>
       </c>
       <c r="F33" s="3">
-        <v>494900</v>
+        <v>547200</v>
       </c>
       <c r="G33" s="3">
-        <v>432400</v>
+        <v>518300</v>
       </c>
       <c r="H33" s="3">
-        <v>452700</v>
+        <v>452800</v>
       </c>
       <c r="I33" s="3">
-        <v>421500</v>
+        <v>474200</v>
       </c>
       <c r="J33" s="3">
+        <v>441400</v>
+      </c>
+      <c r="K33" s="3">
         <v>412000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>531500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>503600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>154100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>608000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>427200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>423300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>559300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>284100</v>
+        <v>395000</v>
       </c>
       <c r="E35" s="3">
-        <v>522500</v>
+        <v>297600</v>
       </c>
       <c r="F35" s="3">
-        <v>494900</v>
+        <v>547200</v>
       </c>
       <c r="G35" s="3">
-        <v>432400</v>
+        <v>518300</v>
       </c>
       <c r="H35" s="3">
-        <v>452700</v>
+        <v>452800</v>
       </c>
       <c r="I35" s="3">
-        <v>421500</v>
+        <v>474200</v>
       </c>
       <c r="J35" s="3">
+        <v>441400</v>
+      </c>
+      <c r="K35" s="3">
         <v>412000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>531500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>503600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>154100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>608000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>427200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>423300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>559300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,58 +2215,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4681300</v>
+        <v>7418300</v>
       </c>
       <c r="E41" s="3">
-        <v>4879700</v>
+        <v>4902900</v>
       </c>
       <c r="F41" s="3">
-        <v>4523600</v>
+        <v>5110700</v>
       </c>
       <c r="G41" s="3">
-        <v>4599200</v>
+        <v>4737800</v>
       </c>
       <c r="H41" s="3">
-        <v>3943000</v>
+        <v>4816900</v>
       </c>
       <c r="I41" s="3">
-        <v>5303400</v>
+        <v>4129700</v>
       </c>
       <c r="J41" s="3">
+        <v>5554400</v>
+      </c>
+      <c r="K41" s="3">
         <v>4411000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4235200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4173500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4536700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4168300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4160100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3698300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6639000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,8 +2319,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2271,17 +2363,20 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>2152600</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,158 +2531,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>110225800</v>
+        <v>119062600</v>
       </c>
       <c r="E47" s="3">
-        <v>106133100</v>
+        <v>115443700</v>
       </c>
       <c r="F47" s="3">
-        <v>106227500</v>
+        <v>111157200</v>
       </c>
       <c r="G47" s="3">
-        <v>102581000</v>
+        <v>111256100</v>
       </c>
       <c r="H47" s="3">
-        <v>102037400</v>
+        <v>107437000</v>
       </c>
       <c r="I47" s="3">
-        <v>98945400</v>
+        <v>106867700</v>
       </c>
       <c r="J47" s="3">
+        <v>103629300</v>
+      </c>
+      <c r="K47" s="3">
         <v>95237800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>100356700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>99454100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>97862100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>94758000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>96311200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>98931100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>96419000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5347700</v>
+        <v>5635100</v>
       </c>
       <c r="E48" s="3">
-        <v>5309200</v>
+        <v>5600900</v>
       </c>
       <c r="F48" s="3">
-        <v>5330300</v>
+        <v>5560500</v>
       </c>
       <c r="G48" s="3">
-        <v>5253200</v>
+        <v>5582600</v>
       </c>
       <c r="H48" s="3">
-        <v>5086100</v>
+        <v>5501900</v>
       </c>
       <c r="I48" s="3">
-        <v>5200900</v>
+        <v>5326900</v>
       </c>
       <c r="J48" s="3">
+        <v>5447100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5283000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5523200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5452500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5259300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5234800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5196100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5066500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5064200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5979200</v>
+        <v>6156500</v>
       </c>
       <c r="E49" s="3">
-        <v>5751800</v>
+        <v>6262200</v>
       </c>
       <c r="F49" s="3">
-        <v>5729200</v>
+        <v>6024000</v>
       </c>
       <c r="G49" s="3">
-        <v>5131900</v>
+        <v>6000400</v>
       </c>
       <c r="H49" s="3">
-        <v>5168200</v>
+        <v>5374800</v>
       </c>
       <c r="I49" s="3">
-        <v>5225600</v>
+        <v>5412900</v>
       </c>
       <c r="J49" s="3">
+        <v>5473000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5073000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5305700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5245400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5097800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5018200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5123100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5357600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5393000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1167100</v>
+        <v>1167500</v>
       </c>
       <c r="E52" s="3">
-        <v>1057300</v>
+        <v>1222300</v>
       </c>
       <c r="F52" s="3">
-        <v>1039900</v>
+        <v>1107400</v>
       </c>
       <c r="G52" s="3">
-        <v>948300</v>
+        <v>1089100</v>
       </c>
       <c r="H52" s="3">
-        <v>928700</v>
+        <v>993200</v>
       </c>
       <c r="I52" s="3">
-        <v>878600</v>
+        <v>972700</v>
       </c>
       <c r="J52" s="3">
+        <v>920200</v>
+      </c>
+      <c r="K52" s="3">
         <v>815300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1002700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1011700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>963800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1096200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1117100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1064800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1112400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>211604900</v>
+        <v>234745300</v>
       </c>
       <c r="E54" s="3">
-        <v>215973700</v>
+        <v>221621800</v>
       </c>
       <c r="F54" s="3">
-        <v>212928900</v>
+        <v>226197500</v>
       </c>
       <c r="G54" s="3">
-        <v>207839900</v>
+        <v>223008500</v>
       </c>
       <c r="H54" s="3">
-        <v>205187500</v>
+        <v>217678600</v>
       </c>
       <c r="I54" s="3">
-        <v>197534000</v>
+        <v>214900600</v>
       </c>
       <c r="J54" s="3">
+        <v>206884800</v>
+      </c>
+      <c r="K54" s="3">
         <v>196741900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>205813500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>203042500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>200275800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>194234300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>196338200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200584100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>198386200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,8 +2999,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2920,8 +3050,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2961,67 +3094,73 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>145200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>175274700</v>
+        <v>196850600</v>
       </c>
       <c r="E59" s="3">
-        <v>182597600</v>
+        <v>183571900</v>
       </c>
       <c r="F59" s="3">
-        <v>179344900</v>
+        <v>191241400</v>
       </c>
       <c r="G59" s="3">
-        <v>176263700</v>
+        <v>187834700</v>
       </c>
       <c r="H59" s="3">
-        <v>173415800</v>
+        <v>184607700</v>
       </c>
       <c r="I59" s="3">
-        <v>165793600</v>
+        <v>181625000</v>
       </c>
       <c r="J59" s="3">
+        <v>173641900</v>
+      </c>
+      <c r="K59" s="3">
         <v>166350200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>174071400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>171658700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>169128400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>163182200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>164999500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>168698700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>170079200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,108 +3209,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2935100</v>
+        <v>3831300</v>
       </c>
       <c r="E61" s="3">
-        <v>2934400</v>
+        <v>3074000</v>
       </c>
       <c r="F61" s="3">
-        <v>3297700</v>
+        <v>3073300</v>
       </c>
       <c r="G61" s="3">
-        <v>2972900</v>
+        <v>3453800</v>
       </c>
       <c r="H61" s="3">
-        <v>3153100</v>
+        <v>3113600</v>
       </c>
       <c r="I61" s="3">
+        <v>3302400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3301600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3152400</v>
       </c>
-      <c r="J61" s="3">
-        <v>3152400</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3264900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3264100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>3227600</v>
       </c>
       <c r="O61" s="3">
         <v>3227600</v>
       </c>
       <c r="P61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="Q61" s="3">
         <v>3331000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7968800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>227500</v>
+        <v>297600</v>
       </c>
       <c r="E62" s="3">
-        <v>295000</v>
+        <v>238200</v>
       </c>
       <c r="F62" s="3">
-        <v>288500</v>
+        <v>309000</v>
       </c>
       <c r="G62" s="3">
-        <v>285600</v>
+        <v>302200</v>
       </c>
       <c r="H62" s="3">
-        <v>238400</v>
+        <v>299100</v>
       </c>
       <c r="I62" s="3">
-        <v>234000</v>
+        <v>249600</v>
       </c>
       <c r="J62" s="3">
+        <v>245100</v>
+      </c>
+      <c r="K62" s="3">
         <v>260900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>353800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>322200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>299900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>555900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>571600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>569300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>527800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>193261800</v>
+        <v>215424200</v>
       </c>
       <c r="E66" s="3">
-        <v>198177800</v>
+        <v>202410400</v>
       </c>
       <c r="F66" s="3">
-        <v>195359000</v>
+        <v>207559100</v>
       </c>
       <c r="G66" s="3">
-        <v>190629000</v>
+        <v>204606900</v>
       </c>
       <c r="H66" s="3">
-        <v>187905300</v>
+        <v>199652900</v>
       </c>
       <c r="I66" s="3">
-        <v>179679200</v>
+        <v>196800400</v>
       </c>
       <c r="J66" s="3">
+        <v>188184800</v>
+      </c>
+      <c r="K66" s="3">
         <v>180148600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>188336800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>185875900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>183664300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>177640000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>179730400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>183510200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>181518900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,40 +3654,43 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1717800</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1717800</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1717800</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1717800</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1717800</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1717800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1717800</v>
+      </c>
+      <c r="K70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1640100</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1640100</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1640100</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1640100</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1640100</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1640100</v>
-      </c>
-      <c r="K70" s="3">
-        <v>1699000</v>
       </c>
       <c r="L70" s="3">
         <v>1699000</v>
       </c>
       <c r="M70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="N70" s="3">
         <v>1679700</v>
@@ -3532,7 +3699,7 @@
         <v>1679700</v>
       </c>
       <c r="P70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="Q70" s="3">
         <v>1733900</v>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8165100</v>
+        <v>8700000</v>
       </c>
       <c r="E72" s="3">
-        <v>8224700</v>
+        <v>8551600</v>
       </c>
       <c r="F72" s="3">
-        <v>7931800</v>
+        <v>8614000</v>
       </c>
       <c r="G72" s="3">
-        <v>8399800</v>
+        <v>8307300</v>
       </c>
       <c r="H72" s="3">
-        <v>8301000</v>
+        <v>8797400</v>
       </c>
       <c r="I72" s="3">
-        <v>8187600</v>
+        <v>8693900</v>
       </c>
       <c r="J72" s="3">
+        <v>8575200</v>
+      </c>
+      <c r="K72" s="3">
         <v>8096800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8286700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7994600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7669100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7765800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7402700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7415700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7190600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16703000</v>
+        <v>17603300</v>
       </c>
       <c r="E76" s="3">
-        <v>16155800</v>
+        <v>17493700</v>
       </c>
       <c r="F76" s="3">
-        <v>15929800</v>
+        <v>16920600</v>
       </c>
       <c r="G76" s="3">
-        <v>15570800</v>
+        <v>16683900</v>
       </c>
       <c r="H76" s="3">
-        <v>15642000</v>
+        <v>16307900</v>
       </c>
       <c r="I76" s="3">
-        <v>16214600</v>
+        <v>16382500</v>
       </c>
       <c r="J76" s="3">
+        <v>16982200</v>
+      </c>
+      <c r="K76" s="3">
         <v>14953100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15777700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15467600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14931800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14914700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14928100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15340000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15133400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>284100</v>
+        <v>395000</v>
       </c>
       <c r="E81" s="3">
-        <v>522500</v>
+        <v>297600</v>
       </c>
       <c r="F81" s="3">
-        <v>494900</v>
+        <v>547200</v>
       </c>
       <c r="G81" s="3">
-        <v>432400</v>
+        <v>518300</v>
       </c>
       <c r="H81" s="3">
-        <v>452700</v>
+        <v>452800</v>
       </c>
       <c r="I81" s="3">
-        <v>421500</v>
+        <v>474200</v>
       </c>
       <c r="J81" s="3">
+        <v>441400</v>
+      </c>
+      <c r="K81" s="3">
         <v>412000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>531500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>503600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>154100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>608000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>427200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>423300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>559300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,8 +4212,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4065,8 +4263,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>60300</v>
+        <v>2325900</v>
       </c>
       <c r="E89" s="3">
-        <v>1220800</v>
+        <v>63200</v>
       </c>
       <c r="F89" s="3">
-        <v>140300</v>
+        <v>1278600</v>
       </c>
       <c r="G89" s="3">
-        <v>1381400</v>
+        <v>146900</v>
       </c>
       <c r="H89" s="3">
-        <v>-891600</v>
+        <v>1446800</v>
       </c>
       <c r="I89" s="3">
-        <v>1368400</v>
+        <v>-933900</v>
       </c>
       <c r="J89" s="3">
+        <v>1433100</v>
+      </c>
+      <c r="K89" s="3">
         <v>812400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>303400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>323700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>483700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>468900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>983800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-474800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1057900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-26900</v>
+        <v>-28200</v>
       </c>
       <c r="E91" s="3">
-        <v>-32700</v>
+        <v>-28200</v>
       </c>
       <c r="F91" s="3">
-        <v>-12400</v>
+        <v>-34200</v>
       </c>
       <c r="G91" s="3">
-        <v>-15300</v>
+        <v>-12900</v>
       </c>
       <c r="H91" s="3">
-        <v>-22500</v>
+        <v>-16000</v>
       </c>
       <c r="I91" s="3">
-        <v>-37100</v>
+        <v>-23600</v>
       </c>
       <c r="J91" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-21100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-35700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-39900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-70500</v>
+        <v>-71500</v>
       </c>
       <c r="E94" s="3">
-        <v>-91600</v>
+        <v>-73800</v>
       </c>
       <c r="F94" s="3">
-        <v>-154100</v>
+        <v>-95900</v>
       </c>
       <c r="G94" s="3">
-        <v>-40000</v>
+        <v>-161400</v>
       </c>
       <c r="H94" s="3">
-        <v>-26900</v>
+        <v>-41900</v>
       </c>
       <c r="I94" s="3">
-        <v>-96600</v>
+        <v>-28200</v>
       </c>
       <c r="J94" s="3">
+        <v>-101200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-41400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-16600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-104900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-49100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-111600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>13800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-77600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,58 +4837,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-247800</v>
+        <v>-259500</v>
       </c>
       <c r="E96" s="3">
-        <v>-248500</v>
+        <v>-259500</v>
       </c>
       <c r="F96" s="3">
-        <v>-236900</v>
+        <v>-260300</v>
       </c>
       <c r="G96" s="3">
+        <v>-248100</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-251900</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-242800</v>
+      </c>
+      <c r="J96" s="3">
         <v>-240500</v>
       </c>
-      <c r="H96" s="3">
-        <v>-231800</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-229600</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-223100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-231900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-222800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-221000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-214300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-217300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-213600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-212800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-500000</v>
+        <v>462000</v>
       </c>
       <c r="E100" s="3">
-        <v>-699800</v>
+        <v>-523600</v>
       </c>
       <c r="F100" s="3">
-        <v>-127900</v>
+        <v>-732900</v>
       </c>
       <c r="G100" s="3">
-        <v>-505800</v>
+        <v>-134000</v>
       </c>
       <c r="H100" s="3">
-        <v>-436700</v>
+        <v>-529700</v>
       </c>
       <c r="I100" s="3">
-        <v>-454200</v>
+        <v>-457400</v>
       </c>
       <c r="J100" s="3">
+        <v>-475700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-426600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-299600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-719700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-337100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-277600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-901100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-574600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>259400</v>
+        <v>-124100</v>
       </c>
       <c r="E101" s="3">
-        <v>-48700</v>
+        <v>271700</v>
       </c>
       <c r="F101" s="3">
-        <v>25400</v>
+        <v>-51000</v>
       </c>
       <c r="G101" s="3">
-        <v>-58900</v>
+        <v>26600</v>
       </c>
       <c r="H101" s="3">
-        <v>-56000</v>
+        <v>-61600</v>
       </c>
       <c r="I101" s="3">
-        <v>146800</v>
+        <v>-58600</v>
       </c>
       <c r="J101" s="3">
+        <v>153700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-48000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>28600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>57200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>26800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-77400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-59500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>50700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-250700</v>
+        <v>2592300</v>
       </c>
       <c r="E102" s="3">
-        <v>380800</v>
+        <v>-262600</v>
       </c>
       <c r="F102" s="3">
-        <v>-116300</v>
+        <v>398800</v>
       </c>
       <c r="G102" s="3">
-        <v>776800</v>
+        <v>-121800</v>
       </c>
       <c r="H102" s="3">
-        <v>-1411200</v>
+        <v>813600</v>
       </c>
       <c r="I102" s="3">
-        <v>964300</v>
+        <v>-1478000</v>
       </c>
       <c r="J102" s="3">
+        <v>1010000</v>
+      </c>
+      <c r="K102" s="3">
         <v>296500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-18800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-355300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>390700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>535100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>456300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,133 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6517200</v>
+        <v>7340200</v>
       </c>
       <c r="E8" s="3">
-        <v>6301100</v>
+        <v>6592000</v>
       </c>
       <c r="F8" s="3">
-        <v>7538600</v>
+        <v>6373300</v>
       </c>
       <c r="G8" s="3">
-        <v>6011100</v>
+        <v>7625100</v>
       </c>
       <c r="H8" s="3">
-        <v>5723400</v>
+        <v>6080000</v>
       </c>
       <c r="I8" s="3">
-        <v>5508800</v>
+        <v>5789000</v>
       </c>
       <c r="J8" s="3">
+        <v>5572000</v>
+      </c>
+      <c r="K8" s="3">
         <v>6225700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4358700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5138500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4511500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6435900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4134100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6044500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5384500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1817600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1052,8 +1071,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
@@ -1070,8 +1089,11 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1145,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10946800</v>
+        <v>6895300</v>
       </c>
       <c r="E17" s="3">
-        <v>4349600</v>
+        <v>11072300</v>
       </c>
       <c r="F17" s="3">
-        <v>5721900</v>
+        <v>4399500</v>
       </c>
       <c r="G17" s="3">
-        <v>6686200</v>
+        <v>5787500</v>
       </c>
       <c r="H17" s="3">
-        <v>7084200</v>
+        <v>6762900</v>
       </c>
       <c r="I17" s="3">
-        <v>7993000</v>
+        <v>7165500</v>
       </c>
       <c r="J17" s="3">
+        <v>8084600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5576500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3534600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4363200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3910000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6241700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3305000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5519100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4607800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>965700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-4429500</v>
+        <v>445000</v>
       </c>
       <c r="E18" s="3">
-        <v>1951400</v>
+        <v>-4480400</v>
       </c>
       <c r="F18" s="3">
-        <v>1816700</v>
+        <v>1973800</v>
       </c>
       <c r="G18" s="3">
-        <v>-675100</v>
+        <v>1837600</v>
       </c>
       <c r="H18" s="3">
-        <v>-1360800</v>
+        <v>-682800</v>
       </c>
       <c r="I18" s="3">
-        <v>-2484200</v>
+        <v>-1376400</v>
       </c>
       <c r="J18" s="3">
+        <v>-2512700</v>
+      </c>
+      <c r="K18" s="3">
         <v>649200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>824100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>775400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>601500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>194200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>829000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>525400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>776700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>852000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,31 +1300,32 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5040700</v>
+        <v>382600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1376800</v>
+        <v>5098500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1050300</v>
+        <v>-1392600</v>
       </c>
       <c r="G20" s="3">
-        <v>1307600</v>
+        <v>-1062400</v>
       </c>
       <c r="H20" s="3">
-        <v>1998600</v>
+        <v>1322600</v>
       </c>
       <c r="I20" s="3">
-        <v>3161600</v>
+        <v>2021500</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>3197800</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1321,8 +1354,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1374,167 +1410,179 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>68500</v>
+        <v>66200</v>
       </c>
       <c r="E22" s="3">
-        <v>68500</v>
+        <v>69300</v>
       </c>
       <c r="F22" s="3">
-        <v>73100</v>
+        <v>69300</v>
       </c>
       <c r="G22" s="3">
-        <v>49500</v>
+        <v>73900</v>
       </c>
       <c r="H22" s="3">
-        <v>63900</v>
+        <v>50000</v>
       </c>
       <c r="I22" s="3">
-        <v>67000</v>
+        <v>64700</v>
       </c>
       <c r="J22" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K22" s="3">
         <v>60100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>58700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>56500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>40900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>64700</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>61500</v>
       </c>
       <c r="R22" s="3">
         <v>61500</v>
       </c>
       <c r="S22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="T22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>542700</v>
+        <v>761400</v>
       </c>
       <c r="E23" s="3">
-        <v>506100</v>
+        <v>548900</v>
       </c>
       <c r="F23" s="3">
-        <v>693400</v>
+        <v>511900</v>
       </c>
       <c r="G23" s="3">
-        <v>583000</v>
+        <v>701300</v>
       </c>
       <c r="H23" s="3">
-        <v>573900</v>
+        <v>589700</v>
       </c>
       <c r="I23" s="3">
-        <v>610400</v>
+        <v>580400</v>
       </c>
       <c r="J23" s="3">
+        <v>617400</v>
+      </c>
+      <c r="K23" s="3">
         <v>589100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>771000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>716700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>545000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>134000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>788100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>460700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>715200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>790500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46400</v>
+        <v>78500</v>
       </c>
       <c r="E24" s="3">
-        <v>212300</v>
+        <v>47000</v>
       </c>
       <c r="F24" s="3">
-        <v>73100</v>
+        <v>214800</v>
       </c>
       <c r="G24" s="3">
-        <v>7600</v>
+        <v>73900</v>
       </c>
       <c r="H24" s="3">
-        <v>68500</v>
+        <v>7700</v>
       </c>
       <c r="I24" s="3">
-        <v>67000</v>
+        <v>69300</v>
       </c>
       <c r="J24" s="3">
+        <v>67700</v>
+      </c>
+      <c r="K24" s="3">
         <v>85200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>133700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>137000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>89600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-43900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>155500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>139800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>154400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>496200</v>
+        <v>682800</v>
       </c>
       <c r="E26" s="3">
-        <v>293800</v>
+        <v>501900</v>
       </c>
       <c r="F26" s="3">
-        <v>620300</v>
+        <v>297200</v>
       </c>
       <c r="G26" s="3">
+        <v>627400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>582000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>511200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>549700</v>
+      </c>
+      <c r="K26" s="3">
+        <v>503800</v>
+      </c>
+      <c r="L26" s="3">
+        <v>637300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>579600</v>
+      </c>
+      <c r="N26" s="3">
+        <v>455400</v>
+      </c>
+      <c r="O26" s="3">
+        <v>177900</v>
+      </c>
+      <c r="P26" s="3">
+        <v>632600</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>477800</v>
+      </c>
+      <c r="R26" s="3">
         <v>575400</v>
       </c>
-      <c r="H26" s="3">
-        <v>505400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>543400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>503800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>637300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>579600</v>
-      </c>
-      <c r="M26" s="3">
-        <v>455400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>177900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>632600</v>
-      </c>
-      <c r="P26" s="3">
-        <v>477800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>575400</v>
-      </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>636100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>395000</v>
+        <v>577400</v>
       </c>
       <c r="E27" s="3">
-        <v>297600</v>
+        <v>399500</v>
       </c>
       <c r="F27" s="3">
-        <v>548700</v>
+        <v>301000</v>
       </c>
       <c r="G27" s="3">
-        <v>518300</v>
+        <v>555000</v>
       </c>
       <c r="H27" s="3">
-        <v>452800</v>
+        <v>524200</v>
       </c>
       <c r="I27" s="3">
-        <v>474200</v>
+        <v>458000</v>
       </c>
       <c r="J27" s="3">
+        <v>479600</v>
+      </c>
+      <c r="K27" s="3">
         <v>441400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>412000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>531500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>503600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>148800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>608000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>427200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>423300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>559300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1756,12 +1816,12 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1500</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1780,12 +1840,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>5200</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,31 +1970,34 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5040700</v>
+        <v>-382600</v>
       </c>
       <c r="E32" s="3">
-        <v>1376800</v>
+        <v>-5098500</v>
       </c>
       <c r="F32" s="3">
-        <v>1050300</v>
+        <v>1392600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1307600</v>
+        <v>1062400</v>
       </c>
       <c r="H32" s="3">
-        <v>-1998600</v>
+        <v>-1322600</v>
       </c>
       <c r="I32" s="3">
-        <v>-3161600</v>
+        <v>-2021500</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-3197800</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1957,61 +2026,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>395000</v>
+        <v>577400</v>
       </c>
       <c r="E33" s="3">
-        <v>297600</v>
+        <v>399500</v>
       </c>
       <c r="F33" s="3">
-        <v>547200</v>
+        <v>301000</v>
       </c>
       <c r="G33" s="3">
-        <v>518300</v>
+        <v>553500</v>
       </c>
       <c r="H33" s="3">
-        <v>452800</v>
+        <v>524200</v>
       </c>
       <c r="I33" s="3">
-        <v>474200</v>
+        <v>458000</v>
       </c>
       <c r="J33" s="3">
+        <v>479600</v>
+      </c>
+      <c r="K33" s="3">
         <v>441400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>412000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>531500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>503600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>154100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>608000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>427200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>423300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>559300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>395000</v>
+        <v>577400</v>
       </c>
       <c r="E35" s="3">
-        <v>297600</v>
+        <v>399500</v>
       </c>
       <c r="F35" s="3">
-        <v>547200</v>
+        <v>301000</v>
       </c>
       <c r="G35" s="3">
-        <v>518300</v>
+        <v>553500</v>
       </c>
       <c r="H35" s="3">
-        <v>452800</v>
+        <v>524200</v>
       </c>
       <c r="I35" s="3">
-        <v>474200</v>
+        <v>458000</v>
       </c>
       <c r="J35" s="3">
+        <v>479600</v>
+      </c>
+      <c r="K35" s="3">
         <v>441400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>412000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>531500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>503600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>154100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>608000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>427200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>423300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>559300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7418300</v>
+        <v>7242500</v>
       </c>
       <c r="E41" s="3">
-        <v>4902900</v>
+        <v>7503400</v>
       </c>
       <c r="F41" s="3">
-        <v>5110700</v>
+        <v>4959200</v>
       </c>
       <c r="G41" s="3">
-        <v>4737800</v>
+        <v>5169300</v>
       </c>
       <c r="H41" s="3">
-        <v>4816900</v>
+        <v>4792100</v>
       </c>
       <c r="I41" s="3">
-        <v>4129700</v>
+        <v>4872200</v>
       </c>
       <c r="J41" s="3">
+        <v>4177000</v>
+      </c>
+      <c r="K41" s="3">
         <v>5554400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4411000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4235200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4173500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4536700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4168300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4160100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3698300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6639000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2322,8 +2411,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2366,17 +2458,20 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>2152600</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,167 +2635,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>119062600</v>
+        <v>121029600</v>
       </c>
       <c r="E47" s="3">
-        <v>115443700</v>
+        <v>120428300</v>
       </c>
       <c r="F47" s="3">
-        <v>111157200</v>
+        <v>116767800</v>
       </c>
       <c r="G47" s="3">
-        <v>111256100</v>
+        <v>112432200</v>
       </c>
       <c r="H47" s="3">
-        <v>107437000</v>
+        <v>112532300</v>
       </c>
       <c r="I47" s="3">
-        <v>106867700</v>
+        <v>108669300</v>
       </c>
       <c r="J47" s="3">
+        <v>108093500</v>
+      </c>
+      <c r="K47" s="3">
         <v>103629300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>95237800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100356700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>99454100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>97862100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>94758000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>96311200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>98931100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>96419000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5635100</v>
+        <v>5701300</v>
       </c>
       <c r="E48" s="3">
-        <v>5600900</v>
+        <v>5699700</v>
       </c>
       <c r="F48" s="3">
-        <v>5560500</v>
+        <v>5665100</v>
       </c>
       <c r="G48" s="3">
-        <v>5582600</v>
+        <v>5624300</v>
       </c>
       <c r="H48" s="3">
-        <v>5501900</v>
+        <v>5646600</v>
       </c>
       <c r="I48" s="3">
-        <v>5326900</v>
+        <v>5565000</v>
       </c>
       <c r="J48" s="3">
+        <v>5388000</v>
+      </c>
+      <c r="K48" s="3">
         <v>5447100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5283000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5523200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5452500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5259300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5234800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5196100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5066500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5064200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6156500</v>
+        <v>6673600</v>
       </c>
       <c r="E49" s="3">
-        <v>6262200</v>
+        <v>6227100</v>
       </c>
       <c r="F49" s="3">
-        <v>6024000</v>
+        <v>6334100</v>
       </c>
       <c r="G49" s="3">
-        <v>6000400</v>
+        <v>6093100</v>
       </c>
       <c r="H49" s="3">
-        <v>5374800</v>
+        <v>6069300</v>
       </c>
       <c r="I49" s="3">
-        <v>5412900</v>
+        <v>5436500</v>
       </c>
       <c r="J49" s="3">
+        <v>5475000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5473000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5073000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5305700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5245400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5097800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5018200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5123100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5357600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5393000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1167500</v>
+        <v>1143200</v>
       </c>
       <c r="E52" s="3">
-        <v>1222300</v>
+        <v>1180900</v>
       </c>
       <c r="F52" s="3">
-        <v>1107400</v>
+        <v>1236300</v>
       </c>
       <c r="G52" s="3">
-        <v>1089100</v>
+        <v>1120100</v>
       </c>
       <c r="H52" s="3">
-        <v>993200</v>
+        <v>1101600</v>
       </c>
       <c r="I52" s="3">
-        <v>972700</v>
+        <v>1004600</v>
       </c>
       <c r="J52" s="3">
+        <v>983800</v>
+      </c>
+      <c r="K52" s="3">
         <v>920200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>815300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1002700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1011700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>963800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1096200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1117100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1064800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1112400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>234745300</v>
+        <v>240867400</v>
       </c>
       <c r="E54" s="3">
-        <v>221621800</v>
+        <v>237437900</v>
       </c>
       <c r="F54" s="3">
-        <v>226197500</v>
+        <v>224163900</v>
       </c>
       <c r="G54" s="3">
-        <v>223008500</v>
+        <v>228792000</v>
       </c>
       <c r="H54" s="3">
-        <v>217678600</v>
+        <v>225566500</v>
       </c>
       <c r="I54" s="3">
-        <v>214900600</v>
+        <v>220175400</v>
       </c>
       <c r="J54" s="3">
+        <v>217365600</v>
+      </c>
+      <c r="K54" s="3">
         <v>206884800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>196741900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>205813500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>203042500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>200275800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>194234300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>196338200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200584100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>198386200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,8 +3129,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,8 +3183,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3097,70 +3230,76 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>145200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>196850600</v>
+        <v>203289400</v>
       </c>
       <c r="E59" s="3">
-        <v>183571900</v>
+        <v>199108600</v>
       </c>
       <c r="F59" s="3">
-        <v>191241400</v>
+        <v>185677500</v>
       </c>
       <c r="G59" s="3">
-        <v>187834700</v>
+        <v>193435000</v>
       </c>
       <c r="H59" s="3">
-        <v>184607700</v>
+        <v>189989300</v>
       </c>
       <c r="I59" s="3">
-        <v>181625000</v>
+        <v>186725200</v>
       </c>
       <c r="J59" s="3">
+        <v>183708300</v>
+      </c>
+      <c r="K59" s="3">
         <v>173641900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>166350200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>174071400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>171658700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>169128400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>163182200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>164999500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>168698700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>170079200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,114 +3351,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3831300</v>
+        <v>3491100</v>
       </c>
       <c r="E61" s="3">
-        <v>3074000</v>
+        <v>3875300</v>
       </c>
       <c r="F61" s="3">
-        <v>3073300</v>
+        <v>3109300</v>
       </c>
       <c r="G61" s="3">
-        <v>3453800</v>
+        <v>3108500</v>
       </c>
       <c r="H61" s="3">
-        <v>3113600</v>
+        <v>3493400</v>
       </c>
       <c r="I61" s="3">
-        <v>3302400</v>
+        <v>3149300</v>
       </c>
       <c r="J61" s="3">
+        <v>3340200</v>
+      </c>
+      <c r="K61" s="3">
         <v>3301600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3152400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3264900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3264100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>3227600</v>
       </c>
       <c r="P61" s="3">
         <v>3227600</v>
       </c>
       <c r="Q61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="R61" s="3">
         <v>3331000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7968800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>297600</v>
+        <v>313300</v>
       </c>
       <c r="E62" s="3">
-        <v>238200</v>
+        <v>301000</v>
       </c>
       <c r="F62" s="3">
-        <v>309000</v>
+        <v>241000</v>
       </c>
       <c r="G62" s="3">
-        <v>302200</v>
+        <v>312500</v>
       </c>
       <c r="H62" s="3">
-        <v>299100</v>
+        <v>305600</v>
       </c>
       <c r="I62" s="3">
-        <v>249600</v>
+        <v>302500</v>
       </c>
       <c r="J62" s="3">
+        <v>252500</v>
+      </c>
+      <c r="K62" s="3">
         <v>245100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>260900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>353800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>322200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>299900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>555900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>571600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>569300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>527800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>215424200</v>
+        <v>220958400</v>
       </c>
       <c r="E66" s="3">
-        <v>202410400</v>
+        <v>217895200</v>
       </c>
       <c r="F66" s="3">
-        <v>207559100</v>
+        <v>204732100</v>
       </c>
       <c r="G66" s="3">
-        <v>204606900</v>
+        <v>209939900</v>
       </c>
       <c r="H66" s="3">
-        <v>199652900</v>
+        <v>206953800</v>
       </c>
       <c r="I66" s="3">
-        <v>196800400</v>
+        <v>201943000</v>
       </c>
       <c r="J66" s="3">
+        <v>199057700</v>
+      </c>
+      <c r="K66" s="3">
         <v>188184800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>180148600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>188336800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>185875900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>183664300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>177640000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>179730400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>183510200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>181518900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,43 +3821,46 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1737500</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1737500</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1737500</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1737500</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1737500</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1737500</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1737500</v>
+      </c>
+      <c r="K70" s="3">
         <v>1717800</v>
       </c>
-      <c r="E70" s="3">
-        <v>1717800</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1717800</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1717800</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1717800</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1717800</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1717800</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="L70" s="3">
-        <v>1699000</v>
       </c>
       <c r="M70" s="3">
         <v>1699000</v>
       </c>
       <c r="N70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="O70" s="3">
         <v>1679700</v>
@@ -3702,7 +3869,7 @@
         <v>1679700</v>
       </c>
       <c r="Q70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="R70" s="3">
         <v>1733900</v>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8700000</v>
+        <v>9135500</v>
       </c>
       <c r="E72" s="3">
-        <v>8551600</v>
+        <v>8799800</v>
       </c>
       <c r="F72" s="3">
-        <v>8614000</v>
+        <v>8649700</v>
       </c>
       <c r="G72" s="3">
-        <v>8307300</v>
+        <v>8712800</v>
       </c>
       <c r="H72" s="3">
-        <v>8797400</v>
+        <v>8402600</v>
       </c>
       <c r="I72" s="3">
-        <v>8693900</v>
+        <v>8898300</v>
       </c>
       <c r="J72" s="3">
+        <v>8793700</v>
+      </c>
+      <c r="K72" s="3">
         <v>8575200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8096800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8286700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>7994600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7669100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7765800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7402700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7415700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7190600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17603300</v>
+        <v>18171600</v>
       </c>
       <c r="E76" s="3">
-        <v>17493700</v>
+        <v>17805200</v>
       </c>
       <c r="F76" s="3">
-        <v>16920600</v>
+        <v>17694300</v>
       </c>
       <c r="G76" s="3">
-        <v>16683900</v>
+        <v>17114600</v>
       </c>
       <c r="H76" s="3">
-        <v>16307900</v>
+        <v>16875200</v>
       </c>
       <c r="I76" s="3">
-        <v>16382500</v>
+        <v>16494900</v>
       </c>
       <c r="J76" s="3">
+        <v>16570400</v>
+      </c>
+      <c r="K76" s="3">
         <v>16982200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14953100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15777700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15467600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14931800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14914700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14928100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15340000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15133400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>395000</v>
+        <v>577400</v>
       </c>
       <c r="E81" s="3">
-        <v>297600</v>
+        <v>399500</v>
       </c>
       <c r="F81" s="3">
-        <v>547200</v>
+        <v>301000</v>
       </c>
       <c r="G81" s="3">
-        <v>518300</v>
+        <v>553500</v>
       </c>
       <c r="H81" s="3">
-        <v>452800</v>
+        <v>524200</v>
       </c>
       <c r="I81" s="3">
-        <v>474200</v>
+        <v>458000</v>
       </c>
       <c r="J81" s="3">
+        <v>479600</v>
+      </c>
+      <c r="K81" s="3">
         <v>441400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>412000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>531500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>503600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>154100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>608000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>427200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>423300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>559300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,8 +4410,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4266,8 +4464,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2325900</v>
+        <v>2274000</v>
       </c>
       <c r="E89" s="3">
-        <v>63200</v>
+        <v>2352600</v>
       </c>
       <c r="F89" s="3">
-        <v>1278600</v>
+        <v>63900</v>
       </c>
       <c r="G89" s="3">
-        <v>146900</v>
+        <v>1293300</v>
       </c>
       <c r="H89" s="3">
-        <v>1446800</v>
+        <v>148600</v>
       </c>
       <c r="I89" s="3">
-        <v>-933900</v>
+        <v>1463400</v>
       </c>
       <c r="J89" s="3">
+        <v>-944600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1433100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>812400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>303400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>323700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>483700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>468900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>983800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-474800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1057900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-28200</v>
+        <v>-33900</v>
       </c>
       <c r="E91" s="3">
-        <v>-28200</v>
+        <v>-28500</v>
       </c>
       <c r="F91" s="3">
-        <v>-34200</v>
+        <v>-28500</v>
       </c>
       <c r="G91" s="3">
-        <v>-12900</v>
+        <v>-34600</v>
       </c>
       <c r="H91" s="3">
-        <v>-16000</v>
+        <v>-13100</v>
       </c>
       <c r="I91" s="3">
-        <v>-23600</v>
+        <v>-16200</v>
       </c>
       <c r="J91" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-38800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-35700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-29800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-33000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-39900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71500</v>
+        <v>-431900</v>
       </c>
       <c r="E94" s="3">
-        <v>-73800</v>
+        <v>-72400</v>
       </c>
       <c r="F94" s="3">
-        <v>-95900</v>
+        <v>-74700</v>
       </c>
       <c r="G94" s="3">
-        <v>-161400</v>
+        <v>-97000</v>
       </c>
       <c r="H94" s="3">
-        <v>-41900</v>
+        <v>-163200</v>
       </c>
       <c r="I94" s="3">
-        <v>-28200</v>
+        <v>-42300</v>
       </c>
       <c r="J94" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-101200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-41400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-16600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-104900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-49100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-111600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>13800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-77600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,61 +5070,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-259500</v>
+        <v>-260200</v>
       </c>
       <c r="E96" s="3">
-        <v>-259500</v>
+        <v>-262500</v>
       </c>
       <c r="F96" s="3">
-        <v>-260300</v>
+        <v>-262500</v>
       </c>
       <c r="G96" s="3">
-        <v>-248100</v>
+        <v>-263300</v>
       </c>
       <c r="H96" s="3">
-        <v>-251900</v>
+        <v>-251000</v>
       </c>
       <c r="I96" s="3">
-        <v>-242800</v>
+        <v>-254800</v>
       </c>
       <c r="J96" s="3">
+        <v>-245600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-240500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-223100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-231900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-222800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-221000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-214300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-217300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-213600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-212800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>462000</v>
+        <v>-2076200</v>
       </c>
       <c r="E100" s="3">
-        <v>-523600</v>
+        <v>467300</v>
       </c>
       <c r="F100" s="3">
-        <v>-732900</v>
+        <v>-529600</v>
       </c>
       <c r="G100" s="3">
-        <v>-134000</v>
+        <v>-751300</v>
       </c>
       <c r="H100" s="3">
-        <v>-529700</v>
+        <v>-125500</v>
       </c>
       <c r="I100" s="3">
-        <v>-457400</v>
+        <v>-535800</v>
       </c>
       <c r="J100" s="3">
+        <v>-462700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-475700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-426600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-299600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-719700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-337100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-277600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-901100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-574600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-124100</v>
+        <v>-37700</v>
       </c>
       <c r="E101" s="3">
-        <v>271700</v>
+        <v>-125500</v>
       </c>
       <c r="F101" s="3">
-        <v>-51000</v>
+        <v>274800</v>
       </c>
       <c r="G101" s="3">
-        <v>26600</v>
+        <v>-51600</v>
       </c>
       <c r="H101" s="3">
-        <v>-61600</v>
+        <v>26900</v>
       </c>
       <c r="I101" s="3">
-        <v>-58600</v>
+        <v>-62400</v>
       </c>
       <c r="J101" s="3">
+        <v>-59300</v>
+      </c>
+      <c r="K101" s="3">
         <v>153700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-48000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>28600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>57200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>26800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-77400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-59500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-23800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>50700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2592300</v>
+        <v>-271700</v>
       </c>
       <c r="E102" s="3">
-        <v>-262600</v>
+        <v>2622000</v>
       </c>
       <c r="F102" s="3">
-        <v>398800</v>
+        <v>-265600</v>
       </c>
       <c r="G102" s="3">
-        <v>-121800</v>
+        <v>403400</v>
       </c>
       <c r="H102" s="3">
-        <v>813600</v>
+        <v>-123200</v>
       </c>
       <c r="I102" s="3">
-        <v>-1478000</v>
+        <v>822900</v>
       </c>
       <c r="J102" s="3">
+        <v>-1495000</v>
+      </c>
+      <c r="K102" s="3">
         <v>1010000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>296500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-18800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-355300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>390700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>535100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>456300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,139 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7340200</v>
+        <v>8009500</v>
       </c>
       <c r="E8" s="3">
-        <v>6592000</v>
+        <v>7561400</v>
       </c>
       <c r="F8" s="3">
-        <v>6373300</v>
+        <v>6790600</v>
       </c>
       <c r="G8" s="3">
-        <v>7625100</v>
+        <v>6565400</v>
       </c>
       <c r="H8" s="3">
-        <v>6080000</v>
+        <v>7854900</v>
       </c>
       <c r="I8" s="3">
-        <v>5789000</v>
+        <v>6263300</v>
       </c>
       <c r="J8" s="3">
+        <v>5963500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5572000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6225700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4358700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5138500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4511500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6435900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4134100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6044500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5384500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1817600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1052,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1074,8 +1093,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -1092,8 +1111,11 @@
       <c r="T14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,8 +1170,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6895300</v>
+        <v>8437700</v>
       </c>
       <c r="E17" s="3">
-        <v>11072300</v>
+        <v>7103100</v>
       </c>
       <c r="F17" s="3">
-        <v>4399500</v>
+        <v>11406000</v>
       </c>
       <c r="G17" s="3">
-        <v>5787500</v>
+        <v>4532100</v>
       </c>
       <c r="H17" s="3">
-        <v>6762900</v>
+        <v>5961900</v>
       </c>
       <c r="I17" s="3">
-        <v>7165500</v>
+        <v>6966700</v>
       </c>
       <c r="J17" s="3">
+        <v>7381400</v>
+      </c>
+      <c r="K17" s="3">
         <v>8084600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5576500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3534600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4363200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3910000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6241700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3305000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5519100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4607800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>965700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>445000</v>
+        <v>-428200</v>
       </c>
       <c r="E18" s="3">
-        <v>-4480400</v>
+        <v>458400</v>
       </c>
       <c r="F18" s="3">
-        <v>1973800</v>
+        <v>-4615400</v>
       </c>
       <c r="G18" s="3">
-        <v>1837600</v>
+        <v>2033300</v>
       </c>
       <c r="H18" s="3">
-        <v>-682800</v>
+        <v>1892900</v>
       </c>
       <c r="I18" s="3">
-        <v>-1376400</v>
+        <v>-703400</v>
       </c>
       <c r="J18" s="3">
+        <v>-1417900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>649200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>824100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>775400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>601500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>194200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>829000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>525400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>776700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>852000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,35 +1333,36 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>382600</v>
+        <v>1228400</v>
       </c>
       <c r="E20" s="3">
-        <v>5098500</v>
+        <v>394100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1392600</v>
+        <v>5252200</v>
       </c>
       <c r="G20" s="3">
-        <v>-1062400</v>
+        <v>-1434600</v>
       </c>
       <c r="H20" s="3">
-        <v>1322600</v>
+        <v>-1094400</v>
       </c>
       <c r="I20" s="3">
-        <v>2021500</v>
+        <v>1362400</v>
       </c>
       <c r="J20" s="3">
+        <v>2082500</v>
+      </c>
+      <c r="K20" s="3">
         <v>3197800</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1390,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1413,176 +1449,188 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66200</v>
+        <v>70600</v>
       </c>
       <c r="E22" s="3">
-        <v>69300</v>
+        <v>68200</v>
       </c>
       <c r="F22" s="3">
-        <v>69300</v>
+        <v>71400</v>
       </c>
       <c r="G22" s="3">
-        <v>73900</v>
+        <v>71400</v>
       </c>
       <c r="H22" s="3">
-        <v>50000</v>
+        <v>76100</v>
       </c>
       <c r="I22" s="3">
+        <v>51500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>66600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>67700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>60100</v>
+      </c>
+      <c r="M22" s="3">
+        <v>53000</v>
+      </c>
+      <c r="N22" s="3">
+        <v>58700</v>
+      </c>
+      <c r="O22" s="3">
+        <v>56500</v>
+      </c>
+      <c r="P22" s="3">
+        <v>60300</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>40900</v>
+      </c>
+      <c r="R22" s="3">
         <v>64700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>67700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>60100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>53000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>58700</v>
-      </c>
-      <c r="N22" s="3">
-        <v>56500</v>
-      </c>
-      <c r="O22" s="3">
-        <v>60300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>40900</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>64700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>61500</v>
       </c>
       <c r="S22" s="3">
         <v>61500</v>
       </c>
       <c r="T22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="U22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>761400</v>
+        <v>729600</v>
       </c>
       <c r="E23" s="3">
-        <v>548900</v>
+        <v>784300</v>
       </c>
       <c r="F23" s="3">
-        <v>511900</v>
+        <v>565400</v>
       </c>
       <c r="G23" s="3">
-        <v>701300</v>
+        <v>527400</v>
       </c>
       <c r="H23" s="3">
-        <v>589700</v>
+        <v>722400</v>
       </c>
       <c r="I23" s="3">
-        <v>580400</v>
+        <v>607500</v>
       </c>
       <c r="J23" s="3">
+        <v>597900</v>
+      </c>
+      <c r="K23" s="3">
         <v>617400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>589100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>771000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>716700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>545000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>134000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>788100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>460700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>715200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>790500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>78500</v>
+        <v>41200</v>
       </c>
       <c r="E24" s="3">
-        <v>47000</v>
+        <v>80900</v>
       </c>
       <c r="F24" s="3">
-        <v>214800</v>
+        <v>48400</v>
       </c>
       <c r="G24" s="3">
-        <v>73900</v>
+        <v>221300</v>
       </c>
       <c r="H24" s="3">
-        <v>7700</v>
+        <v>76100</v>
       </c>
       <c r="I24" s="3">
-        <v>69300</v>
+        <v>7900</v>
       </c>
       <c r="J24" s="3">
+        <v>71400</v>
+      </c>
+      <c r="K24" s="3">
         <v>67700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>85200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>133700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>137000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>89600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-43900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>155500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-17100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>139800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>154400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>682800</v>
+        <v>688300</v>
       </c>
       <c r="E26" s="3">
-        <v>501900</v>
+        <v>703400</v>
       </c>
       <c r="F26" s="3">
-        <v>297200</v>
+        <v>517000</v>
       </c>
       <c r="G26" s="3">
-        <v>627400</v>
+        <v>306100</v>
       </c>
       <c r="H26" s="3">
-        <v>582000</v>
+        <v>646300</v>
       </c>
       <c r="I26" s="3">
-        <v>511200</v>
+        <v>599500</v>
       </c>
       <c r="J26" s="3">
+        <v>526600</v>
+      </c>
+      <c r="K26" s="3">
         <v>549700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>503800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>637300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>579600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>455400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>177900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>632600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>477800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>575400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>636100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>577400</v>
+        <v>590800</v>
       </c>
       <c r="E27" s="3">
-        <v>399500</v>
+        <v>594800</v>
       </c>
       <c r="F27" s="3">
-        <v>301000</v>
+        <v>411600</v>
       </c>
       <c r="G27" s="3">
-        <v>555000</v>
+        <v>310100</v>
       </c>
       <c r="H27" s="3">
-        <v>524200</v>
+        <v>571800</v>
       </c>
       <c r="I27" s="3">
-        <v>458000</v>
+        <v>540000</v>
       </c>
       <c r="J27" s="3">
+        <v>471800</v>
+      </c>
+      <c r="K27" s="3">
         <v>479600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>441400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>412000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>531500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>503600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>148800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>608000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>427200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>423300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>559300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,13 +1862,16 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>-800</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
@@ -1819,11 +1879,11 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-1600</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1843,12 +1903,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>5200</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,35 +2039,38 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-382600</v>
+        <v>-1228400</v>
       </c>
       <c r="E32" s="3">
-        <v>-5098500</v>
+        <v>-394100</v>
       </c>
       <c r="F32" s="3">
-        <v>1392600</v>
+        <v>-5252200</v>
       </c>
       <c r="G32" s="3">
-        <v>1062400</v>
+        <v>1434600</v>
       </c>
       <c r="H32" s="3">
-        <v>-1322600</v>
+        <v>1094400</v>
       </c>
       <c r="I32" s="3">
-        <v>-2021500</v>
+        <v>-1362400</v>
       </c>
       <c r="J32" s="3">
+        <v>-2082500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2029,64 +2098,70 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>577400</v>
+        <v>590000</v>
       </c>
       <c r="E33" s="3">
-        <v>399500</v>
+        <v>594800</v>
       </c>
       <c r="F33" s="3">
-        <v>301000</v>
+        <v>411600</v>
       </c>
       <c r="G33" s="3">
-        <v>553500</v>
+        <v>310100</v>
       </c>
       <c r="H33" s="3">
-        <v>524200</v>
+        <v>570200</v>
       </c>
       <c r="I33" s="3">
-        <v>458000</v>
+        <v>540000</v>
       </c>
       <c r="J33" s="3">
+        <v>471800</v>
+      </c>
+      <c r="K33" s="3">
         <v>479600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>441400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>412000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>531500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>503600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>154100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>608000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>427200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>423300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>559300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>577400</v>
+        <v>590000</v>
       </c>
       <c r="E35" s="3">
-        <v>399500</v>
+        <v>594800</v>
       </c>
       <c r="F35" s="3">
-        <v>301000</v>
+        <v>411600</v>
       </c>
       <c r="G35" s="3">
-        <v>553500</v>
+        <v>310100</v>
       </c>
       <c r="H35" s="3">
-        <v>524200</v>
+        <v>570200</v>
       </c>
       <c r="I35" s="3">
-        <v>458000</v>
+        <v>540000</v>
       </c>
       <c r="J35" s="3">
+        <v>471800</v>
+      </c>
+      <c r="K35" s="3">
         <v>479600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>441400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>412000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>531500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>503600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>154100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>608000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>427200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>423300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>559300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,64 +2387,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7242500</v>
+        <v>8448800</v>
       </c>
       <c r="E41" s="3">
-        <v>7503400</v>
+        <v>7460700</v>
       </c>
       <c r="F41" s="3">
-        <v>4959200</v>
+        <v>7729600</v>
       </c>
       <c r="G41" s="3">
-        <v>5169300</v>
+        <v>5108600</v>
       </c>
       <c r="H41" s="3">
-        <v>4792100</v>
+        <v>5325100</v>
       </c>
       <c r="I41" s="3">
-        <v>4872200</v>
+        <v>4936500</v>
       </c>
       <c r="J41" s="3">
+        <v>5019000</v>
+      </c>
+      <c r="K41" s="3">
         <v>4177000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5554400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4411000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4235200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4173500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4536700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4168300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4160100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3698300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6639000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2414,8 +2503,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2461,17 +2553,20 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>2152600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,176 +2739,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>121029600</v>
+        <v>124965700</v>
       </c>
       <c r="E47" s="3">
-        <v>120428300</v>
+        <v>124677000</v>
       </c>
       <c r="F47" s="3">
-        <v>116767800</v>
+        <v>124057700</v>
       </c>
       <c r="G47" s="3">
-        <v>112432200</v>
+        <v>120286900</v>
       </c>
       <c r="H47" s="3">
-        <v>112532300</v>
+        <v>115820600</v>
       </c>
       <c r="I47" s="3">
-        <v>108669300</v>
+        <v>115923700</v>
       </c>
       <c r="J47" s="3">
+        <v>111944300</v>
+      </c>
+      <c r="K47" s="3">
         <v>108093500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>103629300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>95237800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100356700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>99454100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>97862100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>94758000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>96311200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>98931100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>96419000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5701300</v>
+        <v>5960300</v>
       </c>
       <c r="E48" s="3">
-        <v>5699700</v>
+        <v>5873100</v>
       </c>
       <c r="F48" s="3">
-        <v>5665100</v>
+        <v>5871500</v>
       </c>
       <c r="G48" s="3">
-        <v>5624300</v>
+        <v>5835800</v>
       </c>
       <c r="H48" s="3">
-        <v>5646600</v>
+        <v>5793800</v>
       </c>
       <c r="I48" s="3">
-        <v>5565000</v>
+        <v>5816800</v>
       </c>
       <c r="J48" s="3">
+        <v>5732700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5388000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5447100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5283000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5523200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5452500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5259300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5234800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5196100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5066500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5064200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6673600</v>
+        <v>6779500</v>
       </c>
       <c r="E49" s="3">
-        <v>6227100</v>
+        <v>6874700</v>
       </c>
       <c r="F49" s="3">
-        <v>6334100</v>
+        <v>6414700</v>
       </c>
       <c r="G49" s="3">
-        <v>6093100</v>
+        <v>6525000</v>
       </c>
       <c r="H49" s="3">
-        <v>6069300</v>
+        <v>6276800</v>
       </c>
       <c r="I49" s="3">
-        <v>5436500</v>
+        <v>6252200</v>
       </c>
       <c r="J49" s="3">
+        <v>5600300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5475000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5473000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5073000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5305700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5245400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5097800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5018200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5123100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5357600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5393000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1143200</v>
+        <v>1295800</v>
       </c>
       <c r="E52" s="3">
-        <v>1180900</v>
+        <v>1177600</v>
       </c>
       <c r="F52" s="3">
-        <v>1236300</v>
+        <v>1216500</v>
       </c>
       <c r="G52" s="3">
-        <v>1120100</v>
+        <v>1273600</v>
       </c>
       <c r="H52" s="3">
-        <v>1101600</v>
+        <v>1153800</v>
       </c>
       <c r="I52" s="3">
-        <v>1004600</v>
+        <v>1134800</v>
       </c>
       <c r="J52" s="3">
+        <v>1034900</v>
+      </c>
+      <c r="K52" s="3">
         <v>983800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>920200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>815300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1002700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1011700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>963800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1096200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1117100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1064800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1112400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>240867400</v>
+        <v>256154200</v>
       </c>
       <c r="E54" s="3">
-        <v>237437900</v>
+        <v>248126400</v>
       </c>
       <c r="F54" s="3">
-        <v>224163900</v>
+        <v>244593500</v>
       </c>
       <c r="G54" s="3">
-        <v>228792000</v>
+        <v>230919500</v>
       </c>
       <c r="H54" s="3">
-        <v>225566500</v>
+        <v>235687100</v>
       </c>
       <c r="I54" s="3">
-        <v>220175400</v>
+        <v>232364400</v>
       </c>
       <c r="J54" s="3">
+        <v>226810900</v>
+      </c>
+      <c r="K54" s="3">
         <v>217365600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>206884800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>196741900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>205813500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>203042500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>200275800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>194234300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>196338200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200584100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>198386200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,8 +3259,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3186,8 +3316,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3233,73 +3366,79 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>145200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>203289400</v>
+        <v>217987700</v>
       </c>
       <c r="E59" s="3">
-        <v>199108600</v>
+        <v>209416000</v>
       </c>
       <c r="F59" s="3">
-        <v>185677500</v>
+        <v>205109100</v>
       </c>
       <c r="G59" s="3">
-        <v>193435000</v>
+        <v>191273300</v>
       </c>
       <c r="H59" s="3">
-        <v>189989300</v>
+        <v>199264500</v>
       </c>
       <c r="I59" s="3">
-        <v>186725200</v>
+        <v>195715000</v>
       </c>
       <c r="J59" s="3">
+        <v>192352600</v>
+      </c>
+      <c r="K59" s="3">
         <v>183708300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>173641900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>166350200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>174071400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>171658700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>169128400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>163182200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>164999500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>168698700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>170079200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,120 +3493,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3491100</v>
+        <v>4187900</v>
       </c>
       <c r="E61" s="3">
-        <v>3875300</v>
+        <v>3596300</v>
       </c>
       <c r="F61" s="3">
-        <v>3109300</v>
+        <v>3992100</v>
       </c>
       <c r="G61" s="3">
-        <v>3108500</v>
+        <v>3203000</v>
       </c>
       <c r="H61" s="3">
-        <v>3493400</v>
+        <v>3202200</v>
       </c>
       <c r="I61" s="3">
-        <v>3149300</v>
+        <v>3598700</v>
       </c>
       <c r="J61" s="3">
+        <v>3244200</v>
+      </c>
+      <c r="K61" s="3">
         <v>3340200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3301600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3152400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3264900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3264100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>3227600</v>
       </c>
       <c r="Q61" s="3">
         <v>3227600</v>
       </c>
       <c r="R61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="S61" s="3">
         <v>3331000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7968800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>313300</v>
+        <v>303700</v>
       </c>
       <c r="E62" s="3">
-        <v>301000</v>
+        <v>322800</v>
       </c>
       <c r="F62" s="3">
-        <v>241000</v>
+        <v>310100</v>
       </c>
       <c r="G62" s="3">
-        <v>312500</v>
+        <v>248200</v>
       </c>
       <c r="H62" s="3">
-        <v>305600</v>
+        <v>322000</v>
       </c>
       <c r="I62" s="3">
-        <v>302500</v>
+        <v>314800</v>
       </c>
       <c r="J62" s="3">
+        <v>311700</v>
+      </c>
+      <c r="K62" s="3">
         <v>252500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>245100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>260900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>353800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>322200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>299900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>555900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>571600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>569300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>527800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>220958400</v>
+        <v>235664900</v>
       </c>
       <c r="E66" s="3">
-        <v>217895200</v>
+        <v>227617400</v>
       </c>
       <c r="F66" s="3">
-        <v>204732100</v>
+        <v>224461900</v>
       </c>
       <c r="G66" s="3">
-        <v>209939900</v>
+        <v>210902100</v>
       </c>
       <c r="H66" s="3">
-        <v>206953800</v>
+        <v>216266900</v>
       </c>
       <c r="I66" s="3">
-        <v>201943000</v>
+        <v>213190700</v>
       </c>
       <c r="J66" s="3">
+        <v>208029000</v>
+      </c>
+      <c r="K66" s="3">
         <v>199057700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>188184800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>180148600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>188336800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>185875900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>183664300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>177640000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>179730400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>183510200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>181518900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,46 +3988,49 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1789800</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1789800</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1789800</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1789800</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1789800</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1789800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1789800</v>
+      </c>
+      <c r="K70" s="3">
         <v>1737500</v>
       </c>
-      <c r="E70" s="3">
-        <v>1737500</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1737500</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1737500</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1737500</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1737500</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1737500</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1717800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1699000</v>
       </c>
       <c r="N70" s="3">
         <v>1699000</v>
       </c>
       <c r="O70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="P70" s="3">
         <v>1679700</v>
@@ -3872,7 +4039,7 @@
         <v>1679700</v>
       </c>
       <c r="R70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="S70" s="3">
         <v>1733900</v>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9135500</v>
+        <v>9745400</v>
       </c>
       <c r="E72" s="3">
-        <v>8799800</v>
+        <v>9410800</v>
       </c>
       <c r="F72" s="3">
-        <v>8649700</v>
+        <v>9065000</v>
       </c>
       <c r="G72" s="3">
-        <v>8712800</v>
+        <v>8910400</v>
       </c>
       <c r="H72" s="3">
-        <v>8402600</v>
+        <v>8975400</v>
       </c>
       <c r="I72" s="3">
-        <v>8898300</v>
+        <v>8655800</v>
       </c>
       <c r="J72" s="3">
+        <v>9166500</v>
+      </c>
+      <c r="K72" s="3">
         <v>8793700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8575200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8096800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8286700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>7994600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7669100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7765800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7402700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7415700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7190600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18171600</v>
+        <v>18699400</v>
       </c>
       <c r="E76" s="3">
-        <v>17805200</v>
+        <v>18719200</v>
       </c>
       <c r="F76" s="3">
-        <v>17694300</v>
+        <v>18341800</v>
       </c>
       <c r="G76" s="3">
-        <v>17114600</v>
+        <v>18227600</v>
       </c>
       <c r="H76" s="3">
-        <v>16875200</v>
+        <v>17630400</v>
       </c>
       <c r="I76" s="3">
-        <v>16494900</v>
+        <v>17383800</v>
       </c>
       <c r="J76" s="3">
+        <v>16992000</v>
+      </c>
+      <c r="K76" s="3">
         <v>16570400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16982200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14953100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15777700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15467600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14931800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14914700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14928100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15340000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15133400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>577400</v>
+        <v>590000</v>
       </c>
       <c r="E81" s="3">
-        <v>399500</v>
+        <v>594800</v>
       </c>
       <c r="F81" s="3">
-        <v>301000</v>
+        <v>411600</v>
       </c>
       <c r="G81" s="3">
-        <v>553500</v>
+        <v>310100</v>
       </c>
       <c r="H81" s="3">
-        <v>524200</v>
+        <v>570200</v>
       </c>
       <c r="I81" s="3">
-        <v>458000</v>
+        <v>540000</v>
       </c>
       <c r="J81" s="3">
+        <v>471800</v>
+      </c>
+      <c r="K81" s="3">
         <v>479600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>441400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>412000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>531500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>503600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>154100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>608000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>427200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>423300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>559300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,8 +4608,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4467,8 +4665,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2274000</v>
+        <v>919900</v>
       </c>
       <c r="E89" s="3">
-        <v>2352600</v>
+        <v>2342600</v>
       </c>
       <c r="F89" s="3">
-        <v>63900</v>
+        <v>2423500</v>
       </c>
       <c r="G89" s="3">
-        <v>1293300</v>
+        <v>65800</v>
       </c>
       <c r="H89" s="3">
-        <v>148600</v>
+        <v>1332300</v>
       </c>
       <c r="I89" s="3">
-        <v>1463400</v>
+        <v>153100</v>
       </c>
       <c r="J89" s="3">
+        <v>1507500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-944600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1433100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>812400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>303400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>323700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>483700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>468900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>983800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-474800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1057900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-33900</v>
+        <v>-31700</v>
       </c>
       <c r="E91" s="3">
-        <v>-28500</v>
+        <v>-34900</v>
       </c>
       <c r="F91" s="3">
-        <v>-28500</v>
+        <v>-29300</v>
       </c>
       <c r="G91" s="3">
-        <v>-34600</v>
+        <v>-29300</v>
       </c>
       <c r="H91" s="3">
-        <v>-13100</v>
+        <v>-35700</v>
       </c>
       <c r="I91" s="3">
-        <v>-16200</v>
+        <v>-13500</v>
       </c>
       <c r="J91" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-38800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-35700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-29800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-33000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-39900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-431900</v>
+        <v>-106300</v>
       </c>
       <c r="E94" s="3">
-        <v>-72400</v>
+        <v>-444900</v>
       </c>
       <c r="F94" s="3">
-        <v>-74700</v>
+        <v>-74500</v>
       </c>
       <c r="G94" s="3">
-        <v>-97000</v>
+        <v>-76900</v>
       </c>
       <c r="H94" s="3">
-        <v>-163200</v>
+        <v>-99900</v>
       </c>
       <c r="I94" s="3">
-        <v>-42300</v>
+        <v>-168100</v>
       </c>
       <c r="J94" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-28500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-101200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-51200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-16600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-104900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-49100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-111600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>13800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-77600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,64 +5303,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-260200</v>
+        <v>-269600</v>
       </c>
       <c r="E96" s="3">
+        <v>-268000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-270400</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-270400</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-271200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-258500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-262500</v>
       </c>
-      <c r="F96" s="3">
-        <v>-262500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-263300</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-251000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-254800</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-245600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-240500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-223100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-231900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-222800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-221000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-214300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-217300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-213600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-212800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2076200</v>
+        <v>369500</v>
       </c>
       <c r="E100" s="3">
-        <v>467300</v>
+        <v>-2138800</v>
       </c>
       <c r="F100" s="3">
-        <v>-529600</v>
+        <v>481400</v>
       </c>
       <c r="G100" s="3">
-        <v>-751300</v>
+        <v>-545600</v>
       </c>
       <c r="H100" s="3">
-        <v>-125500</v>
+        <v>-716100</v>
       </c>
       <c r="I100" s="3">
-        <v>-535800</v>
+        <v>-129300</v>
       </c>
       <c r="J100" s="3">
+        <v>-551900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-462700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-475700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-426600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-299600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-719700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-337100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-277600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-901100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-574600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37700</v>
+        <v>-187900</v>
       </c>
       <c r="E101" s="3">
-        <v>-125500</v>
+        <v>-38900</v>
       </c>
       <c r="F101" s="3">
-        <v>274800</v>
+        <v>-129300</v>
       </c>
       <c r="G101" s="3">
-        <v>-51600</v>
+        <v>283100</v>
       </c>
       <c r="H101" s="3">
-        <v>26900</v>
+        <v>-53100</v>
       </c>
       <c r="I101" s="3">
-        <v>-62400</v>
+        <v>27800</v>
       </c>
       <c r="J101" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-59300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>153700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-48000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>28600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>57200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>26800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-77400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-59500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-23800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>50700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-271700</v>
+        <v>995200</v>
       </c>
       <c r="E102" s="3">
-        <v>2622000</v>
+        <v>-279900</v>
       </c>
       <c r="F102" s="3">
-        <v>-265600</v>
+        <v>2701000</v>
       </c>
       <c r="G102" s="3">
-        <v>403400</v>
+        <v>-273600</v>
       </c>
       <c r="H102" s="3">
-        <v>-123200</v>
+        <v>415500</v>
       </c>
       <c r="I102" s="3">
-        <v>822900</v>
+        <v>-126900</v>
       </c>
       <c r="J102" s="3">
+        <v>847700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1010000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>296500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-18800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-355300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>390700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>535100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>456300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8009500</v>
+        <v>7013800</v>
       </c>
       <c r="E8" s="3">
-        <v>7561400</v>
+        <v>8373400</v>
       </c>
       <c r="F8" s="3">
-        <v>6790600</v>
+        <v>7905000</v>
       </c>
       <c r="G8" s="3">
-        <v>6565400</v>
+        <v>7099200</v>
       </c>
       <c r="H8" s="3">
-        <v>7854900</v>
+        <v>6863700</v>
       </c>
       <c r="I8" s="3">
-        <v>6263300</v>
+        <v>8211700</v>
       </c>
       <c r="J8" s="3">
+        <v>6547800</v>
+      </c>
+      <c r="K8" s="3">
         <v>5963500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5572000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6225700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4358700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5138500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4511500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6435900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4134100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6044500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5384500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1817600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +861,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,8 +1115,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
@@ -1114,8 +1133,11 @@
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8437700</v>
+        <v>104500</v>
       </c>
       <c r="E17" s="3">
-        <v>7103100</v>
+        <v>8821100</v>
       </c>
       <c r="F17" s="3">
-        <v>11406000</v>
+        <v>7425800</v>
       </c>
       <c r="G17" s="3">
-        <v>4532100</v>
+        <v>11924200</v>
       </c>
       <c r="H17" s="3">
-        <v>5961900</v>
+        <v>4738000</v>
       </c>
       <c r="I17" s="3">
-        <v>6966700</v>
+        <v>6232800</v>
       </c>
       <c r="J17" s="3">
+        <v>7283200</v>
+      </c>
+      <c r="K17" s="3">
         <v>7381400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8084600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5576500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3534600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4363200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3910000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6241700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3305000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5519100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4607800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>965700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-428200</v>
+        <v>6909300</v>
       </c>
       <c r="E18" s="3">
-        <v>458400</v>
+        <v>-447700</v>
       </c>
       <c r="F18" s="3">
-        <v>-4615400</v>
+        <v>479200</v>
       </c>
       <c r="G18" s="3">
-        <v>2033300</v>
+        <v>-4825100</v>
       </c>
       <c r="H18" s="3">
-        <v>1892900</v>
+        <v>2125700</v>
       </c>
       <c r="I18" s="3">
-        <v>-703400</v>
+        <v>1978900</v>
       </c>
       <c r="J18" s="3">
+        <v>-735400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1417900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>649200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>824100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>775400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>601500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>194200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>829000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>525400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>776700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>852000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,38 +1366,39 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1228400</v>
+        <v>-5758600</v>
       </c>
       <c r="E20" s="3">
-        <v>394100</v>
+        <v>1284200</v>
       </c>
       <c r="F20" s="3">
-        <v>5252200</v>
+        <v>412000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1434600</v>
+        <v>5490800</v>
       </c>
       <c r="H20" s="3">
-        <v>-1094400</v>
+        <v>-1499800</v>
       </c>
       <c r="I20" s="3">
-        <v>1362400</v>
+        <v>-1144100</v>
       </c>
       <c r="J20" s="3">
+        <v>1424300</v>
+      </c>
+      <c r="K20" s="3">
         <v>2082500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3197800</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1393,8 +1426,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1452,185 +1488,197 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>70600</v>
+        <v>66300</v>
       </c>
       <c r="E22" s="3">
-        <v>68200</v>
+        <v>73800</v>
       </c>
       <c r="F22" s="3">
-        <v>71400</v>
+        <v>71300</v>
       </c>
       <c r="G22" s="3">
-        <v>71400</v>
+        <v>74600</v>
       </c>
       <c r="H22" s="3">
-        <v>76100</v>
+        <v>74600</v>
       </c>
       <c r="I22" s="3">
-        <v>51500</v>
+        <v>79600</v>
       </c>
       <c r="J22" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K22" s="3">
         <v>66600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>67700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>53000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>58700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>56500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>40900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>64700</v>
-      </c>
-      <c r="S22" s="3">
-        <v>61500</v>
       </c>
       <c r="T22" s="3">
         <v>61500</v>
       </c>
       <c r="U22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="V22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>729600</v>
+        <v>1084400</v>
       </c>
       <c r="E23" s="3">
-        <v>784300</v>
+        <v>762700</v>
       </c>
       <c r="F23" s="3">
-        <v>565400</v>
+        <v>819900</v>
       </c>
       <c r="G23" s="3">
-        <v>527400</v>
+        <v>591100</v>
       </c>
       <c r="H23" s="3">
-        <v>722400</v>
+        <v>551300</v>
       </c>
       <c r="I23" s="3">
-        <v>607500</v>
+        <v>755300</v>
       </c>
       <c r="J23" s="3">
+        <v>635100</v>
+      </c>
+      <c r="K23" s="3">
         <v>597900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>617400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>589100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>771000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>716700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>545000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>134000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>788100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>460700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>715200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>790500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>41200</v>
+        <v>269400</v>
       </c>
       <c r="E24" s="3">
-        <v>80900</v>
+        <v>43100</v>
       </c>
       <c r="F24" s="3">
-        <v>48400</v>
+        <v>84600</v>
       </c>
       <c r="G24" s="3">
-        <v>221300</v>
+        <v>50600</v>
       </c>
       <c r="H24" s="3">
-        <v>76100</v>
+        <v>231300</v>
       </c>
       <c r="I24" s="3">
-        <v>7900</v>
+        <v>79600</v>
       </c>
       <c r="J24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K24" s="3">
         <v>71400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>85200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>133700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>137000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>89600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-43900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>155500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-17100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>139800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>154400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>688300</v>
+        <v>815000</v>
       </c>
       <c r="E26" s="3">
-        <v>703400</v>
+        <v>719600</v>
       </c>
       <c r="F26" s="3">
-        <v>517000</v>
+        <v>735400</v>
       </c>
       <c r="G26" s="3">
-        <v>306100</v>
+        <v>540500</v>
       </c>
       <c r="H26" s="3">
-        <v>646300</v>
+        <v>320000</v>
       </c>
       <c r="I26" s="3">
-        <v>599500</v>
+        <v>675700</v>
       </c>
       <c r="J26" s="3">
+        <v>626800</v>
+      </c>
+      <c r="K26" s="3">
         <v>526600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>549700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>503800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>637300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>579600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>455400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>177900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>632600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>477800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>575400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>636100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>590800</v>
+        <v>753600</v>
       </c>
       <c r="E27" s="3">
-        <v>594800</v>
+        <v>617600</v>
       </c>
       <c r="F27" s="3">
-        <v>411600</v>
+        <v>621800</v>
       </c>
       <c r="G27" s="3">
-        <v>310100</v>
+        <v>430300</v>
       </c>
       <c r="H27" s="3">
-        <v>571800</v>
+        <v>324200</v>
       </c>
       <c r="I27" s="3">
-        <v>540000</v>
+        <v>597700</v>
       </c>
       <c r="J27" s="3">
+        <v>564600</v>
+      </c>
+      <c r="K27" s="3">
         <v>471800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>479600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>441400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>412000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>531500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>503600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>148800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>608000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>427200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>423300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>559300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,28 +1922,31 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
         <v>-800</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-1700</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -1906,12 +1966,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>5200</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,38 +2108,41 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1228400</v>
+        <v>5758600</v>
       </c>
       <c r="E32" s="3">
-        <v>-394100</v>
+        <v>-1284200</v>
       </c>
       <c r="F32" s="3">
-        <v>-5252200</v>
+        <v>-412000</v>
       </c>
       <c r="G32" s="3">
-        <v>1434600</v>
+        <v>-5490800</v>
       </c>
       <c r="H32" s="3">
-        <v>1094400</v>
+        <v>1499800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1362400</v>
+        <v>1144100</v>
       </c>
       <c r="J32" s="3">
+        <v>-1424300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2082500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2101,67 +2170,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>590000</v>
+        <v>753600</v>
       </c>
       <c r="E33" s="3">
-        <v>594800</v>
+        <v>616800</v>
       </c>
       <c r="F33" s="3">
-        <v>411600</v>
+        <v>621800</v>
       </c>
       <c r="G33" s="3">
-        <v>310100</v>
+        <v>430300</v>
       </c>
       <c r="H33" s="3">
-        <v>570200</v>
+        <v>324200</v>
       </c>
       <c r="I33" s="3">
-        <v>540000</v>
+        <v>596100</v>
       </c>
       <c r="J33" s="3">
+        <v>564600</v>
+      </c>
+      <c r="K33" s="3">
         <v>471800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>479600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>441400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>412000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>531500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>503600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>154100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>608000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>427200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>423300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>559300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>590000</v>
+        <v>753600</v>
       </c>
       <c r="E35" s="3">
-        <v>594800</v>
+        <v>616800</v>
       </c>
       <c r="F35" s="3">
-        <v>411600</v>
+        <v>621800</v>
       </c>
       <c r="G35" s="3">
-        <v>310100</v>
+        <v>430300</v>
       </c>
       <c r="H35" s="3">
-        <v>570200</v>
+        <v>324200</v>
       </c>
       <c r="I35" s="3">
-        <v>540000</v>
+        <v>596100</v>
       </c>
       <c r="J35" s="3">
+        <v>564600</v>
+      </c>
+      <c r="K35" s="3">
         <v>471800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>479600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>441400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>412000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>531500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>503600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>154100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>608000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>427200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>423300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>559300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8448800</v>
+        <v>6949900</v>
       </c>
       <c r="E41" s="3">
-        <v>7460700</v>
+        <v>8832700</v>
       </c>
       <c r="F41" s="3">
-        <v>7729600</v>
+        <v>7799700</v>
       </c>
       <c r="G41" s="3">
-        <v>5108600</v>
+        <v>8080800</v>
       </c>
       <c r="H41" s="3">
-        <v>5325100</v>
+        <v>5340700</v>
       </c>
       <c r="I41" s="3">
-        <v>4936500</v>
+        <v>5567100</v>
       </c>
       <c r="J41" s="3">
+        <v>5160800</v>
+      </c>
+      <c r="K41" s="3">
         <v>5019000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4177000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5554400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4411000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4235200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4173500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4536700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4168300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4160100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3698300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6639000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2506,8 +2595,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2556,17 +2648,20 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U43" s="3">
         <v>2152600</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,185 +2843,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>124965700</v>
+        <v>125810000</v>
       </c>
       <c r="E47" s="3">
-        <v>124677000</v>
+        <v>130643400</v>
       </c>
       <c r="F47" s="3">
-        <v>124057700</v>
+        <v>130341600</v>
       </c>
       <c r="G47" s="3">
-        <v>120286900</v>
+        <v>129694100</v>
       </c>
       <c r="H47" s="3">
-        <v>115820600</v>
+        <v>125752000</v>
       </c>
       <c r="I47" s="3">
-        <v>115923700</v>
+        <v>121082800</v>
       </c>
       <c r="J47" s="3">
+        <v>121190500</v>
+      </c>
+      <c r="K47" s="3">
         <v>111944300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>108093500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>103629300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>95237800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>100356700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>99454100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>97862100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>94758000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>96311200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>98931100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>96419000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5960300</v>
+        <v>6329800</v>
       </c>
       <c r="E48" s="3">
-        <v>5873100</v>
+        <v>6231100</v>
       </c>
       <c r="F48" s="3">
-        <v>5871500</v>
+        <v>6139900</v>
       </c>
       <c r="G48" s="3">
-        <v>5835800</v>
+        <v>6138300</v>
       </c>
       <c r="H48" s="3">
-        <v>5793800</v>
+        <v>6101000</v>
       </c>
       <c r="I48" s="3">
-        <v>5816800</v>
+        <v>6057000</v>
       </c>
       <c r="J48" s="3">
+        <v>6081100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5732700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5388000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5447100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5283000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5523200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5452500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5259300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5234800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5196100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5066500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5064200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6779500</v>
+        <v>8036000</v>
       </c>
       <c r="E49" s="3">
-        <v>6874700</v>
+        <v>7087500</v>
       </c>
       <c r="F49" s="3">
-        <v>6414700</v>
+        <v>7187000</v>
       </c>
       <c r="G49" s="3">
-        <v>6525000</v>
+        <v>6706200</v>
       </c>
       <c r="H49" s="3">
-        <v>6276800</v>
+        <v>6821400</v>
       </c>
       <c r="I49" s="3">
-        <v>6252200</v>
+        <v>6561900</v>
       </c>
       <c r="J49" s="3">
+        <v>6536200</v>
+      </c>
+      <c r="K49" s="3">
         <v>5600300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5475000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5473000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5073000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5305700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5245400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5097800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5018200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5123100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5357600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5393000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1295800</v>
+        <v>1298300</v>
       </c>
       <c r="E52" s="3">
-        <v>1177600</v>
+        <v>1354700</v>
       </c>
       <c r="F52" s="3">
-        <v>1216500</v>
+        <v>1231100</v>
       </c>
       <c r="G52" s="3">
-        <v>1273600</v>
+        <v>1271800</v>
       </c>
       <c r="H52" s="3">
-        <v>1153800</v>
+        <v>1331500</v>
       </c>
       <c r="I52" s="3">
-        <v>1134800</v>
+        <v>1206300</v>
       </c>
       <c r="J52" s="3">
+        <v>1186400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1034900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>983800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>920200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>815300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1002700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1011700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>963800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1096200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1117100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1064800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1112400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>256154200</v>
+        <v>263151200</v>
       </c>
       <c r="E54" s="3">
-        <v>248126400</v>
+        <v>267792300</v>
       </c>
       <c r="F54" s="3">
-        <v>244593500</v>
+        <v>259399800</v>
       </c>
       <c r="G54" s="3">
-        <v>230919500</v>
+        <v>255706400</v>
       </c>
       <c r="H54" s="3">
-        <v>235687100</v>
+        <v>241411100</v>
       </c>
       <c r="I54" s="3">
-        <v>232364400</v>
+        <v>246395300</v>
       </c>
       <c r="J54" s="3">
+        <v>242921600</v>
+      </c>
+      <c r="K54" s="3">
         <v>226810900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>217365600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>206884800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>196741900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>205813500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>203042500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>200275800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>194234300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>196338200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>200584100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>198386200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,8 +3389,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3319,8 +3449,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3369,76 +3502,82 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U58" s="3">
         <v>145200</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>217987700</v>
+        <v>223072500</v>
       </c>
       <c r="E59" s="3">
-        <v>209416000</v>
+        <v>227891800</v>
       </c>
       <c r="F59" s="3">
-        <v>205109100</v>
+        <v>218930500</v>
       </c>
       <c r="G59" s="3">
-        <v>191273300</v>
+        <v>214428000</v>
       </c>
       <c r="H59" s="3">
-        <v>199264500</v>
+        <v>199963500</v>
       </c>
       <c r="I59" s="3">
-        <v>195715000</v>
+        <v>208317900</v>
       </c>
       <c r="J59" s="3">
+        <v>204607100</v>
+      </c>
+      <c r="K59" s="3">
         <v>192352600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>183708300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>173641900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>166350200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>174071400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>171658700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>169128400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>163182200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>164999500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>168698700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>170079200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,126 +3635,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4187900</v>
+        <v>4088900</v>
       </c>
       <c r="E61" s="3">
-        <v>3596300</v>
+        <v>4378200</v>
       </c>
       <c r="F61" s="3">
-        <v>3992100</v>
+        <v>3759700</v>
       </c>
       <c r="G61" s="3">
-        <v>3203000</v>
+        <v>4173400</v>
       </c>
       <c r="H61" s="3">
-        <v>3202200</v>
+        <v>3348500</v>
       </c>
       <c r="I61" s="3">
-        <v>3598700</v>
+        <v>3347700</v>
       </c>
       <c r="J61" s="3">
+        <v>3762200</v>
+      </c>
+      <c r="K61" s="3">
         <v>3244200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3340200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3301600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3152400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3264900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3264100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>3227600</v>
       </c>
       <c r="R61" s="3">
         <v>3227600</v>
       </c>
       <c r="S61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="T61" s="3">
         <v>3331000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7968800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>303700</v>
+        <v>320000</v>
       </c>
       <c r="E62" s="3">
-        <v>322800</v>
+        <v>317500</v>
       </c>
       <c r="F62" s="3">
-        <v>310100</v>
+        <v>337400</v>
       </c>
       <c r="G62" s="3">
-        <v>248200</v>
+        <v>324200</v>
       </c>
       <c r="H62" s="3">
-        <v>322000</v>
+        <v>259500</v>
       </c>
       <c r="I62" s="3">
-        <v>314800</v>
+        <v>336600</v>
       </c>
       <c r="J62" s="3">
+        <v>329100</v>
+      </c>
+      <c r="K62" s="3">
         <v>311700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>252500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>245100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>260900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>353800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>322200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>299900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>555900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>571600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>569300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>527800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>235664900</v>
+        <v>241852100</v>
       </c>
       <c r="E66" s="3">
-        <v>227617400</v>
+        <v>246372100</v>
       </c>
       <c r="F66" s="3">
-        <v>224461900</v>
+        <v>237958900</v>
       </c>
       <c r="G66" s="3">
-        <v>210902100</v>
+        <v>234660100</v>
       </c>
       <c r="H66" s="3">
-        <v>216266900</v>
+        <v>220484200</v>
       </c>
       <c r="I66" s="3">
-        <v>213190700</v>
+        <v>226092700</v>
       </c>
       <c r="J66" s="3">
+        <v>222876800</v>
+      </c>
+      <c r="K66" s="3">
         <v>208029000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>199057700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>188184800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>180148600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>188336800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>185875900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>183664300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>177640000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>179730400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>183510200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>181518900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,49 +4155,52 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1871200</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1871200</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1871200</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1871200</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1871200</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1871200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1871200</v>
+      </c>
+      <c r="K70" s="3">
         <v>1789800</v>
       </c>
-      <c r="E70" s="3">
-        <v>1789800</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1789800</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1789800</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1789800</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1789800</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1789800</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1737500</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1717800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1699000</v>
       </c>
       <c r="O70" s="3">
         <v>1699000</v>
       </c>
       <c r="P70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="Q70" s="3">
         <v>1679700</v>
@@ -4042,7 +4209,7 @@
         <v>1679700</v>
       </c>
       <c r="S70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="T70" s="3">
         <v>1733900</v>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9745400</v>
+        <v>10582800</v>
       </c>
       <c r="E72" s="3">
-        <v>9410800</v>
+        <v>10188200</v>
       </c>
       <c r="F72" s="3">
-        <v>9065000</v>
+        <v>9838300</v>
       </c>
       <c r="G72" s="3">
-        <v>8910400</v>
+        <v>9476900</v>
       </c>
       <c r="H72" s="3">
-        <v>8975400</v>
+        <v>9315200</v>
       </c>
       <c r="I72" s="3">
-        <v>8655800</v>
+        <v>9383200</v>
       </c>
       <c r="J72" s="3">
+        <v>9049100</v>
+      </c>
+      <c r="K72" s="3">
         <v>9166500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8793700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8575200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8096800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8286700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>7994600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7669100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7765800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7402700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7415700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7190600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18699400</v>
+        <v>19428000</v>
       </c>
       <c r="E76" s="3">
-        <v>18719200</v>
+        <v>19549000</v>
       </c>
       <c r="F76" s="3">
-        <v>18341800</v>
+        <v>19569700</v>
       </c>
       <c r="G76" s="3">
-        <v>18227600</v>
+        <v>19175100</v>
       </c>
       <c r="H76" s="3">
-        <v>17630400</v>
+        <v>19055700</v>
       </c>
       <c r="I76" s="3">
-        <v>17383800</v>
+        <v>18431400</v>
       </c>
       <c r="J76" s="3">
+        <v>18173600</v>
+      </c>
+      <c r="K76" s="3">
         <v>16992000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16570400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16982200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14953100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15777700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15467600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14931800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14914700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14928100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15340000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15133400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>590000</v>
+        <v>753600</v>
       </c>
       <c r="E81" s="3">
-        <v>594800</v>
+        <v>616800</v>
       </c>
       <c r="F81" s="3">
-        <v>411600</v>
+        <v>621800</v>
       </c>
       <c r="G81" s="3">
-        <v>310100</v>
+        <v>430300</v>
       </c>
       <c r="H81" s="3">
-        <v>570200</v>
+        <v>324200</v>
       </c>
       <c r="I81" s="3">
-        <v>540000</v>
+        <v>596100</v>
       </c>
       <c r="J81" s="3">
+        <v>564600</v>
+      </c>
+      <c r="K81" s="3">
         <v>471800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>479600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>441400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>412000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>531500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>503600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>154100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>608000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>427200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>423300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>559300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,8 +4806,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4668,8 +4866,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>919900</v>
+        <v>-839800</v>
       </c>
       <c r="E89" s="3">
-        <v>2342600</v>
+        <v>961700</v>
       </c>
       <c r="F89" s="3">
-        <v>2423500</v>
+        <v>2449000</v>
       </c>
       <c r="G89" s="3">
-        <v>65800</v>
+        <v>2533600</v>
       </c>
       <c r="H89" s="3">
-        <v>1332300</v>
+        <v>68800</v>
       </c>
       <c r="I89" s="3">
-        <v>153100</v>
+        <v>1392800</v>
       </c>
       <c r="J89" s="3">
+        <v>160000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1507500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-944600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1433100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>812400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>303400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>323700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>483700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>468900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>983800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-474800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1057900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-31700</v>
+        <v>-5000</v>
       </c>
       <c r="E91" s="3">
-        <v>-34900</v>
+        <v>-33200</v>
       </c>
       <c r="F91" s="3">
-        <v>-29300</v>
+        <v>-36500</v>
       </c>
       <c r="G91" s="3">
-        <v>-29300</v>
+        <v>-30700</v>
       </c>
       <c r="H91" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-37300</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-35700</v>
       </c>
-      <c r="I91" s="3">
-        <v>-13500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-38800</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-21100</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-29800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-33000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-39900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-106300</v>
+        <v>-674000</v>
       </c>
       <c r="E94" s="3">
-        <v>-444900</v>
+        <v>-111100</v>
       </c>
       <c r="F94" s="3">
-        <v>-74500</v>
+        <v>-465100</v>
       </c>
       <c r="G94" s="3">
-        <v>-76900</v>
+        <v>-77900</v>
       </c>
       <c r="H94" s="3">
-        <v>-99900</v>
+        <v>-80400</v>
       </c>
       <c r="I94" s="3">
-        <v>-168100</v>
+        <v>-104500</v>
       </c>
       <c r="J94" s="3">
+        <v>-175800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-43600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-28500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-101200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-51200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-16600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-104900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-49100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-111600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>13800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-77600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,67 +5536,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-269600</v>
+        <v>-281000</v>
       </c>
       <c r="E96" s="3">
-        <v>-268000</v>
+        <v>-281900</v>
       </c>
       <c r="F96" s="3">
-        <v>-270400</v>
+        <v>-280200</v>
       </c>
       <c r="G96" s="3">
-        <v>-270400</v>
+        <v>-282700</v>
       </c>
       <c r="H96" s="3">
-        <v>-271200</v>
+        <v>-282700</v>
       </c>
       <c r="I96" s="3">
-        <v>-258500</v>
+        <v>-283500</v>
       </c>
       <c r="J96" s="3">
+        <v>-270300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-262500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-245600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-240500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-223100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-231900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-222800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-221000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-214300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-217300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-213600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-212800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>369500</v>
+        <v>-460100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2138800</v>
+        <v>386300</v>
       </c>
       <c r="F100" s="3">
-        <v>481400</v>
+        <v>-2235900</v>
       </c>
       <c r="G100" s="3">
-        <v>-545600</v>
+        <v>305100</v>
       </c>
       <c r="H100" s="3">
-        <v>-716100</v>
+        <v>-372200</v>
       </c>
       <c r="I100" s="3">
-        <v>-129300</v>
+        <v>-748600</v>
       </c>
       <c r="J100" s="3">
+        <v>-135100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-551900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-462700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-475700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-426600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-299600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-719700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-337100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-277600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-901100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-574600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-187900</v>
+        <v>-52200</v>
       </c>
       <c r="E101" s="3">
-        <v>-38900</v>
+        <v>-196500</v>
       </c>
       <c r="F101" s="3">
-        <v>-129300</v>
+        <v>-40600</v>
       </c>
       <c r="G101" s="3">
-        <v>283100</v>
+        <v>-135100</v>
       </c>
       <c r="H101" s="3">
-        <v>-53100</v>
+        <v>296000</v>
       </c>
       <c r="I101" s="3">
-        <v>27800</v>
+        <v>-55500</v>
       </c>
       <c r="J101" s="3">
+        <v>29000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-64200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-59300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>153700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-48000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>28600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>57200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>26800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-77400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-59500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-23800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>50700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>995200</v>
+        <v>-2026200</v>
       </c>
       <c r="E102" s="3">
-        <v>-279900</v>
+        <v>1040500</v>
       </c>
       <c r="F102" s="3">
-        <v>2701000</v>
+        <v>-292700</v>
       </c>
       <c r="G102" s="3">
-        <v>-273600</v>
+        <v>2823700</v>
       </c>
       <c r="H102" s="3">
-        <v>415500</v>
+        <v>-286000</v>
       </c>
       <c r="I102" s="3">
-        <v>-126900</v>
+        <v>434400</v>
       </c>
       <c r="J102" s="3">
+        <v>-132600</v>
+      </c>
+      <c r="K102" s="3">
         <v>847700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1010000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>296500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-355300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>390700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>535100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>456300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7013800</v>
+        <v>7098900</v>
       </c>
       <c r="E8" s="3">
-        <v>8373400</v>
+        <v>6596000</v>
       </c>
       <c r="F8" s="3">
-        <v>7905000</v>
+        <v>7874700</v>
       </c>
       <c r="G8" s="3">
-        <v>7099200</v>
+        <v>7434200</v>
       </c>
       <c r="H8" s="3">
-        <v>6863700</v>
+        <v>6676300</v>
       </c>
       <c r="I8" s="3">
-        <v>8211700</v>
+        <v>6454900</v>
       </c>
       <c r="J8" s="3">
+        <v>7722600</v>
+      </c>
+      <c r="K8" s="3">
         <v>6547800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5963500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5572000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6225700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4358700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5138500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4511500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6435900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4134100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6044500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5384500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1817600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +870,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,8 +1137,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
@@ -1136,8 +1155,11 @@
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>104500</v>
+        <v>8848500</v>
       </c>
       <c r="E17" s="3">
-        <v>8821100</v>
+        <v>98200</v>
       </c>
       <c r="F17" s="3">
-        <v>7425800</v>
+        <v>8295700</v>
       </c>
       <c r="G17" s="3">
-        <v>11924200</v>
+        <v>6983500</v>
       </c>
       <c r="H17" s="3">
-        <v>4738000</v>
+        <v>11214000</v>
       </c>
       <c r="I17" s="3">
-        <v>6232800</v>
+        <v>4455800</v>
       </c>
       <c r="J17" s="3">
+        <v>5861600</v>
+      </c>
+      <c r="K17" s="3">
         <v>7283200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7381400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8084600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5576500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3534600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4363200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3910000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6241700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3305000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5519100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4607800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>965700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6909300</v>
+        <v>-1749600</v>
       </c>
       <c r="E18" s="3">
-        <v>-447700</v>
+        <v>6497800</v>
       </c>
       <c r="F18" s="3">
-        <v>479200</v>
+        <v>-421000</v>
       </c>
       <c r="G18" s="3">
-        <v>-4825100</v>
+        <v>450600</v>
       </c>
       <c r="H18" s="3">
-        <v>2125700</v>
+        <v>-4537700</v>
       </c>
       <c r="I18" s="3">
-        <v>1978900</v>
+        <v>1999100</v>
       </c>
       <c r="J18" s="3">
+        <v>1861100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-735400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1417900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>649200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>824100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>775400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>601500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>194200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>829000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>525400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>776700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>852000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,41 +1399,42 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-5758600</v>
+        <v>2778700</v>
       </c>
       <c r="E20" s="3">
-        <v>1284200</v>
+        <v>-5415600</v>
       </c>
       <c r="F20" s="3">
-        <v>412000</v>
+        <v>1207700</v>
       </c>
       <c r="G20" s="3">
-        <v>5490800</v>
+        <v>387500</v>
       </c>
       <c r="H20" s="3">
-        <v>-1499800</v>
+        <v>5163800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1144100</v>
+        <v>-1410400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1075900</v>
+      </c>
+      <c r="K20" s="3">
         <v>1424300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2082500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3197800</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1429,8 +1462,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1491,194 +1527,206 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>66300</v>
+        <v>65500</v>
       </c>
       <c r="E22" s="3">
-        <v>73800</v>
+        <v>62400</v>
       </c>
       <c r="F22" s="3">
-        <v>71300</v>
+        <v>69400</v>
       </c>
       <c r="G22" s="3">
-        <v>74600</v>
+        <v>67100</v>
       </c>
       <c r="H22" s="3">
-        <v>74600</v>
+        <v>70200</v>
       </c>
       <c r="I22" s="3">
-        <v>79600</v>
+        <v>70200</v>
       </c>
       <c r="J22" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K22" s="3">
         <v>53900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>66600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>67700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>53000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>58700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>56500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>40900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>64700</v>
-      </c>
-      <c r="T22" s="3">
-        <v>61500</v>
       </c>
       <c r="U22" s="3">
         <v>61500</v>
       </c>
       <c r="V22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="W22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1084400</v>
+        <v>963700</v>
       </c>
       <c r="E23" s="3">
-        <v>762700</v>
+        <v>1019800</v>
       </c>
       <c r="F23" s="3">
-        <v>819900</v>
+        <v>717300</v>
       </c>
       <c r="G23" s="3">
-        <v>591100</v>
+        <v>771100</v>
       </c>
       <c r="H23" s="3">
-        <v>551300</v>
+        <v>555900</v>
       </c>
       <c r="I23" s="3">
-        <v>755300</v>
+        <v>518500</v>
       </c>
       <c r="J23" s="3">
+        <v>710300</v>
+      </c>
+      <c r="K23" s="3">
         <v>635100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>597900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>617400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>589100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>771000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>716700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>545000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>134000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>788100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>460700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>715200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>790500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>269400</v>
+        <v>140300</v>
       </c>
       <c r="E24" s="3">
-        <v>43100</v>
+        <v>253400</v>
       </c>
       <c r="F24" s="3">
-        <v>84600</v>
+        <v>40500</v>
       </c>
       <c r="G24" s="3">
-        <v>50600</v>
+        <v>79500</v>
       </c>
       <c r="H24" s="3">
-        <v>231300</v>
+        <v>47600</v>
       </c>
       <c r="I24" s="3">
-        <v>79600</v>
+        <v>217500</v>
       </c>
       <c r="J24" s="3">
+        <v>74800</v>
+      </c>
+      <c r="K24" s="3">
         <v>8300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>71400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>85200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>133700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>137000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>89600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-43900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>155500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-17100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>139800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>154400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>815000</v>
+        <v>823300</v>
       </c>
       <c r="E26" s="3">
-        <v>719600</v>
+        <v>766400</v>
       </c>
       <c r="F26" s="3">
-        <v>735400</v>
+        <v>676800</v>
       </c>
       <c r="G26" s="3">
-        <v>540500</v>
+        <v>691600</v>
       </c>
       <c r="H26" s="3">
-        <v>320000</v>
+        <v>508300</v>
       </c>
       <c r="I26" s="3">
-        <v>675700</v>
+        <v>301000</v>
       </c>
       <c r="J26" s="3">
+        <v>635400</v>
+      </c>
+      <c r="K26" s="3">
         <v>626800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>526600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>549700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>503800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>637300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>579600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>455400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>177900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>632600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>477800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>575400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>636100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>753600</v>
+        <v>712600</v>
       </c>
       <c r="E27" s="3">
-        <v>617600</v>
+        <v>708700</v>
       </c>
       <c r="F27" s="3">
-        <v>621800</v>
+        <v>580900</v>
       </c>
       <c r="G27" s="3">
-        <v>430300</v>
+        <v>584800</v>
       </c>
       <c r="H27" s="3">
-        <v>324200</v>
+        <v>404600</v>
       </c>
       <c r="I27" s="3">
-        <v>597700</v>
+        <v>304900</v>
       </c>
       <c r="J27" s="3">
+        <v>562100</v>
+      </c>
+      <c r="K27" s="3">
         <v>564600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>471800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>479600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>441400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>412000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>531500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>503600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>148800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>608000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>427200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>423300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>559300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,31 +1982,34 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
         <v>-800</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-1600</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1969,12 +2029,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>5200</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,41 +2177,44 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>5758600</v>
+        <v>-2778700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1284200</v>
+        <v>5415600</v>
       </c>
       <c r="F32" s="3">
-        <v>-412000</v>
+        <v>-1207700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5490800</v>
+        <v>-387500</v>
       </c>
       <c r="H32" s="3">
-        <v>1499800</v>
+        <v>-5163800</v>
       </c>
       <c r="I32" s="3">
-        <v>1144100</v>
+        <v>1410400</v>
       </c>
       <c r="J32" s="3">
+        <v>1075900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1424300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2082500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2173,70 +2242,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>753600</v>
+        <v>712600</v>
       </c>
       <c r="E33" s="3">
-        <v>616800</v>
+        <v>708700</v>
       </c>
       <c r="F33" s="3">
-        <v>621800</v>
+        <v>580100</v>
       </c>
       <c r="G33" s="3">
-        <v>430300</v>
+        <v>584800</v>
       </c>
       <c r="H33" s="3">
-        <v>324200</v>
+        <v>404600</v>
       </c>
       <c r="I33" s="3">
-        <v>596100</v>
+        <v>304900</v>
       </c>
       <c r="J33" s="3">
+        <v>560600</v>
+      </c>
+      <c r="K33" s="3">
         <v>564600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>471800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>479600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>441400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>412000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>531500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>503600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>154100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>608000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>427200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>423300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>559300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>753600</v>
+        <v>712600</v>
       </c>
       <c r="E35" s="3">
-        <v>616800</v>
+        <v>708700</v>
       </c>
       <c r="F35" s="3">
-        <v>621800</v>
+        <v>580100</v>
       </c>
       <c r="G35" s="3">
-        <v>430300</v>
+        <v>584800</v>
       </c>
       <c r="H35" s="3">
-        <v>324200</v>
+        <v>404600</v>
       </c>
       <c r="I35" s="3">
-        <v>596100</v>
+        <v>304900</v>
       </c>
       <c r="J35" s="3">
+        <v>560600</v>
+      </c>
+      <c r="K35" s="3">
         <v>564600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>471800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>479600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>441400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>412000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>531500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>503600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>154100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>608000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>427200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>423300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>559300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2559,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6949900</v>
+        <v>6879000</v>
       </c>
       <c r="E41" s="3">
-        <v>8832700</v>
+        <v>6536000</v>
       </c>
       <c r="F41" s="3">
-        <v>7799700</v>
+        <v>8306600</v>
       </c>
       <c r="G41" s="3">
-        <v>8080800</v>
+        <v>7335100</v>
       </c>
       <c r="H41" s="3">
-        <v>5340700</v>
+        <v>7599400</v>
       </c>
       <c r="I41" s="3">
-        <v>5567100</v>
+        <v>5022600</v>
       </c>
       <c r="J41" s="3">
+        <v>5235500</v>
+      </c>
+      <c r="K41" s="3">
         <v>5160800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5019000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4177000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5554400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4411000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4235200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4173500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4536700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4168300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4160100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3698300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6639000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2598,8 +2687,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2651,17 +2743,20 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V43" s="3">
         <v>2152600</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2817,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2882,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,194 +2947,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>125810000</v>
+        <v>122120500</v>
       </c>
       <c r="E47" s="3">
-        <v>130643400</v>
+        <v>118316500</v>
       </c>
       <c r="F47" s="3">
-        <v>130341600</v>
+        <v>122862000</v>
       </c>
       <c r="G47" s="3">
-        <v>129694100</v>
+        <v>122578200</v>
       </c>
       <c r="H47" s="3">
-        <v>125752000</v>
+        <v>121969200</v>
       </c>
       <c r="I47" s="3">
-        <v>121082800</v>
+        <v>118261900</v>
       </c>
       <c r="J47" s="3">
+        <v>113870800</v>
+      </c>
+      <c r="K47" s="3">
         <v>121190500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>111944300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>108093500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>103629300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>95237800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>100356700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>99454100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>97862100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>94758000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>96311200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>98931100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>96419000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6329800</v>
+        <v>6365200</v>
       </c>
       <c r="E48" s="3">
-        <v>6231100</v>
+        <v>5952800</v>
       </c>
       <c r="F48" s="3">
-        <v>6139900</v>
+        <v>5860000</v>
       </c>
       <c r="G48" s="3">
-        <v>6138300</v>
+        <v>5774200</v>
       </c>
       <c r="H48" s="3">
-        <v>6101000</v>
+        <v>5772700</v>
       </c>
       <c r="I48" s="3">
-        <v>6057000</v>
+        <v>5737600</v>
       </c>
       <c r="J48" s="3">
+        <v>5696300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6081100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5732700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5388000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5447100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5283000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5523200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5452500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5259300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5234800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5196100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5066500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5064200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8036000</v>
+        <v>7537100</v>
       </c>
       <c r="E49" s="3">
-        <v>7087500</v>
+        <v>7557300</v>
       </c>
       <c r="F49" s="3">
-        <v>7187000</v>
+        <v>6665400</v>
       </c>
       <c r="G49" s="3">
-        <v>6706200</v>
+        <v>6759000</v>
       </c>
       <c r="H49" s="3">
-        <v>6821400</v>
+        <v>6306800</v>
       </c>
       <c r="I49" s="3">
-        <v>6561900</v>
+        <v>6415100</v>
       </c>
       <c r="J49" s="3">
+        <v>6171100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6536200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5600300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5475000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5473000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5073000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5305700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5245400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5097800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5018200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5123100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5357600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5393000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1298300</v>
+        <v>1222500</v>
       </c>
       <c r="E52" s="3">
-        <v>1354700</v>
+        <v>1221000</v>
       </c>
       <c r="F52" s="3">
-        <v>1231100</v>
+        <v>1274000</v>
       </c>
       <c r="G52" s="3">
-        <v>1271800</v>
+        <v>1157800</v>
       </c>
       <c r="H52" s="3">
-        <v>1331500</v>
+        <v>1196000</v>
       </c>
       <c r="I52" s="3">
-        <v>1206300</v>
+        <v>1252200</v>
       </c>
       <c r="J52" s="3">
+        <v>1134400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1186400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1034900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>983800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>920200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>815300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1002700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1011700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>963800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1096200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1117100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1064800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1112400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>263151200</v>
+        <v>256463100</v>
       </c>
       <c r="E54" s="3">
-        <v>267792300</v>
+        <v>247477400</v>
       </c>
       <c r="F54" s="3">
-        <v>259399800</v>
+        <v>251842000</v>
       </c>
       <c r="G54" s="3">
-        <v>255706400</v>
+        <v>243949400</v>
       </c>
       <c r="H54" s="3">
-        <v>241411100</v>
+        <v>240476000</v>
       </c>
       <c r="I54" s="3">
-        <v>246395300</v>
+        <v>227032100</v>
       </c>
       <c r="J54" s="3">
+        <v>231719500</v>
+      </c>
+      <c r="K54" s="3">
         <v>242921600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>226810900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>217365600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>206884800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>196741900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>205813500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>203042500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>200275800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>194234300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>196338200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>200584100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>198386200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,8 +3519,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3452,8 +3582,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3505,79 +3638,85 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V58" s="3">
         <v>145200</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>223072500</v>
+        <v>217400800</v>
       </c>
       <c r="E59" s="3">
-        <v>227891800</v>
+        <v>209785800</v>
       </c>
       <c r="F59" s="3">
-        <v>218930500</v>
+        <v>214318000</v>
       </c>
       <c r="G59" s="3">
-        <v>214428000</v>
+        <v>205890600</v>
       </c>
       <c r="H59" s="3">
-        <v>199963500</v>
+        <v>201656200</v>
       </c>
       <c r="I59" s="3">
-        <v>208317900</v>
+        <v>188053300</v>
       </c>
       <c r="J59" s="3">
+        <v>195910000</v>
+      </c>
+      <c r="K59" s="3">
         <v>204607100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>192352600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>183708300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>173641900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>166350200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>174071400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>171658700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>169128400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>163182200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>164999500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>168698700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>170079200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,132 +3777,141 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4088900</v>
+        <v>3846100</v>
       </c>
       <c r="E61" s="3">
-        <v>4378200</v>
+        <v>3845300</v>
       </c>
       <c r="F61" s="3">
-        <v>3759700</v>
+        <v>4117400</v>
       </c>
       <c r="G61" s="3">
-        <v>4173400</v>
+        <v>3535800</v>
       </c>
       <c r="H61" s="3">
-        <v>3348500</v>
+        <v>3924900</v>
       </c>
       <c r="I61" s="3">
-        <v>3347700</v>
+        <v>3149100</v>
       </c>
       <c r="J61" s="3">
+        <v>3148300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3762200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3244200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3340200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3301600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3152400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3264900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3264100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>3227600</v>
       </c>
       <c r="S61" s="3">
         <v>3227600</v>
       </c>
       <c r="T61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="U61" s="3">
         <v>3331000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7968800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>320000</v>
+        <v>322800</v>
       </c>
       <c r="E62" s="3">
-        <v>317500</v>
+        <v>301000</v>
       </c>
       <c r="F62" s="3">
-        <v>337400</v>
+        <v>298600</v>
       </c>
       <c r="G62" s="3">
-        <v>324200</v>
+        <v>317300</v>
       </c>
       <c r="H62" s="3">
-        <v>259500</v>
+        <v>304900</v>
       </c>
       <c r="I62" s="3">
-        <v>336600</v>
+        <v>244000</v>
       </c>
       <c r="J62" s="3">
+        <v>316500</v>
+      </c>
+      <c r="K62" s="3">
         <v>329100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>311700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>252500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>245100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>260900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>353800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>322200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>299900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>555900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>571600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>569300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>527800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>241852100</v>
+        <v>235219400</v>
       </c>
       <c r="E66" s="3">
-        <v>246372100</v>
+        <v>227446900</v>
       </c>
       <c r="F66" s="3">
-        <v>237958900</v>
+        <v>231697700</v>
       </c>
       <c r="G66" s="3">
-        <v>234660100</v>
+        <v>223785600</v>
       </c>
       <c r="H66" s="3">
-        <v>220484200</v>
+        <v>220683300</v>
       </c>
       <c r="I66" s="3">
-        <v>226092700</v>
+        <v>207351700</v>
       </c>
       <c r="J66" s="3">
+        <v>212626100</v>
+      </c>
+      <c r="K66" s="3">
         <v>222876800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>208029000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>199057700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>188184800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>180148600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>188336800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>185875900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>183664300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>177640000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>179730400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>183510200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>181518900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,52 +4322,55 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2529200</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1759700</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1759700</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1759700</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1759700</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1759700</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1759700</v>
+      </c>
+      <c r="K70" s="3">
         <v>1871200</v>
       </c>
-      <c r="E70" s="3">
-        <v>1871200</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1871200</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1871200</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1871200</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1871200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1871200</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1789800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1737500</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1717800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="O70" s="3">
-        <v>1699000</v>
       </c>
       <c r="P70" s="3">
         <v>1699000</v>
       </c>
       <c r="Q70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="R70" s="3">
         <v>1679700</v>
@@ -4212,7 +4379,7 @@
         <v>1679700</v>
       </c>
       <c r="T70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="U70" s="3">
         <v>1733900</v>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10582800</v>
+        <v>10398500</v>
       </c>
       <c r="E72" s="3">
-        <v>10188200</v>
+        <v>9952500</v>
       </c>
       <c r="F72" s="3">
-        <v>9838300</v>
+        <v>9581400</v>
       </c>
       <c r="G72" s="3">
-        <v>9476900</v>
+        <v>9252300</v>
       </c>
       <c r="H72" s="3">
-        <v>9315200</v>
+        <v>8912400</v>
       </c>
       <c r="I72" s="3">
-        <v>9383200</v>
+        <v>8760400</v>
       </c>
       <c r="J72" s="3">
+        <v>8824300</v>
+      </c>
+      <c r="K72" s="3">
         <v>9049100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9166500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8793700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8575200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8096800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8286700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>7994600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7669100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7765800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7402700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7415700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7190600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19428000</v>
+        <v>18714400</v>
       </c>
       <c r="E76" s="3">
-        <v>19549000</v>
+        <v>18270800</v>
       </c>
       <c r="F76" s="3">
-        <v>19569700</v>
+        <v>18384600</v>
       </c>
       <c r="G76" s="3">
-        <v>19175100</v>
+        <v>18404100</v>
       </c>
       <c r="H76" s="3">
-        <v>19055700</v>
+        <v>18033000</v>
       </c>
       <c r="I76" s="3">
-        <v>18431400</v>
+        <v>17920700</v>
       </c>
       <c r="J76" s="3">
+        <v>17333600</v>
+      </c>
+      <c r="K76" s="3">
         <v>18173600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16992000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16570400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16982200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14953100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15777700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15467600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14931800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14914700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14928100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15340000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15133400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>753600</v>
+        <v>712600</v>
       </c>
       <c r="E81" s="3">
-        <v>616800</v>
+        <v>708700</v>
       </c>
       <c r="F81" s="3">
-        <v>621800</v>
+        <v>580100</v>
       </c>
       <c r="G81" s="3">
-        <v>430300</v>
+        <v>584800</v>
       </c>
       <c r="H81" s="3">
-        <v>324200</v>
+        <v>404600</v>
       </c>
       <c r="I81" s="3">
-        <v>596100</v>
+        <v>304900</v>
       </c>
       <c r="J81" s="3">
+        <v>560600</v>
+      </c>
+      <c r="K81" s="3">
         <v>564600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>471800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>479600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>441400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>412000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>531500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>503600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>154100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>608000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>427200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>423300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>559300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,8 +5004,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4869,8 +5067,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5392,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-839800</v>
+        <v>211300</v>
       </c>
       <c r="E89" s="3">
-        <v>961700</v>
+        <v>-789800</v>
       </c>
       <c r="F89" s="3">
-        <v>2449000</v>
+        <v>904400</v>
       </c>
       <c r="G89" s="3">
-        <v>2533600</v>
+        <v>2303100</v>
       </c>
       <c r="H89" s="3">
-        <v>68800</v>
+        <v>2382700</v>
       </c>
       <c r="I89" s="3">
-        <v>1392800</v>
+        <v>64700</v>
       </c>
       <c r="J89" s="3">
+        <v>1309800</v>
+      </c>
+      <c r="K89" s="3">
         <v>160000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1507500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-944600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1433100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>812400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>303400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>323700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>483700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>468900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>983800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-474800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1057900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5484,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5000</v>
+        <v>-24900</v>
       </c>
       <c r="E91" s="3">
-        <v>-33200</v>
+        <v>-4700</v>
       </c>
       <c r="F91" s="3">
-        <v>-36500</v>
+        <v>-31200</v>
       </c>
       <c r="G91" s="3">
-        <v>-30700</v>
+        <v>-34300</v>
       </c>
       <c r="H91" s="3">
-        <v>-30700</v>
+        <v>-28800</v>
       </c>
       <c r="I91" s="3">
-        <v>-37300</v>
+        <v>-28800</v>
       </c>
       <c r="J91" s="3">
+        <v>-35100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-14100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-16700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-38800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21100</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-35700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-33000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-39900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5677,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-674000</v>
+        <v>-62400</v>
       </c>
       <c r="E94" s="3">
-        <v>-111100</v>
+        <v>-633900</v>
       </c>
       <c r="F94" s="3">
-        <v>-465100</v>
+        <v>-104500</v>
       </c>
       <c r="G94" s="3">
-        <v>-77900</v>
+        <v>-437400</v>
       </c>
       <c r="H94" s="3">
-        <v>-80400</v>
+        <v>-73300</v>
       </c>
       <c r="I94" s="3">
-        <v>-104500</v>
+        <v>-75600</v>
       </c>
       <c r="J94" s="3">
+        <v>-98200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-175800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-43600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-28500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-101200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-41400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-51200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-104900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-49100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-111600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>13800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-77600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,70 +5769,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-281000</v>
+        <v>-264300</v>
       </c>
       <c r="E96" s="3">
-        <v>-281900</v>
+        <v>-264300</v>
       </c>
       <c r="F96" s="3">
-        <v>-280200</v>
+        <v>-265100</v>
       </c>
       <c r="G96" s="3">
-        <v>-282700</v>
+        <v>-263500</v>
       </c>
       <c r="H96" s="3">
-        <v>-282700</v>
+        <v>-265900</v>
       </c>
       <c r="I96" s="3">
-        <v>-283500</v>
+        <v>-265900</v>
       </c>
       <c r="J96" s="3">
+        <v>-266600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-270300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-262500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-245600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-240500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-223100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-231900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-222800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-221000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-214300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-217300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-213600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-212800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6027,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-460100</v>
+        <v>377400</v>
       </c>
       <c r="E100" s="3">
-        <v>386300</v>
+        <v>-432700</v>
       </c>
       <c r="F100" s="3">
-        <v>-2235900</v>
+        <v>363300</v>
       </c>
       <c r="G100" s="3">
-        <v>305100</v>
+        <v>-2259500</v>
       </c>
       <c r="H100" s="3">
-        <v>-372200</v>
+        <v>443600</v>
       </c>
       <c r="I100" s="3">
-        <v>-748600</v>
+        <v>-350100</v>
       </c>
       <c r="J100" s="3">
+        <v>-704000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-135100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-551900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-462700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-475700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-426600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-299600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-719700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-337100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-277600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-901100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-574600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-49100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-184800</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-38200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-127100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>278300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-52200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-196500</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-40600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-135100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>296000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-55500</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>29000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-64200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-59300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>153700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-48000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>28600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>57200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>26800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-77400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-59500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-23800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>50700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2026200</v>
+        <v>482600</v>
       </c>
       <c r="E102" s="3">
-        <v>1040500</v>
+        <v>-1905500</v>
       </c>
       <c r="F102" s="3">
-        <v>-292700</v>
+        <v>978500</v>
       </c>
       <c r="G102" s="3">
-        <v>2823700</v>
+        <v>-275200</v>
       </c>
       <c r="H102" s="3">
-        <v>-286000</v>
+        <v>2655600</v>
       </c>
       <c r="I102" s="3">
-        <v>434400</v>
+        <v>-269000</v>
       </c>
       <c r="J102" s="3">
+        <v>408500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-132600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>847700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1010000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>296500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-355300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>390700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>535100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>456300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,157 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7098900</v>
+        <v>7409300</v>
       </c>
       <c r="E8" s="3">
-        <v>6596000</v>
+        <v>7147900</v>
       </c>
       <c r="F8" s="3">
-        <v>7874700</v>
+        <v>6641500</v>
       </c>
       <c r="G8" s="3">
-        <v>7434200</v>
+        <v>7929000</v>
       </c>
       <c r="H8" s="3">
-        <v>6676300</v>
+        <v>7485500</v>
       </c>
       <c r="I8" s="3">
-        <v>6454900</v>
+        <v>6722400</v>
       </c>
       <c r="J8" s="3">
+        <v>6499400</v>
+      </c>
+      <c r="K8" s="3">
         <v>7722600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6547800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5963500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5572000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6225700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4358700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5138500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4511500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6435900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4134100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6044500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5384500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1817600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,8 +879,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +947,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1140,8 +1159,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
@@ -1158,8 +1177,11 @@
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1245,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8848500</v>
+        <v>5635900</v>
       </c>
       <c r="E17" s="3">
-        <v>98200</v>
+        <v>8909500</v>
       </c>
       <c r="F17" s="3">
-        <v>8295700</v>
+        <v>98900</v>
       </c>
       <c r="G17" s="3">
-        <v>6983500</v>
+        <v>8352900</v>
       </c>
       <c r="H17" s="3">
-        <v>11214000</v>
+        <v>7031700</v>
       </c>
       <c r="I17" s="3">
-        <v>4455800</v>
+        <v>11291400</v>
       </c>
       <c r="J17" s="3">
+        <v>4486600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5861600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7283200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7381400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8084600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5576500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3534600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4363200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3910000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6241700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3305000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5519100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4607800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>965700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-1749600</v>
+        <v>1773400</v>
       </c>
       <c r="E18" s="3">
-        <v>6497800</v>
+        <v>-1761700</v>
       </c>
       <c r="F18" s="3">
-        <v>-421000</v>
+        <v>6542600</v>
       </c>
       <c r="G18" s="3">
-        <v>450600</v>
+        <v>-423900</v>
       </c>
       <c r="H18" s="3">
-        <v>-4537700</v>
+        <v>453800</v>
       </c>
       <c r="I18" s="3">
-        <v>1999100</v>
+        <v>-4569000</v>
       </c>
       <c r="J18" s="3">
+        <v>2012900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1861100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-735400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1417900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>649200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>824100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>775400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>601500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>194200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>829000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>525400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>776700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>852000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,44 +1432,45 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2778700</v>
+        <v>-728500</v>
       </c>
       <c r="E20" s="3">
-        <v>-5415600</v>
+        <v>2797900</v>
       </c>
       <c r="F20" s="3">
-        <v>1207700</v>
+        <v>-5453000</v>
       </c>
       <c r="G20" s="3">
-        <v>387500</v>
+        <v>1216000</v>
       </c>
       <c r="H20" s="3">
-        <v>5163800</v>
+        <v>390200</v>
       </c>
       <c r="I20" s="3">
-        <v>-1410400</v>
+        <v>5199400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1420200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1075900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1424300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2082500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3197800</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1465,8 +1498,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1530,203 +1566,215 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>65500</v>
+        <v>63600</v>
       </c>
       <c r="E22" s="3">
-        <v>62400</v>
+        <v>65900</v>
       </c>
       <c r="F22" s="3">
-        <v>69400</v>
+        <v>62800</v>
       </c>
       <c r="G22" s="3">
-        <v>67100</v>
+        <v>69900</v>
       </c>
       <c r="H22" s="3">
-        <v>70200</v>
+        <v>67500</v>
       </c>
       <c r="I22" s="3">
-        <v>70200</v>
+        <v>70700</v>
       </c>
       <c r="J22" s="3">
+        <v>70700</v>
+      </c>
+      <c r="K22" s="3">
         <v>74800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>53900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>66600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>67700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>53000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>58700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>56500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>40900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>64700</v>
-      </c>
-      <c r="U22" s="3">
-        <v>61500</v>
       </c>
       <c r="V22" s="3">
         <v>61500</v>
       </c>
       <c r="W22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="X22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>963700</v>
+        <v>981300</v>
       </c>
       <c r="E23" s="3">
-        <v>1019800</v>
+        <v>970300</v>
       </c>
       <c r="F23" s="3">
-        <v>717300</v>
+        <v>1026800</v>
       </c>
       <c r="G23" s="3">
-        <v>771100</v>
+        <v>722200</v>
       </c>
       <c r="H23" s="3">
-        <v>555900</v>
+        <v>776400</v>
       </c>
       <c r="I23" s="3">
-        <v>518500</v>
+        <v>559700</v>
       </c>
       <c r="J23" s="3">
+        <v>522100</v>
+      </c>
+      <c r="K23" s="3">
         <v>710300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>635100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>597900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>617400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>589100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>771000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>716700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>545000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>134000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>788100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>460700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>715200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>790500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>140300</v>
+        <v>131900</v>
       </c>
       <c r="E24" s="3">
-        <v>253400</v>
+        <v>141300</v>
       </c>
       <c r="F24" s="3">
-        <v>40500</v>
+        <v>255100</v>
       </c>
       <c r="G24" s="3">
-        <v>79500</v>
+        <v>40800</v>
       </c>
       <c r="H24" s="3">
-        <v>47600</v>
+        <v>80100</v>
       </c>
       <c r="I24" s="3">
-        <v>217500</v>
+        <v>47900</v>
       </c>
       <c r="J24" s="3">
+        <v>219000</v>
+      </c>
+      <c r="K24" s="3">
         <v>74800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>71400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>85200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>133700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>137000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>89600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-43900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>155500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-17100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>139800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>154400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>823300</v>
+        <v>849400</v>
       </c>
       <c r="E26" s="3">
-        <v>766400</v>
+        <v>829000</v>
       </c>
       <c r="F26" s="3">
-        <v>676800</v>
+        <v>771700</v>
       </c>
       <c r="G26" s="3">
-        <v>691600</v>
+        <v>681400</v>
       </c>
       <c r="H26" s="3">
-        <v>508300</v>
+        <v>696300</v>
       </c>
       <c r="I26" s="3">
-        <v>301000</v>
+        <v>511900</v>
       </c>
       <c r="J26" s="3">
+        <v>303000</v>
+      </c>
+      <c r="K26" s="3">
         <v>635400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>626800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>526600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>549700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>503800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>637300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>579600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>455400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>177900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>632600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>477800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>575400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>636100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>712600</v>
+        <v>789000</v>
       </c>
       <c r="E27" s="3">
-        <v>708700</v>
+        <v>717500</v>
       </c>
       <c r="F27" s="3">
-        <v>580900</v>
+        <v>713600</v>
       </c>
       <c r="G27" s="3">
-        <v>584800</v>
+        <v>584900</v>
       </c>
       <c r="H27" s="3">
-        <v>404600</v>
+        <v>588800</v>
       </c>
       <c r="I27" s="3">
-        <v>304900</v>
+        <v>407400</v>
       </c>
       <c r="J27" s="3">
+        <v>307000</v>
+      </c>
+      <c r="K27" s="3">
         <v>562100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>564600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>471800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>479600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>441400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>412000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>531500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>503600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>148800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>608000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>427200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>423300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>559300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1996,24 +2056,24 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>-800</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1600</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2032,12 +2092,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>5200</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,44 +2246,47 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2778700</v>
+        <v>728500</v>
       </c>
       <c r="E32" s="3">
-        <v>5415600</v>
+        <v>-2797900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1207700</v>
+        <v>5453000</v>
       </c>
       <c r="G32" s="3">
-        <v>-387500</v>
+        <v>-1216000</v>
       </c>
       <c r="H32" s="3">
-        <v>-5163800</v>
+        <v>-390200</v>
       </c>
       <c r="I32" s="3">
-        <v>1410400</v>
+        <v>-5199400</v>
       </c>
       <c r="J32" s="3">
+        <v>1420200</v>
+      </c>
+      <c r="K32" s="3">
         <v>1075900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1424300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2082500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2245,73 +2314,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>712600</v>
+        <v>789000</v>
       </c>
       <c r="E33" s="3">
-        <v>708700</v>
+        <v>717500</v>
       </c>
       <c r="F33" s="3">
-        <v>580100</v>
+        <v>713600</v>
       </c>
       <c r="G33" s="3">
-        <v>584800</v>
+        <v>584100</v>
       </c>
       <c r="H33" s="3">
-        <v>404600</v>
+        <v>588800</v>
       </c>
       <c r="I33" s="3">
-        <v>304900</v>
+        <v>407400</v>
       </c>
       <c r="J33" s="3">
+        <v>307000</v>
+      </c>
+      <c r="K33" s="3">
         <v>560600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>564600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>471800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>479600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>441400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>412000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>531500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>503600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>154100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>608000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>427200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>423300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>559300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>712600</v>
+        <v>789000</v>
       </c>
       <c r="E35" s="3">
-        <v>708700</v>
+        <v>717500</v>
       </c>
       <c r="F35" s="3">
-        <v>580100</v>
+        <v>713600</v>
       </c>
       <c r="G35" s="3">
-        <v>584800</v>
+        <v>584100</v>
       </c>
       <c r="H35" s="3">
-        <v>404600</v>
+        <v>588800</v>
       </c>
       <c r="I35" s="3">
-        <v>304900</v>
+        <v>407400</v>
       </c>
       <c r="J35" s="3">
+        <v>307000</v>
+      </c>
+      <c r="K35" s="3">
         <v>560600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>564600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>471800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>479600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>441400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>412000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>531500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>503600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>154100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>608000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>427200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>423300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>559300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,73 +2645,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6879000</v>
+        <v>6538700</v>
       </c>
       <c r="E41" s="3">
-        <v>6536000</v>
+        <v>6926500</v>
       </c>
       <c r="F41" s="3">
-        <v>8306600</v>
+        <v>6581100</v>
       </c>
       <c r="G41" s="3">
-        <v>7335100</v>
+        <v>8363900</v>
       </c>
       <c r="H41" s="3">
-        <v>7599400</v>
+        <v>7385800</v>
       </c>
       <c r="I41" s="3">
-        <v>5022600</v>
+        <v>7651900</v>
       </c>
       <c r="J41" s="3">
+        <v>5057300</v>
+      </c>
+      <c r="K41" s="3">
         <v>5235500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5160800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5019000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4177000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5554400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4411000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4235200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4173500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4536700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4168300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4160100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3698300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6639000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2690,8 +2779,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2746,17 +2838,20 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W43" s="3">
         <v>2152600</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,8 +2915,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +2983,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2950,203 +3051,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>122120500</v>
+        <v>124439100</v>
       </c>
       <c r="E47" s="3">
-        <v>118316500</v>
+        <v>122963200</v>
       </c>
       <c r="F47" s="3">
-        <v>122862000</v>
+        <v>119132900</v>
       </c>
       <c r="G47" s="3">
-        <v>122578200</v>
+        <v>123709700</v>
       </c>
       <c r="H47" s="3">
-        <v>121969200</v>
+        <v>123424000</v>
       </c>
       <c r="I47" s="3">
-        <v>118261900</v>
+        <v>122810900</v>
       </c>
       <c r="J47" s="3">
+        <v>119078000</v>
+      </c>
+      <c r="K47" s="3">
         <v>113870800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>121190500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>111944300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>108093500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>103629300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>95237800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100356700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>99454100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>97862100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>94758000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>96311200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>98931100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>96419000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6365200</v>
+        <v>6750600</v>
       </c>
       <c r="E48" s="3">
-        <v>5952800</v>
+        <v>6409100</v>
       </c>
       <c r="F48" s="3">
-        <v>5860000</v>
+        <v>5993900</v>
       </c>
       <c r="G48" s="3">
-        <v>5774200</v>
+        <v>5900400</v>
       </c>
       <c r="H48" s="3">
-        <v>5772700</v>
+        <v>5814100</v>
       </c>
       <c r="I48" s="3">
-        <v>5737600</v>
+        <v>5812500</v>
       </c>
       <c r="J48" s="3">
+        <v>5777200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5696300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6081100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5732700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5388000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5447100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5283000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5523200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5452500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5259300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5234800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5196100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5066500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5064200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7537100</v>
+        <v>7768900</v>
       </c>
       <c r="E49" s="3">
-        <v>7557300</v>
+        <v>7589100</v>
       </c>
       <c r="F49" s="3">
-        <v>6665400</v>
+        <v>7609500</v>
       </c>
       <c r="G49" s="3">
-        <v>6759000</v>
+        <v>6711400</v>
       </c>
       <c r="H49" s="3">
-        <v>6306800</v>
+        <v>6805600</v>
       </c>
       <c r="I49" s="3">
-        <v>6415100</v>
+        <v>6350300</v>
       </c>
       <c r="J49" s="3">
+        <v>6459400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6171100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6536200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5600300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5475000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5473000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5073000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5305700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5245400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5097800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5018200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5123100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5357600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5393000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1222500</v>
+        <v>1302400</v>
       </c>
       <c r="E52" s="3">
-        <v>1221000</v>
+        <v>1231000</v>
       </c>
       <c r="F52" s="3">
-        <v>1274000</v>
+        <v>1229400</v>
       </c>
       <c r="G52" s="3">
-        <v>1157800</v>
+        <v>1282800</v>
       </c>
       <c r="H52" s="3">
-        <v>1196000</v>
+        <v>1165800</v>
       </c>
       <c r="I52" s="3">
-        <v>1252200</v>
+        <v>1204300</v>
       </c>
       <c r="J52" s="3">
+        <v>1260800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1134400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1186400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1034900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>983800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>920200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>815300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1002700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1011700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>963800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1096200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1117100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1064800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1112400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>256463100</v>
+        <v>260050200</v>
       </c>
       <c r="E54" s="3">
-        <v>247477400</v>
+        <v>258232800</v>
       </c>
       <c r="F54" s="3">
-        <v>251842000</v>
+        <v>249185100</v>
       </c>
       <c r="G54" s="3">
-        <v>243949400</v>
+        <v>253579800</v>
       </c>
       <c r="H54" s="3">
-        <v>240476000</v>
+        <v>245632700</v>
       </c>
       <c r="I54" s="3">
-        <v>227032100</v>
+        <v>242135300</v>
       </c>
       <c r="J54" s="3">
+        <v>228598700</v>
+      </c>
+      <c r="K54" s="3">
         <v>231719500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>242921600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>226810900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>217365600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>206884800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>196741900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>205813500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>203042500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>200275800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>194234300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>196338200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>200584100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>198386200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,8 +3649,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3585,8 +3715,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3641,82 +3774,88 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W58" s="3">
         <v>145200</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>217400800</v>
+        <v>220269300</v>
       </c>
       <c r="E59" s="3">
-        <v>209785800</v>
+        <v>218901000</v>
       </c>
       <c r="F59" s="3">
-        <v>214318000</v>
+        <v>211233400</v>
       </c>
       <c r="G59" s="3">
-        <v>205890600</v>
+        <v>215796900</v>
       </c>
       <c r="H59" s="3">
-        <v>201656200</v>
+        <v>207311300</v>
       </c>
       <c r="I59" s="3">
-        <v>188053300</v>
+        <v>203047700</v>
       </c>
       <c r="J59" s="3">
+        <v>189350900</v>
+      </c>
+      <c r="K59" s="3">
         <v>195910000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>204607100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>192352600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>183708300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>173641900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>166350200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>174071400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>171658700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>169128400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>163182200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>164999500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>168698700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>170079200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,138 +3919,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3846100</v>
+        <v>3637900</v>
       </c>
       <c r="E61" s="3">
-        <v>3845300</v>
+        <v>3872700</v>
       </c>
       <c r="F61" s="3">
-        <v>4117400</v>
+        <v>3871900</v>
       </c>
       <c r="G61" s="3">
-        <v>3535800</v>
+        <v>4145800</v>
       </c>
       <c r="H61" s="3">
-        <v>3924900</v>
+        <v>3560200</v>
       </c>
       <c r="I61" s="3">
-        <v>3149100</v>
+        <v>3951900</v>
       </c>
       <c r="J61" s="3">
+        <v>3170800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3148300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3762200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3244200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3340200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3301600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3152400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3264900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3264100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>3227600</v>
       </c>
       <c r="T61" s="3">
         <v>3227600</v>
       </c>
       <c r="U61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="V61" s="3">
         <v>3331000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7968800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>322800</v>
+        <v>296700</v>
       </c>
       <c r="E62" s="3">
-        <v>301000</v>
+        <v>325000</v>
       </c>
       <c r="F62" s="3">
-        <v>298600</v>
+        <v>303000</v>
       </c>
       <c r="G62" s="3">
-        <v>317300</v>
+        <v>300700</v>
       </c>
       <c r="H62" s="3">
-        <v>304900</v>
+        <v>319500</v>
       </c>
       <c r="I62" s="3">
-        <v>244000</v>
+        <v>307000</v>
       </c>
       <c r="J62" s="3">
+        <v>245700</v>
+      </c>
+      <c r="K62" s="3">
         <v>316500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>329100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>311700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>252500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>245100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>260900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>353800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>322200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>299900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>555900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>571600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>569300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>527800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>235219400</v>
+        <v>238430700</v>
       </c>
       <c r="E66" s="3">
-        <v>227446900</v>
+        <v>236842500</v>
       </c>
       <c r="F66" s="3">
-        <v>231697700</v>
+        <v>229016400</v>
       </c>
       <c r="G66" s="3">
-        <v>223785600</v>
+        <v>233296400</v>
       </c>
       <c r="H66" s="3">
-        <v>220683300</v>
+        <v>225329800</v>
       </c>
       <c r="I66" s="3">
-        <v>207351700</v>
+        <v>222206000</v>
       </c>
       <c r="J66" s="3">
+        <v>208782500</v>
+      </c>
+      <c r="K66" s="3">
         <v>212626100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>222876800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>208029000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>199057700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>188184800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>180148600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>188336800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>185875900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>183664300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>177640000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>179730400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>183510200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>181518900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,55 +4489,58 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2529200</v>
+        <v>1987000</v>
       </c>
       <c r="E70" s="3">
+        <v>2546700</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1771900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1771900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1771900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1771900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1771900</v>
+      </c>
+      <c r="K70" s="3">
         <v>1759700</v>
       </c>
-      <c r="F70" s="3">
-        <v>1759700</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1759700</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1759700</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1759700</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1759700</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1871200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1789800</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1737500</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1717800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="P70" s="3">
-        <v>1699000</v>
       </c>
       <c r="Q70" s="3">
         <v>1699000</v>
       </c>
       <c r="R70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="S70" s="3">
         <v>1679700</v>
@@ -4382,7 +4549,7 @@
         <v>1679700</v>
       </c>
       <c r="U70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="V70" s="3">
         <v>1733900</v>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10398500</v>
+        <v>11014300</v>
       </c>
       <c r="E72" s="3">
-        <v>9952500</v>
+        <v>10470200</v>
       </c>
       <c r="F72" s="3">
-        <v>9581400</v>
+        <v>10021200</v>
       </c>
       <c r="G72" s="3">
-        <v>9252300</v>
+        <v>9647500</v>
       </c>
       <c r="H72" s="3">
-        <v>8912400</v>
+        <v>9316200</v>
       </c>
       <c r="I72" s="3">
-        <v>8760400</v>
+        <v>8973900</v>
       </c>
       <c r="J72" s="3">
+        <v>8820800</v>
+      </c>
+      <c r="K72" s="3">
         <v>8824300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9049100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9166500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8793700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8575200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8096800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8286700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>7994600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7669100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7765800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7402700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7415700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7190600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18714400</v>
+        <v>19632500</v>
       </c>
       <c r="E76" s="3">
-        <v>18270800</v>
+        <v>18843600</v>
       </c>
       <c r="F76" s="3">
-        <v>18384600</v>
+        <v>18396900</v>
       </c>
       <c r="G76" s="3">
-        <v>18404100</v>
+        <v>18511500</v>
       </c>
       <c r="H76" s="3">
-        <v>18033000</v>
+        <v>18531100</v>
       </c>
       <c r="I76" s="3">
-        <v>17920700</v>
+        <v>18157400</v>
       </c>
       <c r="J76" s="3">
+        <v>18044400</v>
+      </c>
+      <c r="K76" s="3">
         <v>17333600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18173600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>16992000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16570400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16982200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14953100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>15777700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15467600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14931800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14914700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14928100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15340000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15133400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>712600</v>
+        <v>789000</v>
       </c>
       <c r="E81" s="3">
-        <v>708700</v>
+        <v>717500</v>
       </c>
       <c r="F81" s="3">
-        <v>580100</v>
+        <v>713600</v>
       </c>
       <c r="G81" s="3">
-        <v>584800</v>
+        <v>584100</v>
       </c>
       <c r="H81" s="3">
-        <v>404600</v>
+        <v>588800</v>
       </c>
       <c r="I81" s="3">
-        <v>304900</v>
+        <v>407400</v>
       </c>
       <c r="J81" s="3">
+        <v>307000</v>
+      </c>
+      <c r="K81" s="3">
         <v>560600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>564600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>471800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>479600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>441400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>412000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>531500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>503600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>154100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>608000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>427200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>423300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>559300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,8 +5202,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5070,8 +5268,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,73 +5608,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>211300</v>
+        <v>694800</v>
       </c>
       <c r="E89" s="3">
-        <v>-789800</v>
+        <v>212700</v>
       </c>
       <c r="F89" s="3">
-        <v>904400</v>
+        <v>-795300</v>
       </c>
       <c r="G89" s="3">
-        <v>2303100</v>
+        <v>910700</v>
       </c>
       <c r="H89" s="3">
-        <v>2382700</v>
+        <v>2319000</v>
       </c>
       <c r="I89" s="3">
-        <v>64700</v>
+        <v>2399100</v>
       </c>
       <c r="J89" s="3">
+        <v>65200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1309800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>160000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1507500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-944600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1433100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>812400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>303400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>323700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>483700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>468900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>983800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-474800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1057900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,73 +5704,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24900</v>
+        <v>-16500</v>
       </c>
       <c r="E91" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-4700</v>
       </c>
-      <c r="F91" s="3">
-        <v>-31200</v>
-      </c>
       <c r="G91" s="3">
-        <v>-34300</v>
+        <v>-31400</v>
       </c>
       <c r="H91" s="3">
-        <v>-28800</v>
+        <v>-34500</v>
       </c>
       <c r="I91" s="3">
-        <v>-28800</v>
+        <v>-29000</v>
       </c>
       <c r="J91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-35100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-16700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-38800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21100</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-35700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-29800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-33000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-39900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,73 +5906,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-62400</v>
+        <v>-139000</v>
       </c>
       <c r="E94" s="3">
-        <v>-633900</v>
+        <v>-62800</v>
       </c>
       <c r="F94" s="3">
-        <v>-104500</v>
+        <v>-638200</v>
       </c>
       <c r="G94" s="3">
-        <v>-437400</v>
+        <v>-105200</v>
       </c>
       <c r="H94" s="3">
-        <v>-73300</v>
+        <v>-440400</v>
       </c>
       <c r="I94" s="3">
-        <v>-75600</v>
+        <v>-73800</v>
       </c>
       <c r="J94" s="3">
+        <v>-76100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-98200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-175800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-43600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-28500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-101200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-41400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-51200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-104900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-49100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-111600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>13800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-77600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,73 +6002,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-264300</v>
+        <v>-265300</v>
       </c>
       <c r="E96" s="3">
-        <v>-264300</v>
+        <v>-266100</v>
       </c>
       <c r="F96" s="3">
-        <v>-265100</v>
+        <v>-266100</v>
       </c>
       <c r="G96" s="3">
-        <v>-263500</v>
+        <v>-266900</v>
       </c>
       <c r="H96" s="3">
-        <v>-265900</v>
+        <v>-265300</v>
       </c>
       <c r="I96" s="3">
-        <v>-265900</v>
+        <v>-267700</v>
       </c>
       <c r="J96" s="3">
+        <v>-267700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-266600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-270300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-262500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-245600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-240500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-223100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-231900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-222800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-221000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-214300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-217300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-213600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-212800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,199 +6272,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>377400</v>
+        <v>-1092000</v>
       </c>
       <c r="E100" s="3">
-        <v>-432700</v>
+        <v>380000</v>
       </c>
       <c r="F100" s="3">
-        <v>363300</v>
+        <v>-435700</v>
       </c>
       <c r="G100" s="3">
-        <v>-2259500</v>
+        <v>365800</v>
       </c>
       <c r="H100" s="3">
-        <v>443600</v>
+        <v>-2275100</v>
       </c>
       <c r="I100" s="3">
-        <v>-350100</v>
+        <v>446700</v>
       </c>
       <c r="J100" s="3">
+        <v>-352500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-704000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-135100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-551900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-462700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-475700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-426600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-299600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-719700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-337100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-277600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-901100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-574600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-43700</v>
+        <v>76100</v>
       </c>
       <c r="E101" s="3">
-        <v>-49100</v>
+        <v>-44000</v>
       </c>
       <c r="F101" s="3">
-        <v>-184800</v>
+        <v>-49500</v>
       </c>
       <c r="G101" s="3">
-        <v>-38200</v>
+        <v>-186100</v>
       </c>
       <c r="H101" s="3">
-        <v>-127100</v>
+        <v>-38500</v>
       </c>
       <c r="I101" s="3">
-        <v>278300</v>
+        <v>-128000</v>
       </c>
       <c r="J101" s="3">
+        <v>280300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-52200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>29000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-64200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-59300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>153700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-48000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>28600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>57200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>26800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-77400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-59500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-23800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>50700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>482600</v>
+        <v>-460000</v>
       </c>
       <c r="E102" s="3">
-        <v>-1905500</v>
+        <v>485900</v>
       </c>
       <c r="F102" s="3">
-        <v>978500</v>
+        <v>-1918700</v>
       </c>
       <c r="G102" s="3">
-        <v>-275200</v>
+        <v>985200</v>
       </c>
       <c r="H102" s="3">
-        <v>2655600</v>
+        <v>-277100</v>
       </c>
       <c r="I102" s="3">
-        <v>-269000</v>
+        <v>2673900</v>
       </c>
       <c r="J102" s="3">
+        <v>-270800</v>
+      </c>
+      <c r="K102" s="3">
         <v>408500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-132600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>847700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1010000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>296500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-355300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>390700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>535100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>456300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,163 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7409300</v>
+        <v>8216200</v>
       </c>
       <c r="E8" s="3">
-        <v>7147900</v>
+        <v>7406400</v>
       </c>
       <c r="F8" s="3">
-        <v>6641500</v>
+        <v>7145100</v>
       </c>
       <c r="G8" s="3">
-        <v>7929000</v>
+        <v>6638900</v>
       </c>
       <c r="H8" s="3">
-        <v>7485500</v>
+        <v>7925900</v>
       </c>
       <c r="I8" s="3">
-        <v>6722400</v>
+        <v>7482500</v>
       </c>
       <c r="J8" s="3">
+        <v>6719700</v>
+      </c>
+      <c r="K8" s="3">
         <v>6499400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7722600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6547800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5963500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5572000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6225700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4358700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5138500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4511500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6435900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4134100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6044500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5384500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1817600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,8 +888,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +959,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +988,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1057,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1128,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1162,8 +1181,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>5</v>
@@ -1180,8 +1199,11 @@
       <c r="X14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1270,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5635900</v>
+        <v>9128100</v>
       </c>
       <c r="E17" s="3">
-        <v>8909500</v>
+        <v>5633600</v>
       </c>
       <c r="F17" s="3">
+        <v>8906000</v>
+      </c>
+      <c r="G17" s="3">
         <v>98900</v>
       </c>
-      <c r="G17" s="3">
-        <v>8352900</v>
-      </c>
       <c r="H17" s="3">
-        <v>7031700</v>
+        <v>8349600</v>
       </c>
       <c r="I17" s="3">
-        <v>11291400</v>
+        <v>7028900</v>
       </c>
       <c r="J17" s="3">
+        <v>11286900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4486600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5861600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7283200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7381400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8084600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5576500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3534600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4363200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3910000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6241700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3305000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5519100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4607800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>965700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1773400</v>
+        <v>-911900</v>
       </c>
       <c r="E18" s="3">
-        <v>-1761700</v>
+        <v>1772700</v>
       </c>
       <c r="F18" s="3">
-        <v>6542600</v>
+        <v>-1761000</v>
       </c>
       <c r="G18" s="3">
-        <v>-423900</v>
+        <v>6540000</v>
       </c>
       <c r="H18" s="3">
-        <v>453800</v>
+        <v>-423800</v>
       </c>
       <c r="I18" s="3">
-        <v>-4569000</v>
+        <v>453600</v>
       </c>
       <c r="J18" s="3">
+        <v>-4567200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2012900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1861100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-735400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1417900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>649200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>824100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>775400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>601500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>194200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>829000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>525400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>776700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>852000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,47 +1465,48 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-728500</v>
+        <v>1981500</v>
       </c>
       <c r="E20" s="3">
-        <v>2797900</v>
+        <v>-728200</v>
       </c>
       <c r="F20" s="3">
-        <v>-5453000</v>
+        <v>2796800</v>
       </c>
       <c r="G20" s="3">
-        <v>1216000</v>
+        <v>-5450800</v>
       </c>
       <c r="H20" s="3">
-        <v>390200</v>
+        <v>1215600</v>
       </c>
       <c r="I20" s="3">
-        <v>5199400</v>
+        <v>390000</v>
       </c>
       <c r="J20" s="3">
+        <v>5197300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1420200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1075900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1424300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2082500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3197800</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1501,8 +1534,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1569,212 +1605,224 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E22" s="3">
         <v>63600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>65900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>62800</v>
       </c>
-      <c r="G22" s="3">
-        <v>69900</v>
-      </c>
       <c r="H22" s="3">
+        <v>69800</v>
+      </c>
+      <c r="I22" s="3">
         <v>67500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>70600</v>
+      </c>
+      <c r="K22" s="3">
         <v>70700</v>
       </c>
-      <c r="J22" s="3">
-        <v>70700</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>74800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>53900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>66600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>67700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>53000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>58700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>56500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>60300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>40900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>64700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>61500</v>
       </c>
       <c r="W22" s="3">
         <v>61500</v>
       </c>
       <c r="X22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="Y22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>981300</v>
+        <v>1005300</v>
       </c>
       <c r="E23" s="3">
-        <v>970300</v>
+        <v>980900</v>
       </c>
       <c r="F23" s="3">
-        <v>1026800</v>
+        <v>969900</v>
       </c>
       <c r="G23" s="3">
-        <v>722200</v>
+        <v>1026400</v>
       </c>
       <c r="H23" s="3">
-        <v>776400</v>
+        <v>722000</v>
       </c>
       <c r="I23" s="3">
-        <v>559700</v>
+        <v>776100</v>
       </c>
       <c r="J23" s="3">
+        <v>559500</v>
+      </c>
+      <c r="K23" s="3">
         <v>522100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>710300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>635100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>597900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>617400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>589100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>771000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>716700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>545000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>134000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>788100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>460700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>715200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>790500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>131900</v>
+        <v>34500</v>
       </c>
       <c r="E24" s="3">
+        <v>131800</v>
+      </c>
+      <c r="F24" s="3">
         <v>141300</v>
       </c>
-      <c r="F24" s="3">
-        <v>255100</v>
-      </c>
       <c r="G24" s="3">
+        <v>255000</v>
+      </c>
+      <c r="H24" s="3">
         <v>40800</v>
       </c>
-      <c r="H24" s="3">
-        <v>80100</v>
-      </c>
       <c r="I24" s="3">
+        <v>80000</v>
+      </c>
+      <c r="J24" s="3">
         <v>47900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>219000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>74800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>71400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>67700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>85200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>133700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>137000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>89600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-43900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>155500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-17100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>139800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>154400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>849400</v>
+        <v>970700</v>
       </c>
       <c r="E26" s="3">
-        <v>829000</v>
+        <v>849100</v>
       </c>
       <c r="F26" s="3">
-        <v>771700</v>
+        <v>828700</v>
       </c>
       <c r="G26" s="3">
-        <v>681400</v>
+        <v>771400</v>
       </c>
       <c r="H26" s="3">
-        <v>696300</v>
+        <v>681200</v>
       </c>
       <c r="I26" s="3">
-        <v>511900</v>
+        <v>696100</v>
       </c>
       <c r="J26" s="3">
+        <v>511700</v>
+      </c>
+      <c r="K26" s="3">
         <v>303000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>635400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>626800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>526600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>549700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>503800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>637300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>579600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>455400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>177900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>632600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>477800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>575400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>636100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>789000</v>
+        <v>858500</v>
       </c>
       <c r="E27" s="3">
-        <v>717500</v>
+        <v>788700</v>
       </c>
       <c r="F27" s="3">
-        <v>713600</v>
+        <v>717300</v>
       </c>
       <c r="G27" s="3">
-        <v>584900</v>
+        <v>713300</v>
       </c>
       <c r="H27" s="3">
-        <v>588800</v>
+        <v>584600</v>
       </c>
       <c r="I27" s="3">
-        <v>407400</v>
+        <v>588600</v>
       </c>
       <c r="J27" s="3">
+        <v>407300</v>
+      </c>
+      <c r="K27" s="3">
         <v>307000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>562100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>564600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>471800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>479600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>441400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>412000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>531500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>503600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>148800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>608000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>427200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>423300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>559300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,13 +2102,16 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>-7800</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>5</v>
@@ -2059,24 +2119,24 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
         <v>-800</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1600</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2095,12 +2155,12 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>5200</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2113,8 +2173,11 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,47 +2315,50 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>728500</v>
+        <v>-1981500</v>
       </c>
       <c r="E32" s="3">
-        <v>-2797900</v>
+        <v>728200</v>
       </c>
       <c r="F32" s="3">
-        <v>5453000</v>
+        <v>-2796800</v>
       </c>
       <c r="G32" s="3">
-        <v>-1216000</v>
+        <v>5450800</v>
       </c>
       <c r="H32" s="3">
-        <v>-390200</v>
+        <v>-1215600</v>
       </c>
       <c r="I32" s="3">
-        <v>-5199400</v>
+        <v>-390000</v>
       </c>
       <c r="J32" s="3">
+        <v>-5197300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1420200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1075900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1424300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2082500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2317,76 +2386,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>789000</v>
+        <v>850700</v>
       </c>
       <c r="E33" s="3">
-        <v>717500</v>
+        <v>788700</v>
       </c>
       <c r="F33" s="3">
-        <v>713600</v>
+        <v>717300</v>
       </c>
       <c r="G33" s="3">
-        <v>584100</v>
+        <v>713300</v>
       </c>
       <c r="H33" s="3">
-        <v>588800</v>
+        <v>583800</v>
       </c>
       <c r="I33" s="3">
-        <v>407400</v>
+        <v>588600</v>
       </c>
       <c r="J33" s="3">
+        <v>407300</v>
+      </c>
+      <c r="K33" s="3">
         <v>307000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>560600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>564600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>471800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>479600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>441400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>412000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>531500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>503600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>154100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>608000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>427200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>423300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>559300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>789000</v>
+        <v>850700</v>
       </c>
       <c r="E35" s="3">
-        <v>717500</v>
+        <v>788700</v>
       </c>
       <c r="F35" s="3">
-        <v>713600</v>
+        <v>717300</v>
       </c>
       <c r="G35" s="3">
-        <v>584100</v>
+        <v>713300</v>
       </c>
       <c r="H35" s="3">
-        <v>588800</v>
+        <v>583800</v>
       </c>
       <c r="I35" s="3">
-        <v>407400</v>
+        <v>588600</v>
       </c>
       <c r="J35" s="3">
+        <v>407300</v>
+      </c>
+      <c r="K35" s="3">
         <v>307000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>560600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>564600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>471800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>479600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>441400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>412000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>531500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>503600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>154100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>608000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>427200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>423300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>559300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,76 +2731,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6538700</v>
+        <v>6141400</v>
       </c>
       <c r="E41" s="3">
-        <v>6926500</v>
+        <v>6536100</v>
       </c>
       <c r="F41" s="3">
-        <v>6581100</v>
+        <v>6923800</v>
       </c>
       <c r="G41" s="3">
-        <v>8363900</v>
+        <v>6578500</v>
       </c>
       <c r="H41" s="3">
-        <v>7385800</v>
+        <v>8360600</v>
       </c>
       <c r="I41" s="3">
-        <v>7651900</v>
+        <v>7382800</v>
       </c>
       <c r="J41" s="3">
+        <v>7648900</v>
+      </c>
+      <c r="K41" s="3">
         <v>5057300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5235500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5160800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5019000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4177000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5554400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4411000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4235200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4173500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4536700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4168300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4160100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3698300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6639000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2782,8 +2871,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2841,17 +2933,20 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W43" s="3">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X43" s="3">
         <v>2152600</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3013,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3084,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,212 +3155,224 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>124439100</v>
+        <v>130270000</v>
       </c>
       <c r="E47" s="3">
-        <v>122963200</v>
+        <v>124389900</v>
       </c>
       <c r="F47" s="3">
-        <v>119132900</v>
+        <v>122914600</v>
       </c>
       <c r="G47" s="3">
-        <v>123709700</v>
+        <v>119085900</v>
       </c>
       <c r="H47" s="3">
-        <v>123424000</v>
+        <v>123660900</v>
       </c>
       <c r="I47" s="3">
-        <v>122810900</v>
+        <v>123375300</v>
       </c>
       <c r="J47" s="3">
+        <v>122762400</v>
+      </c>
+      <c r="K47" s="3">
         <v>119078000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>113870800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>121190500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>111944300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>108093500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>103629300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>95237800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>100356700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>99454100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>97862100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>94758000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>96311200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>98931100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>96419000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6750600</v>
+        <v>7148200</v>
       </c>
       <c r="E48" s="3">
-        <v>6409100</v>
+        <v>6748000</v>
       </c>
       <c r="F48" s="3">
-        <v>5993900</v>
+        <v>6406600</v>
       </c>
       <c r="G48" s="3">
-        <v>5900400</v>
+        <v>5991500</v>
       </c>
       <c r="H48" s="3">
-        <v>5814100</v>
+        <v>5898100</v>
       </c>
       <c r="I48" s="3">
-        <v>5812500</v>
+        <v>5811800</v>
       </c>
       <c r="J48" s="3">
+        <v>5810200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5777200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5696300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6081100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5732700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5388000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5447100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5283000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5523200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5452500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5259300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5234800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5196100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5066500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5064200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7768900</v>
+        <v>7758700</v>
       </c>
       <c r="E49" s="3">
-        <v>7589100</v>
+        <v>7765800</v>
       </c>
       <c r="F49" s="3">
-        <v>7609500</v>
+        <v>7586100</v>
       </c>
       <c r="G49" s="3">
-        <v>6711400</v>
+        <v>7606500</v>
       </c>
       <c r="H49" s="3">
-        <v>6805600</v>
+        <v>6708700</v>
       </c>
       <c r="I49" s="3">
-        <v>6350300</v>
+        <v>6802900</v>
       </c>
       <c r="J49" s="3">
+        <v>6347800</v>
+      </c>
+      <c r="K49" s="3">
         <v>6459400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6171100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6536200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5600300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5475000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5473000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5073000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5305700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5245400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5097800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5018200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5123100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5357600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5393000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1302400</v>
+        <v>1450200</v>
       </c>
       <c r="E52" s="3">
-        <v>1231000</v>
+        <v>1301900</v>
       </c>
       <c r="F52" s="3">
-        <v>1229400</v>
+        <v>1230500</v>
       </c>
       <c r="G52" s="3">
-        <v>1282800</v>
+        <v>1228900</v>
       </c>
       <c r="H52" s="3">
-        <v>1165800</v>
+        <v>1282300</v>
       </c>
       <c r="I52" s="3">
-        <v>1204300</v>
+        <v>1165300</v>
       </c>
       <c r="J52" s="3">
+        <v>1203800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1260800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1134400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1186400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1034900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>983800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>920200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>815300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1002700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1011700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>963800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1096200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1117100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1064800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1112400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>260050200</v>
+        <v>271025700</v>
       </c>
       <c r="E54" s="3">
-        <v>258232800</v>
+        <v>259947500</v>
       </c>
       <c r="F54" s="3">
-        <v>249185100</v>
+        <v>258130800</v>
       </c>
       <c r="G54" s="3">
-        <v>253579800</v>
+        <v>249086700</v>
       </c>
       <c r="H54" s="3">
-        <v>245632700</v>
+        <v>253479700</v>
       </c>
       <c r="I54" s="3">
-        <v>242135300</v>
+        <v>245535700</v>
       </c>
       <c r="J54" s="3">
+        <v>242039700</v>
+      </c>
+      <c r="K54" s="3">
         <v>228598700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>231719500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>242921600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>226810900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>217365600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>206884800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>196741900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>205813500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>203042500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>200275800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>194234300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>196338200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>200584100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>198386200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,8 +3779,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3718,31 +3848,34 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>104400</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
+        <v>72200</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>140500</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3777,85 +3910,91 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W58" s="3">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X58" s="3">
         <v>145200</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>220269300</v>
+        <v>228496700</v>
       </c>
       <c r="E59" s="3">
-        <v>218901000</v>
+        <v>220182300</v>
       </c>
       <c r="F59" s="3">
-        <v>211233400</v>
+        <v>218814500</v>
       </c>
       <c r="G59" s="3">
-        <v>215796900</v>
+        <v>211150000</v>
       </c>
       <c r="H59" s="3">
-        <v>207311300</v>
+        <v>215711700</v>
       </c>
       <c r="I59" s="3">
-        <v>203047700</v>
+        <v>207229400</v>
       </c>
       <c r="J59" s="3">
+        <v>202967500</v>
+      </c>
+      <c r="K59" s="3">
         <v>189350900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>195910000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>204607100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>192352600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>183708300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>173641900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>166350200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>174071400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>171658700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>169128400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>163182200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>164999500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>168698700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>170079200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,144 +4061,153 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3637900</v>
+        <v>5198900</v>
       </c>
       <c r="E61" s="3">
-        <v>3872700</v>
+        <v>3636500</v>
       </c>
       <c r="F61" s="3">
-        <v>3871900</v>
+        <v>3871100</v>
       </c>
       <c r="G61" s="3">
-        <v>4145800</v>
+        <v>3870300</v>
       </c>
       <c r="H61" s="3">
-        <v>3560200</v>
+        <v>4144200</v>
       </c>
       <c r="I61" s="3">
-        <v>3951900</v>
+        <v>3558800</v>
       </c>
       <c r="J61" s="3">
+        <v>3950400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3170800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3148300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3762200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3244200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3340200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3301600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3152400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3264900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3264100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>3227600</v>
       </c>
       <c r="U61" s="3">
         <v>3227600</v>
       </c>
       <c r="V61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="W61" s="3">
         <v>3331000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7968800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>296700</v>
+        <v>252700</v>
       </c>
       <c r="E62" s="3">
-        <v>325000</v>
+        <v>296600</v>
       </c>
       <c r="F62" s="3">
-        <v>303000</v>
+        <v>324900</v>
       </c>
       <c r="G62" s="3">
-        <v>300700</v>
+        <v>302900</v>
       </c>
       <c r="H62" s="3">
-        <v>319500</v>
+        <v>300600</v>
       </c>
       <c r="I62" s="3">
-        <v>307000</v>
+        <v>319400</v>
       </c>
       <c r="J62" s="3">
+        <v>306800</v>
+      </c>
+      <c r="K62" s="3">
         <v>245700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>316500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>329100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>311700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>252500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>245100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>260900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>353800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>322200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>299900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>555900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>571600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>569300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>527800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>238430700</v>
+        <v>249041900</v>
       </c>
       <c r="E66" s="3">
-        <v>236842500</v>
+        <v>238336500</v>
       </c>
       <c r="F66" s="3">
-        <v>229016400</v>
+        <v>236749000</v>
       </c>
       <c r="G66" s="3">
-        <v>233296400</v>
+        <v>228925900</v>
       </c>
       <c r="H66" s="3">
-        <v>225329800</v>
+        <v>233204300</v>
       </c>
       <c r="I66" s="3">
-        <v>222206000</v>
+        <v>225240800</v>
       </c>
       <c r="J66" s="3">
+        <v>222118300</v>
+      </c>
+      <c r="K66" s="3">
         <v>208782500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>212626100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>222876800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>208029000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>199057700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>188184800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>180148600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>188336800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>185875900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>183664300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>177640000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>179730400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>183510200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>181518900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,58 +4656,61 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1987000</v>
+        <v>1757000</v>
       </c>
       <c r="E70" s="3">
-        <v>2546700</v>
+        <v>1986200</v>
       </c>
       <c r="F70" s="3">
+        <v>2545700</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1771200</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1771200</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1771200</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1771200</v>
+      </c>
+      <c r="K70" s="3">
         <v>1771900</v>
       </c>
-      <c r="G70" s="3">
-        <v>1771900</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1771900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1771900</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1771900</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1759700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1871200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1789800</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1737500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1717800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>1699000</v>
       </c>
       <c r="R70" s="3">
         <v>1699000</v>
       </c>
       <c r="S70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="T70" s="3">
         <v>1679700</v>
@@ -4552,7 +4719,7 @@
         <v>1679700</v>
       </c>
       <c r="V70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="W70" s="3">
         <v>1733900</v>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11014300</v>
+        <v>11545900</v>
       </c>
       <c r="E72" s="3">
-        <v>10470200</v>
+        <v>11009900</v>
       </c>
       <c r="F72" s="3">
-        <v>10021200</v>
+        <v>10466100</v>
       </c>
       <c r="G72" s="3">
-        <v>9647500</v>
+        <v>10017200</v>
       </c>
       <c r="H72" s="3">
-        <v>9316200</v>
+        <v>9643700</v>
       </c>
       <c r="I72" s="3">
-        <v>8973900</v>
+        <v>9312500</v>
       </c>
       <c r="J72" s="3">
+        <v>8970400</v>
+      </c>
+      <c r="K72" s="3">
         <v>8820800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8824300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9049100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9166500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8793700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8575200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8096800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8286700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>7994600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7669100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7765800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7402700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7415700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7190600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19632500</v>
+        <v>20226700</v>
       </c>
       <c r="E76" s="3">
-        <v>18843600</v>
+        <v>19624800</v>
       </c>
       <c r="F76" s="3">
-        <v>18396900</v>
+        <v>18836100</v>
       </c>
       <c r="G76" s="3">
-        <v>18511500</v>
+        <v>18389600</v>
       </c>
       <c r="H76" s="3">
-        <v>18531100</v>
+        <v>18504200</v>
       </c>
       <c r="I76" s="3">
-        <v>18157400</v>
+        <v>18523800</v>
       </c>
       <c r="J76" s="3">
+        <v>18150300</v>
+      </c>
+      <c r="K76" s="3">
         <v>18044400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17333600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18173600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>16992000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16570400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16982200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14953100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15777700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15467600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14931800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14914700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14928100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15340000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15133400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>789000</v>
+        <v>850700</v>
       </c>
       <c r="E81" s="3">
-        <v>717500</v>
+        <v>788700</v>
       </c>
       <c r="F81" s="3">
-        <v>713600</v>
+        <v>717300</v>
       </c>
       <c r="G81" s="3">
-        <v>584100</v>
+        <v>713300</v>
       </c>
       <c r="H81" s="3">
-        <v>588800</v>
+        <v>583800</v>
       </c>
       <c r="I81" s="3">
-        <v>407400</v>
+        <v>588600</v>
       </c>
       <c r="J81" s="3">
+        <v>407300</v>
+      </c>
+      <c r="K81" s="3">
         <v>307000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>560600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>564600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>471800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>479600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>441400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>412000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>531500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>503600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>154100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>608000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>427200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>423300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>559300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,8 +5400,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5271,8 +5469,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>694800</v>
+        <v>-1569500</v>
       </c>
       <c r="E89" s="3">
+        <v>694500</v>
+      </c>
+      <c r="F89" s="3">
         <v>212700</v>
       </c>
-      <c r="F89" s="3">
-        <v>-795300</v>
-      </c>
       <c r="G89" s="3">
-        <v>910700</v>
+        <v>-794900</v>
       </c>
       <c r="H89" s="3">
-        <v>2319000</v>
+        <v>910300</v>
       </c>
       <c r="I89" s="3">
-        <v>2399100</v>
+        <v>2318100</v>
       </c>
       <c r="J89" s="3">
+        <v>2398200</v>
+      </c>
+      <c r="K89" s="3">
         <v>65200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1309800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>160000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1507500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-944600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1433100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>812400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>303400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>323700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>483700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>468900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>983800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-474800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1057900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-31400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-34500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-29000</v>
       </c>
       <c r="J91" s="3">
         <v>-29000</v>
       </c>
       <c r="K91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-35100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-16700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-38800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-35700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-29800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-38000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-33000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-39900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-139000</v>
+        <v>209500</v>
       </c>
       <c r="E94" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-62800</v>
       </c>
-      <c r="F94" s="3">
-        <v>-638200</v>
-      </c>
       <c r="G94" s="3">
+        <v>-638000</v>
+      </c>
+      <c r="H94" s="3">
         <v>-105200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-440400</v>
-      </c>
       <c r="I94" s="3">
+        <v>-440200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-73800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-76100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-98200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-175800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-101200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-41400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-51200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-104900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-49100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-111600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>13800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-77600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,76 +6235,80 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-265300</v>
+        <v>-323300</v>
       </c>
       <c r="E96" s="3">
-        <v>-266100</v>
+        <v>-265200</v>
       </c>
       <c r="F96" s="3">
-        <v>-266100</v>
+        <v>-266000</v>
       </c>
       <c r="G96" s="3">
-        <v>-266900</v>
+        <v>-266000</v>
       </c>
       <c r="H96" s="3">
-        <v>-265300</v>
+        <v>-266800</v>
       </c>
       <c r="I96" s="3">
+        <v>-265200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-267600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-267700</v>
       </c>
-      <c r="J96" s="3">
-        <v>-267700</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-266600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-270300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-262500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-245600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-240500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-223100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-231900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-222800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-221000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-214300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-217300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-213600</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-212800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1092000</v>
+        <v>943300</v>
       </c>
       <c r="E100" s="3">
-        <v>380000</v>
+        <v>-1091600</v>
       </c>
       <c r="F100" s="3">
-        <v>-435700</v>
+        <v>379800</v>
       </c>
       <c r="G100" s="3">
-        <v>365800</v>
+        <v>-435500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2275100</v>
+        <v>365700</v>
       </c>
       <c r="I100" s="3">
-        <v>446700</v>
+        <v>-2274200</v>
       </c>
       <c r="J100" s="3">
+        <v>446500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-352500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-704000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-135100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-551900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-462700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-475700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-426600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-299600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-719700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-337100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-277600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-901100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-574600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E101" s="3">
         <v>76100</v>
       </c>
-      <c r="E101" s="3">
-        <v>-44000</v>
-      </c>
       <c r="F101" s="3">
-        <v>-49500</v>
+        <v>-43900</v>
       </c>
       <c r="G101" s="3">
-        <v>-186100</v>
+        <v>-49400</v>
       </c>
       <c r="H101" s="3">
+        <v>-186000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-38500</v>
       </c>
-      <c r="I101" s="3">
-        <v>-128000</v>
-      </c>
       <c r="J101" s="3">
+        <v>-127900</v>
+      </c>
+      <c r="K101" s="3">
         <v>280300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-52200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>29000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-64200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-59300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>153700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>28600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>57200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>26800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-77400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-59500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-23800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>50700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-460000</v>
+        <v>-426900</v>
       </c>
       <c r="E102" s="3">
-        <v>485900</v>
+        <v>-459900</v>
       </c>
       <c r="F102" s="3">
-        <v>-1918700</v>
+        <v>485800</v>
       </c>
       <c r="G102" s="3">
-        <v>985200</v>
+        <v>-1917900</v>
       </c>
       <c r="H102" s="3">
-        <v>-277100</v>
+        <v>984800</v>
       </c>
       <c r="I102" s="3">
-        <v>2673900</v>
+        <v>-277000</v>
       </c>
       <c r="J102" s="3">
+        <v>2672800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-270800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>408500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-132600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>847700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1010000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>296500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-355300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>390700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>5200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>535100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>456300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,163 +665,169 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8216200</v>
+        <v>6663600</v>
       </c>
       <c r="E8" s="3">
-        <v>7406400</v>
+        <v>8026700</v>
       </c>
       <c r="F8" s="3">
-        <v>7145100</v>
+        <v>7235500</v>
       </c>
       <c r="G8" s="3">
-        <v>6638900</v>
+        <v>6980300</v>
       </c>
       <c r="H8" s="3">
-        <v>7925900</v>
+        <v>6485800</v>
       </c>
       <c r="I8" s="3">
-        <v>7482500</v>
+        <v>7743100</v>
       </c>
       <c r="J8" s="3">
+        <v>7309900</v>
+      </c>
+      <c r="K8" s="3">
         <v>6719700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6499400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7722600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6547800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5963500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5572000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6225700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4358700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5138500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4511500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6435900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4134100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6044500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5384500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1817600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -891,8 +897,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -962,8 +971,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -989,8 +1001,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1073,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1147,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1184,8 +1203,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
@@ -1202,8 +1221,11 @@
       <c r="Y14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1273,8 +1295,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9128100</v>
+        <v>-632500</v>
       </c>
       <c r="E17" s="3">
-        <v>5633600</v>
+        <v>8917600</v>
       </c>
       <c r="F17" s="3">
-        <v>8906000</v>
+        <v>5503700</v>
       </c>
       <c r="G17" s="3">
-        <v>98900</v>
+        <v>8700600</v>
       </c>
       <c r="H17" s="3">
-        <v>8349600</v>
+        <v>96600</v>
       </c>
       <c r="I17" s="3">
-        <v>7028900</v>
+        <v>8157000</v>
       </c>
       <c r="J17" s="3">
+        <v>6866800</v>
+      </c>
+      <c r="K17" s="3">
         <v>11286900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4486600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5861600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7283200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7381400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8084600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5576500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3534600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4363200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3910000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6241700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3305000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5519100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4607800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>965700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-911900</v>
+        <v>7296100</v>
       </c>
       <c r="E18" s="3">
-        <v>1772700</v>
+        <v>-890800</v>
       </c>
       <c r="F18" s="3">
-        <v>-1761000</v>
+        <v>1731800</v>
       </c>
       <c r="G18" s="3">
-        <v>6540000</v>
+        <v>-1720300</v>
       </c>
       <c r="H18" s="3">
-        <v>-423800</v>
+        <v>6389200</v>
       </c>
       <c r="I18" s="3">
-        <v>453600</v>
+        <v>-414000</v>
       </c>
       <c r="J18" s="3">
+        <v>443100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4567200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2012900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1861100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-735400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1417900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>649200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>824100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>775400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>601500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>194200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>829000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>525400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>776700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>852000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1466,50 +1498,51 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1981500</v>
+        <v>-6372300</v>
       </c>
       <c r="E20" s="3">
-        <v>-728200</v>
+        <v>1935800</v>
       </c>
       <c r="F20" s="3">
-        <v>2796800</v>
+        <v>-711400</v>
       </c>
       <c r="G20" s="3">
-        <v>-5450800</v>
+        <v>2732300</v>
       </c>
       <c r="H20" s="3">
-        <v>1215600</v>
+        <v>-5325100</v>
       </c>
       <c r="I20" s="3">
-        <v>390000</v>
+        <v>1187500</v>
       </c>
       <c r="J20" s="3">
+        <v>381000</v>
+      </c>
+      <c r="K20" s="3">
         <v>5197300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1420200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1075900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1424300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2082500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3197800</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1537,8 +1570,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1608,221 +1644,233 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>64300</v>
+        <v>75100</v>
       </c>
       <c r="E22" s="3">
-        <v>63600</v>
+        <v>62900</v>
       </c>
       <c r="F22" s="3">
+        <v>62100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>64400</v>
+      </c>
+      <c r="H22" s="3">
+        <v>61300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>68200</v>
+      </c>
+      <c r="J22" s="3">
         <v>65900</v>
       </c>
-      <c r="G22" s="3">
-        <v>62800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>69800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>67500</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>70600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>74800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>53900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>66600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>67700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>53000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>58700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>56500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>60300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>40900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>64700</v>
-      </c>
-      <c r="W22" s="3">
-        <v>61500</v>
       </c>
       <c r="X22" s="3">
         <v>61500</v>
       </c>
       <c r="Y22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="Z22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1005300</v>
+        <v>848700</v>
       </c>
       <c r="E23" s="3">
-        <v>980900</v>
+        <v>982100</v>
       </c>
       <c r="F23" s="3">
-        <v>969900</v>
+        <v>958300</v>
       </c>
       <c r="G23" s="3">
-        <v>1026400</v>
+        <v>947600</v>
       </c>
       <c r="H23" s="3">
-        <v>722000</v>
+        <v>1002800</v>
       </c>
       <c r="I23" s="3">
-        <v>776100</v>
+        <v>705300</v>
       </c>
       <c r="J23" s="3">
+        <v>758200</v>
+      </c>
+      <c r="K23" s="3">
         <v>559500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>522100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>710300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>635100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>597900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>617400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>589100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>771000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>716700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>545000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>134000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>788100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>460700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>715200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>790500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>34500</v>
+        <v>205500</v>
       </c>
       <c r="E24" s="3">
-        <v>131800</v>
+        <v>33700</v>
       </c>
       <c r="F24" s="3">
-        <v>141300</v>
+        <v>128800</v>
       </c>
       <c r="G24" s="3">
-        <v>255000</v>
+        <v>138000</v>
       </c>
       <c r="H24" s="3">
-        <v>40800</v>
+        <v>249200</v>
       </c>
       <c r="I24" s="3">
-        <v>80000</v>
+        <v>39900</v>
       </c>
       <c r="J24" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K24" s="3">
         <v>47900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>219000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>74800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>71400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>67700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>85200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>133700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>137000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>89600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-43900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>155500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-17100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>139800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>154400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>970700</v>
+        <v>643200</v>
       </c>
       <c r="E26" s="3">
-        <v>849100</v>
+        <v>948300</v>
       </c>
       <c r="F26" s="3">
-        <v>828700</v>
+        <v>829500</v>
       </c>
       <c r="G26" s="3">
-        <v>771400</v>
+        <v>809600</v>
       </c>
       <c r="H26" s="3">
-        <v>681200</v>
+        <v>753600</v>
       </c>
       <c r="I26" s="3">
-        <v>696100</v>
+        <v>665400</v>
       </c>
       <c r="J26" s="3">
+        <v>680000</v>
+      </c>
+      <c r="K26" s="3">
         <v>511700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>303000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>635400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>626800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>526600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>549700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>503800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>637300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>579600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>455400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>177900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>632600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>477800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>575400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>636100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>858500</v>
+        <v>617100</v>
       </c>
       <c r="E27" s="3">
-        <v>788700</v>
+        <v>838700</v>
       </c>
       <c r="F27" s="3">
-        <v>717300</v>
+        <v>770500</v>
       </c>
       <c r="G27" s="3">
-        <v>713300</v>
+        <v>700700</v>
       </c>
       <c r="H27" s="3">
-        <v>584600</v>
+        <v>696900</v>
       </c>
       <c r="I27" s="3">
-        <v>588600</v>
+        <v>571100</v>
       </c>
       <c r="J27" s="3">
+        <v>575000</v>
+      </c>
+      <c r="K27" s="3">
         <v>407300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>307000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>562100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>564600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>471800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>479600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>441400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>412000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>531500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>503600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>148800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>608000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>427200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>423300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>559300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2105,16 +2162,19 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-7700</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -2122,24 +2182,24 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>-800</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1600</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2158,12 +2218,12 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>5200</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2176,8 +2236,11 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,50 +2384,53 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1981500</v>
+        <v>6372300</v>
       </c>
       <c r="E32" s="3">
-        <v>728200</v>
+        <v>-1935800</v>
       </c>
       <c r="F32" s="3">
-        <v>-2796800</v>
+        <v>711400</v>
       </c>
       <c r="G32" s="3">
-        <v>5450800</v>
+        <v>-2732300</v>
       </c>
       <c r="H32" s="3">
-        <v>-1215600</v>
+        <v>5325100</v>
       </c>
       <c r="I32" s="3">
-        <v>-390000</v>
+        <v>-1187500</v>
       </c>
       <c r="J32" s="3">
+        <v>-381000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-5197300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1420200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1075900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1424300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2082500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2389,79 +2458,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>850700</v>
+        <v>617100</v>
       </c>
       <c r="E33" s="3">
-        <v>788700</v>
+        <v>831000</v>
       </c>
       <c r="F33" s="3">
-        <v>717300</v>
+        <v>770500</v>
       </c>
       <c r="G33" s="3">
-        <v>713300</v>
+        <v>700700</v>
       </c>
       <c r="H33" s="3">
-        <v>583800</v>
+        <v>696900</v>
       </c>
       <c r="I33" s="3">
-        <v>588600</v>
+        <v>570400</v>
       </c>
       <c r="J33" s="3">
+        <v>575000</v>
+      </c>
+      <c r="K33" s="3">
         <v>407300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>307000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>560600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>564600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>471800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>479600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>441400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>412000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>531500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>503600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>154100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>608000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>427200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>423300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>559300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>850700</v>
+        <v>617100</v>
       </c>
       <c r="E35" s="3">
-        <v>788700</v>
+        <v>831000</v>
       </c>
       <c r="F35" s="3">
-        <v>717300</v>
+        <v>770500</v>
       </c>
       <c r="G35" s="3">
-        <v>713300</v>
+        <v>700700</v>
       </c>
       <c r="H35" s="3">
-        <v>583800</v>
+        <v>696900</v>
       </c>
       <c r="I35" s="3">
-        <v>588600</v>
+        <v>570400</v>
       </c>
       <c r="J35" s="3">
+        <v>575000</v>
+      </c>
+      <c r="K35" s="3">
         <v>407300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>307000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>560600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>564600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>471800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>479600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>441400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>412000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>531500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>503600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>154100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>608000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>427200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>423300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>559300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,79 +2817,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6141400</v>
+        <v>5181000</v>
       </c>
       <c r="E41" s="3">
-        <v>6536100</v>
+        <v>5999700</v>
       </c>
       <c r="F41" s="3">
-        <v>6923800</v>
+        <v>6385300</v>
       </c>
       <c r="G41" s="3">
-        <v>6578500</v>
+        <v>6764100</v>
       </c>
       <c r="H41" s="3">
-        <v>8360600</v>
+        <v>6426700</v>
       </c>
       <c r="I41" s="3">
-        <v>7382800</v>
+        <v>8167800</v>
       </c>
       <c r="J41" s="3">
+        <v>7212500</v>
+      </c>
+      <c r="K41" s="3">
         <v>7648900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5057300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5235500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5160800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5019000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4177000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5554400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4411000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4235200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4173500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4536700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4168300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4160100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3698300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6639000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2874,8 +2963,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2936,17 +3028,20 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X43" s="3">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y43" s="3">
         <v>2152600</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3016,8 +3111,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3087,8 +3185,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3158,221 +3259,233 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>130270000</v>
+        <v>120498200</v>
       </c>
       <c r="E47" s="3">
-        <v>124389900</v>
+        <v>127265300</v>
       </c>
       <c r="F47" s="3">
-        <v>122914600</v>
+        <v>121520900</v>
       </c>
       <c r="G47" s="3">
-        <v>119085900</v>
+        <v>120079600</v>
       </c>
       <c r="H47" s="3">
-        <v>123660900</v>
+        <v>116339200</v>
       </c>
       <c r="I47" s="3">
-        <v>123375300</v>
+        <v>120808700</v>
       </c>
       <c r="J47" s="3">
+        <v>120529600</v>
+      </c>
+      <c r="K47" s="3">
         <v>122762400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>119078000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>113870800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>121190500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>111944300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>108093500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>103629300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>95237800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>100356700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>99454100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>97862100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>94758000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>96311200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>98931100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>96419000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7148200</v>
+        <v>7230200</v>
       </c>
       <c r="E48" s="3">
-        <v>6748000</v>
+        <v>6983300</v>
       </c>
       <c r="F48" s="3">
-        <v>6406600</v>
+        <v>6592300</v>
       </c>
       <c r="G48" s="3">
-        <v>5991500</v>
+        <v>6258800</v>
       </c>
       <c r="H48" s="3">
-        <v>5898100</v>
+        <v>5853300</v>
       </c>
       <c r="I48" s="3">
-        <v>5811800</v>
+        <v>5762100</v>
       </c>
       <c r="J48" s="3">
+        <v>5677700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5810200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5777200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5696300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6081100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5732700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5388000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5447100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5283000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5523200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5452500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5259300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5234800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5196100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5066500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5064200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7758700</v>
+        <v>7505400</v>
       </c>
       <c r="E49" s="3">
-        <v>7765800</v>
+        <v>7579800</v>
       </c>
       <c r="F49" s="3">
-        <v>7586100</v>
+        <v>7586700</v>
       </c>
       <c r="G49" s="3">
-        <v>7606500</v>
+        <v>7411100</v>
       </c>
       <c r="H49" s="3">
-        <v>6708700</v>
+        <v>7431000</v>
       </c>
       <c r="I49" s="3">
-        <v>6802900</v>
+        <v>6554000</v>
       </c>
       <c r="J49" s="3">
+        <v>6646000</v>
+      </c>
+      <c r="K49" s="3">
         <v>6347800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6459400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6171100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6536200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5600300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5475000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5473000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5073000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5305700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5245400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5097800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5018200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5123100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5357600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5393000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1450200</v>
+        <v>1475000</v>
       </c>
       <c r="E52" s="3">
-        <v>1301900</v>
+        <v>1416800</v>
       </c>
       <c r="F52" s="3">
-        <v>1230500</v>
+        <v>1271900</v>
       </c>
       <c r="G52" s="3">
-        <v>1228900</v>
+        <v>1202100</v>
       </c>
       <c r="H52" s="3">
-        <v>1282300</v>
+        <v>1200600</v>
       </c>
       <c r="I52" s="3">
-        <v>1165300</v>
+        <v>1252700</v>
       </c>
       <c r="J52" s="3">
+        <v>1138500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1203800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1260800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1134400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1186400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1034900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>983800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>920200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>815300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1002700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1011700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>963800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1096200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1117100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1064800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1112400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>271025700</v>
+        <v>253130000</v>
       </c>
       <c r="E54" s="3">
-        <v>259947500</v>
+        <v>264774500</v>
       </c>
       <c r="F54" s="3">
-        <v>258130800</v>
+        <v>253951800</v>
       </c>
       <c r="G54" s="3">
-        <v>249086700</v>
+        <v>252177000</v>
       </c>
       <c r="H54" s="3">
-        <v>253479700</v>
+        <v>243341500</v>
       </c>
       <c r="I54" s="3">
-        <v>245535700</v>
+        <v>247633200</v>
       </c>
       <c r="J54" s="3">
+        <v>239872500</v>
+      </c>
+      <c r="K54" s="3">
         <v>242039700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>228598700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>231719500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>242921600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>226810900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>217365600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>206884800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>196741900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>205813500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>203042500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>200275800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>194234300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>196338200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>200584100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>198386200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,8 +3909,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3851,25 +3981,28 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>104400</v>
+        <v>4600</v>
       </c>
       <c r="E58" s="3">
-        <v>72200</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
-        <v>140500</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
+        <v>102000</v>
+      </c>
+      <c r="F58" s="3">
+        <v>70500</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
+        <v>137200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
@@ -3877,8 +4010,8 @@
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3913,88 +4046,94 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-      <c r="W58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X58" s="3">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y58" s="3">
         <v>145200</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>228496700</v>
+        <v>211694600</v>
       </c>
       <c r="E59" s="3">
-        <v>220182300</v>
+        <v>223226400</v>
       </c>
       <c r="F59" s="3">
-        <v>218814500</v>
+        <v>215103900</v>
       </c>
       <c r="G59" s="3">
-        <v>211150000</v>
+        <v>213767600</v>
       </c>
       <c r="H59" s="3">
-        <v>215711700</v>
+        <v>206279800</v>
       </c>
       <c r="I59" s="3">
-        <v>207229400</v>
+        <v>210736300</v>
       </c>
       <c r="J59" s="3">
+        <v>202449700</v>
+      </c>
+      <c r="K59" s="3">
         <v>202967500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>189350900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>195910000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>204607100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>192352600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>183708300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>173641900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>166350200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>174071400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>171658700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>169128400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>163182200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>164999500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>168698700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>170079200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4064,150 +4203,159 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5198900</v>
+        <v>5079800</v>
       </c>
       <c r="E61" s="3">
-        <v>3636500</v>
+        <v>5079000</v>
       </c>
       <c r="F61" s="3">
-        <v>3871100</v>
+        <v>3552600</v>
       </c>
       <c r="G61" s="3">
-        <v>3870300</v>
+        <v>3781800</v>
       </c>
       <c r="H61" s="3">
-        <v>4144200</v>
+        <v>3781100</v>
       </c>
       <c r="I61" s="3">
-        <v>3558800</v>
+        <v>4048600</v>
       </c>
       <c r="J61" s="3">
+        <v>3476700</v>
+      </c>
+      <c r="K61" s="3">
         <v>3950400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3170800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3148300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3762200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3244200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3340200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3301600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3152400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3264900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3264100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="U61" s="3">
-        <v>3227600</v>
       </c>
       <c r="V61" s="3">
         <v>3227600</v>
       </c>
       <c r="W61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="X61" s="3">
         <v>3331000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7968800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>252700</v>
+        <v>246100</v>
       </c>
       <c r="E62" s="3">
-        <v>296600</v>
+        <v>246900</v>
       </c>
       <c r="F62" s="3">
-        <v>324900</v>
+        <v>289800</v>
       </c>
       <c r="G62" s="3">
-        <v>302900</v>
+        <v>317400</v>
       </c>
       <c r="H62" s="3">
-        <v>300600</v>
+        <v>295900</v>
       </c>
       <c r="I62" s="3">
-        <v>319400</v>
+        <v>293600</v>
       </c>
       <c r="J62" s="3">
+        <v>312000</v>
+      </c>
+      <c r="K62" s="3">
         <v>306800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>245700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>316500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>329100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>311700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>252500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>245100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>260900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>353800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>322200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>299900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>555900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>571600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>569300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>527800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>249041900</v>
+        <v>231969200</v>
       </c>
       <c r="E66" s="3">
-        <v>238336500</v>
+        <v>243297800</v>
       </c>
       <c r="F66" s="3">
-        <v>236749000</v>
+        <v>232839300</v>
       </c>
       <c r="G66" s="3">
-        <v>228925900</v>
+        <v>231288400</v>
       </c>
       <c r="H66" s="3">
-        <v>233204300</v>
+        <v>223645800</v>
       </c>
       <c r="I66" s="3">
-        <v>225240800</v>
+        <v>227825500</v>
       </c>
       <c r="J66" s="3">
+        <v>220045600</v>
+      </c>
+      <c r="K66" s="3">
         <v>222118300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>208782500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>212626100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>222876800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>208029000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>199057700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>188184800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>180148600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>188336800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>185875900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>183664300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>177640000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>179730400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>183510200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>181518900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,61 +4823,64 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1757000</v>
+        <v>1716500</v>
       </c>
       <c r="E70" s="3">
-        <v>1986200</v>
+        <v>1716500</v>
       </c>
       <c r="F70" s="3">
-        <v>2545700</v>
+        <v>1940400</v>
       </c>
       <c r="G70" s="3">
+        <v>2487000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1730300</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1730300</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1730300</v>
+      </c>
+      <c r="K70" s="3">
         <v>1771200</v>
       </c>
-      <c r="H70" s="3">
-        <v>1771200</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1771200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1771200</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1771900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1759700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1871200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1789800</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1737500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1717800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="R70" s="3">
-        <v>1699000</v>
       </c>
       <c r="S70" s="3">
         <v>1699000</v>
       </c>
       <c r="T70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="U70" s="3">
         <v>1679700</v>
@@ -4722,7 +4889,7 @@
         <v>1679700</v>
       </c>
       <c r="W70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="X70" s="3">
         <v>1733900</v>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11545900</v>
+        <v>11640700</v>
       </c>
       <c r="E72" s="3">
-        <v>11009900</v>
+        <v>11279600</v>
       </c>
       <c r="F72" s="3">
-        <v>10466100</v>
+        <v>10756000</v>
       </c>
       <c r="G72" s="3">
-        <v>10017200</v>
+        <v>10224700</v>
       </c>
       <c r="H72" s="3">
-        <v>9643700</v>
+        <v>9786200</v>
       </c>
       <c r="I72" s="3">
-        <v>9312500</v>
+        <v>9421200</v>
       </c>
       <c r="J72" s="3">
+        <v>9097700</v>
+      </c>
+      <c r="K72" s="3">
         <v>8970400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8820800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8824300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9049100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9166500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8793700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8575200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8096800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8286700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>7994600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7669100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7765800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7402700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7415700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7190600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20226700</v>
+        <v>19444300</v>
       </c>
       <c r="E76" s="3">
-        <v>19624800</v>
+        <v>19760100</v>
       </c>
       <c r="F76" s="3">
-        <v>18836100</v>
+        <v>19172100</v>
       </c>
       <c r="G76" s="3">
-        <v>18389600</v>
+        <v>18401700</v>
       </c>
       <c r="H76" s="3">
-        <v>18504200</v>
+        <v>17965400</v>
       </c>
       <c r="I76" s="3">
-        <v>18523800</v>
+        <v>18077400</v>
       </c>
       <c r="J76" s="3">
+        <v>18096500</v>
+      </c>
+      <c r="K76" s="3">
         <v>18150300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18044400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17333600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18173600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>16992000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16570400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16982200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14953100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15777700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15467600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14931800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14914700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14928100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15340000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15133400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>850700</v>
+        <v>617100</v>
       </c>
       <c r="E81" s="3">
-        <v>788700</v>
+        <v>831000</v>
       </c>
       <c r="F81" s="3">
-        <v>717300</v>
+        <v>770500</v>
       </c>
       <c r="G81" s="3">
-        <v>713300</v>
+        <v>700700</v>
       </c>
       <c r="H81" s="3">
-        <v>583800</v>
+        <v>696900</v>
       </c>
       <c r="I81" s="3">
-        <v>588600</v>
+        <v>570400</v>
       </c>
       <c r="J81" s="3">
+        <v>575000</v>
+      </c>
+      <c r="K81" s="3">
         <v>407300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>307000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>560600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>564600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>471800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>479600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>441400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>412000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>531500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>503600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>154100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>608000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>427200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>423300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>559300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,8 +5598,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5472,8 +5670,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-1569500</v>
+        <v>-361100</v>
       </c>
       <c r="E89" s="3">
-        <v>694500</v>
+        <v>-1533300</v>
       </c>
       <c r="F89" s="3">
-        <v>212700</v>
+        <v>678500</v>
       </c>
       <c r="G89" s="3">
-        <v>-794900</v>
+        <v>207800</v>
       </c>
       <c r="H89" s="3">
-        <v>910300</v>
+        <v>-776600</v>
       </c>
       <c r="I89" s="3">
-        <v>2318100</v>
+        <v>889300</v>
       </c>
       <c r="J89" s="3">
+        <v>2264700</v>
+      </c>
+      <c r="K89" s="3">
         <v>2398200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>65200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1309800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>160000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1507500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-944600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1433100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>812400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>303400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>323700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>483700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>468900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>983800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-474800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1057900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17300</v>
+        <v>-14600</v>
       </c>
       <c r="E91" s="3">
-        <v>-16500</v>
+        <v>-16900</v>
       </c>
       <c r="F91" s="3">
-        <v>-25100</v>
+        <v>-16100</v>
       </c>
       <c r="G91" s="3">
-        <v>-4700</v>
+        <v>-24500</v>
       </c>
       <c r="H91" s="3">
-        <v>-31400</v>
+        <v>-4600</v>
       </c>
       <c r="I91" s="3">
-        <v>-34500</v>
+        <v>-30700</v>
       </c>
       <c r="J91" s="3">
-        <v>-29000</v>
+        <v>-33700</v>
       </c>
       <c r="K91" s="3">
         <v>-29000</v>
       </c>
       <c r="L91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="M91" s="3">
         <v>-35100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-16700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-23900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-38800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-21100</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-35700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-38000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-33000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-39900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>209500</v>
+        <v>-39900</v>
       </c>
       <c r="E94" s="3">
-        <v>-138900</v>
+        <v>204700</v>
       </c>
       <c r="F94" s="3">
-        <v>-62800</v>
+        <v>-135700</v>
       </c>
       <c r="G94" s="3">
-        <v>-638000</v>
+        <v>-61300</v>
       </c>
       <c r="H94" s="3">
-        <v>-105200</v>
+        <v>-623300</v>
       </c>
       <c r="I94" s="3">
-        <v>-440200</v>
+        <v>-102700</v>
       </c>
       <c r="J94" s="3">
+        <v>-430100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-73800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-76100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-98200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-175800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-101200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-41400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-51200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-104900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-49100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-111600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>13800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-77600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,79 +6468,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-323300</v>
+        <v>-301300</v>
       </c>
       <c r="E96" s="3">
-        <v>-265200</v>
+        <v>-315900</v>
       </c>
       <c r="F96" s="3">
-        <v>-266000</v>
+        <v>-259100</v>
       </c>
       <c r="G96" s="3">
-        <v>-266000</v>
+        <v>-259900</v>
       </c>
       <c r="H96" s="3">
-        <v>-266800</v>
+        <v>-259900</v>
       </c>
       <c r="I96" s="3">
-        <v>-265200</v>
+        <v>-260700</v>
       </c>
       <c r="J96" s="3">
+        <v>-259100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-267600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-267700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-266600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-270300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-262500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-245600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-240500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-223100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-231900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-222800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-221000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-214300</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-217300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-213600</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-212800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +6762,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>943300</v>
+        <v>-271400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1091600</v>
+        <v>921500</v>
       </c>
       <c r="F100" s="3">
-        <v>379800</v>
+        <v>-1066400</v>
       </c>
       <c r="G100" s="3">
-        <v>-435500</v>
+        <v>371100</v>
       </c>
       <c r="H100" s="3">
-        <v>365700</v>
+        <v>-425500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2274200</v>
+        <v>357300</v>
       </c>
       <c r="J100" s="3">
+        <v>-2221700</v>
+      </c>
+      <c r="K100" s="3">
         <v>446500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-352500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-704000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-135100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-551900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-462700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-475700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-426600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-299600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-719700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-337100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-277600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-901100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-574600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10200</v>
+        <v>-49100</v>
       </c>
       <c r="E101" s="3">
-        <v>76100</v>
+        <v>-10000</v>
       </c>
       <c r="F101" s="3">
-        <v>-43900</v>
+        <v>74400</v>
       </c>
       <c r="G101" s="3">
-        <v>-49400</v>
+        <v>-42900</v>
       </c>
       <c r="H101" s="3">
-        <v>-186000</v>
+        <v>-48300</v>
       </c>
       <c r="I101" s="3">
-        <v>-38500</v>
+        <v>-181700</v>
       </c>
       <c r="J101" s="3">
+        <v>-37600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-127900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>280300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-52200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>29000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-64200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-59300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>153700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-48000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>28600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>57200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>26800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-77400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-59500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-23800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>50700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-426900</v>
+        <v>-721400</v>
       </c>
       <c r="E102" s="3">
-        <v>-459900</v>
+        <v>-417100</v>
       </c>
       <c r="F102" s="3">
-        <v>485800</v>
+        <v>-449300</v>
       </c>
       <c r="G102" s="3">
-        <v>-1917900</v>
+        <v>474600</v>
       </c>
       <c r="H102" s="3">
-        <v>984800</v>
+        <v>-1873700</v>
       </c>
       <c r="I102" s="3">
-        <v>-277000</v>
+        <v>962100</v>
       </c>
       <c r="J102" s="3">
+        <v>-270600</v>
+      </c>
+      <c r="K102" s="3">
         <v>2672800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-270800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>408500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-132600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>847700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1010000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>296500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-355300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>390700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>535100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>456300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,175 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6663600</v>
+        <v>7620700</v>
       </c>
       <c r="E8" s="3">
-        <v>8026700</v>
+        <v>6725400</v>
       </c>
       <c r="F8" s="3">
-        <v>7235500</v>
+        <v>8101200</v>
       </c>
       <c r="G8" s="3">
-        <v>6980300</v>
+        <v>7302700</v>
       </c>
       <c r="H8" s="3">
-        <v>6485800</v>
+        <v>7045000</v>
       </c>
       <c r="I8" s="3">
-        <v>7743100</v>
+        <v>6545900</v>
       </c>
       <c r="J8" s="3">
+        <v>7814900</v>
+      </c>
+      <c r="K8" s="3">
         <v>7309900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6719700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6499400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7722600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6547800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5963500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5572000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6225700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4358700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5138500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4511500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6435900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4134100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6044500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5384500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1817600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -900,8 +906,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +983,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1166,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1206,8 +1225,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>5</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>5</v>
@@ -1224,8 +1243,11 @@
       <c r="Z14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1320,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-632500</v>
+        <v>680900</v>
       </c>
       <c r="E17" s="3">
-        <v>8917600</v>
+        <v>-679400</v>
       </c>
       <c r="F17" s="3">
-        <v>5503700</v>
+        <v>9004900</v>
       </c>
       <c r="G17" s="3">
-        <v>8700600</v>
+        <v>5543900</v>
       </c>
       <c r="H17" s="3">
-        <v>96600</v>
+        <v>8792100</v>
       </c>
       <c r="I17" s="3">
-        <v>8157000</v>
+        <v>75800</v>
       </c>
       <c r="J17" s="3">
+        <v>8232700</v>
+      </c>
+      <c r="K17" s="3">
         <v>6866800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11286900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4486600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5861600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7283200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7381400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8084600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5576500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3534600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4363200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3910000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6241700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3305000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5519100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4607800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>965700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>7296100</v>
+        <v>6939800</v>
       </c>
       <c r="E18" s="3">
-        <v>-890800</v>
+        <v>7404800</v>
       </c>
       <c r="F18" s="3">
-        <v>1731800</v>
+        <v>-903700</v>
       </c>
       <c r="G18" s="3">
-        <v>-1720300</v>
+        <v>1758700</v>
       </c>
       <c r="H18" s="3">
-        <v>6389200</v>
+        <v>-1747100</v>
       </c>
       <c r="I18" s="3">
-        <v>-414000</v>
+        <v>6470100</v>
       </c>
       <c r="J18" s="3">
+        <v>-417800</v>
+      </c>
+      <c r="K18" s="3">
         <v>443100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4567200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2012900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1861100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-735400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1417900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>649200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>824100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>775400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>601500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>194200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>829000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>525400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>776700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>852000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,53 +1531,54 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6372300</v>
+        <v>-6064700</v>
       </c>
       <c r="E20" s="3">
-        <v>1935800</v>
+        <v>-6431400</v>
       </c>
       <c r="F20" s="3">
-        <v>-711400</v>
+        <v>1953700</v>
       </c>
       <c r="G20" s="3">
-        <v>2732300</v>
+        <v>-718000</v>
       </c>
       <c r="H20" s="3">
-        <v>-5325100</v>
+        <v>2757600</v>
       </c>
       <c r="I20" s="3">
-        <v>1187500</v>
+        <v>-5374500</v>
       </c>
       <c r="J20" s="3">
+        <v>1198500</v>
+      </c>
+      <c r="K20" s="3">
         <v>381000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5197300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1420200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1075900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1424300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2082500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3197800</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1573,8 +1606,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1647,230 +1683,242 @@
       <c r="Z21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>75100</v>
+        <v>78100</v>
       </c>
       <c r="E22" s="3">
-        <v>62900</v>
+        <v>75800</v>
       </c>
       <c r="F22" s="3">
-        <v>62100</v>
+        <v>63400</v>
       </c>
       <c r="G22" s="3">
-        <v>64400</v>
+        <v>62700</v>
       </c>
       <c r="H22" s="3">
-        <v>61300</v>
+        <v>65000</v>
       </c>
       <c r="I22" s="3">
-        <v>68200</v>
+        <v>61900</v>
       </c>
       <c r="J22" s="3">
+        <v>68900</v>
+      </c>
+      <c r="K22" s="3">
         <v>65900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>70600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>74800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>53900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>66600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>67700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>53000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>58700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>56500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>60300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>40900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>64700</v>
-      </c>
-      <c r="X22" s="3">
-        <v>61500</v>
       </c>
       <c r="Y22" s="3">
         <v>61500</v>
       </c>
       <c r="Z22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="AA22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>848700</v>
+        <v>797000</v>
       </c>
       <c r="E23" s="3">
-        <v>982100</v>
+        <v>897600</v>
       </c>
       <c r="F23" s="3">
-        <v>958300</v>
+        <v>986500</v>
       </c>
       <c r="G23" s="3">
-        <v>947600</v>
+        <v>978000</v>
       </c>
       <c r="H23" s="3">
-        <v>1002800</v>
+        <v>945500</v>
       </c>
       <c r="I23" s="3">
-        <v>705300</v>
+        <v>1033700</v>
       </c>
       <c r="J23" s="3">
+        <v>711900</v>
+      </c>
+      <c r="K23" s="3">
         <v>758200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>559500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>522100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>710300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>635100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>597900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>617400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>589100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>771000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>716700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>545000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>134000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>788100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>460700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>715200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>790500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>205500</v>
+        <v>169500</v>
       </c>
       <c r="E24" s="3">
-        <v>33700</v>
+        <v>207400</v>
       </c>
       <c r="F24" s="3">
-        <v>128800</v>
+        <v>34000</v>
       </c>
       <c r="G24" s="3">
-        <v>138000</v>
+        <v>130000</v>
       </c>
       <c r="H24" s="3">
-        <v>249200</v>
+        <v>139300</v>
       </c>
       <c r="I24" s="3">
-        <v>39900</v>
+        <v>251500</v>
       </c>
       <c r="J24" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K24" s="3">
         <v>78200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>219000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>74800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>71400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>85200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>133700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>137000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>89600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-43900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>155500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-17100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>139800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>154400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>643200</v>
+        <v>627500</v>
       </c>
       <c r="E26" s="3">
-        <v>948300</v>
+        <v>690200</v>
       </c>
       <c r="F26" s="3">
-        <v>829500</v>
+        <v>952500</v>
       </c>
       <c r="G26" s="3">
-        <v>809600</v>
+        <v>848000</v>
       </c>
       <c r="H26" s="3">
-        <v>753600</v>
+        <v>806200</v>
       </c>
       <c r="I26" s="3">
-        <v>665400</v>
+        <v>782300</v>
       </c>
       <c r="J26" s="3">
+        <v>671600</v>
+      </c>
+      <c r="K26" s="3">
         <v>680000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>511700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>303000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>635400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>626800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>526600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>549700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>503800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>637300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>579600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>455400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>177900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>632600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>477800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>575400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>636100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>617100</v>
+        <v>607400</v>
       </c>
       <c r="E27" s="3">
-        <v>838700</v>
+        <v>663900</v>
       </c>
       <c r="F27" s="3">
-        <v>770500</v>
+        <v>841800</v>
       </c>
       <c r="G27" s="3">
-        <v>700700</v>
+        <v>788500</v>
       </c>
       <c r="H27" s="3">
-        <v>696900</v>
+        <v>696400</v>
       </c>
       <c r="I27" s="3">
-        <v>571100</v>
+        <v>725000</v>
       </c>
       <c r="J27" s="3">
+        <v>576400</v>
+      </c>
+      <c r="K27" s="3">
         <v>575000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>407300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>307000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>562100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>564600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>471800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>479600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>441400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>412000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>531500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>503600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>148800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>608000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>427200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>423300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>559300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,44 +2222,47 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
         <v>-7700</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>-800</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1600</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2221,12 +2281,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>5200</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2239,8 +2299,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,53 +2453,56 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6372300</v>
+        <v>6064700</v>
       </c>
       <c r="E32" s="3">
-        <v>-1935800</v>
+        <v>6431400</v>
       </c>
       <c r="F32" s="3">
-        <v>711400</v>
+        <v>-1953700</v>
       </c>
       <c r="G32" s="3">
-        <v>-2732300</v>
+        <v>718000</v>
       </c>
       <c r="H32" s="3">
-        <v>5325100</v>
+        <v>-2757600</v>
       </c>
       <c r="I32" s="3">
-        <v>-1187500</v>
+        <v>5374500</v>
       </c>
       <c r="J32" s="3">
+        <v>-1198500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-381000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5197300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1420200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1075900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1424300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2082500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2461,82 +2530,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>617100</v>
+        <v>607400</v>
       </c>
       <c r="E33" s="3">
-        <v>831000</v>
+        <v>663900</v>
       </c>
       <c r="F33" s="3">
-        <v>770500</v>
+        <v>834100</v>
       </c>
       <c r="G33" s="3">
-        <v>700700</v>
+        <v>788500</v>
       </c>
       <c r="H33" s="3">
-        <v>696900</v>
+        <v>696400</v>
       </c>
       <c r="I33" s="3">
-        <v>570400</v>
+        <v>725000</v>
       </c>
       <c r="J33" s="3">
+        <v>575700</v>
+      </c>
+      <c r="K33" s="3">
         <v>575000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>407300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>307000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>560600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>564600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>471800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>479600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>441400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>412000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>531500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>503600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>154100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>608000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>427200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>423300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>559300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>617100</v>
+        <v>607400</v>
       </c>
       <c r="E35" s="3">
-        <v>831000</v>
+        <v>663900</v>
       </c>
       <c r="F35" s="3">
-        <v>770500</v>
+        <v>834100</v>
       </c>
       <c r="G35" s="3">
-        <v>700700</v>
+        <v>788500</v>
       </c>
       <c r="H35" s="3">
-        <v>696900</v>
+        <v>696400</v>
       </c>
       <c r="I35" s="3">
-        <v>570400</v>
+        <v>725000</v>
       </c>
       <c r="J35" s="3">
+        <v>575700</v>
+      </c>
+      <c r="K35" s="3">
         <v>575000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>407300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>307000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>560600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>564600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>471800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>479600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>441400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>412000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>531500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>503600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>154100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>608000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>427200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>423300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>559300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,82 +2903,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5181000</v>
+        <v>5875900</v>
       </c>
       <c r="E41" s="3">
-        <v>5999700</v>
+        <v>5229000</v>
       </c>
       <c r="F41" s="3">
-        <v>6385300</v>
+        <v>6055400</v>
       </c>
       <c r="G41" s="3">
-        <v>6764100</v>
+        <v>6444600</v>
       </c>
       <c r="H41" s="3">
-        <v>6426700</v>
+        <v>6826800</v>
       </c>
       <c r="I41" s="3">
-        <v>8167800</v>
+        <v>6486300</v>
       </c>
       <c r="J41" s="3">
+        <v>8243500</v>
+      </c>
+      <c r="K41" s="3">
         <v>7212500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7648900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5057300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5235500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5160800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5019000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4177000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5554400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4411000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4235200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4173500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4536700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4168300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4160100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3698300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6639000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2966,8 +3055,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3031,17 +3123,20 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="3">
         <v>2152600</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3114,8 +3209,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3188,8 +3286,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3262,230 +3363,242 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>120498200</v>
+        <v>115556500</v>
       </c>
       <c r="E47" s="3">
-        <v>127265300</v>
+        <v>121615700</v>
       </c>
       <c r="F47" s="3">
-        <v>121520900</v>
+        <v>128445600</v>
       </c>
       <c r="G47" s="3">
-        <v>120079600</v>
+        <v>122647900</v>
       </c>
       <c r="H47" s="3">
-        <v>116339200</v>
+        <v>121193200</v>
       </c>
       <c r="I47" s="3">
-        <v>120808700</v>
+        <v>117418100</v>
       </c>
       <c r="J47" s="3">
+        <v>121929100</v>
+      </c>
+      <c r="K47" s="3">
         <v>120529600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>122762400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>119078000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>113870800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>121190500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>111944300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>108093500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>103629300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>95237800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>100356700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>99454100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>97862100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>94758000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>96311200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>98931100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>96419000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7230200</v>
+        <v>7568000</v>
       </c>
       <c r="E48" s="3">
-        <v>6983300</v>
+        <v>7297200</v>
       </c>
       <c r="F48" s="3">
-        <v>6592300</v>
+        <v>7048100</v>
       </c>
       <c r="G48" s="3">
-        <v>6258800</v>
+        <v>6653500</v>
       </c>
       <c r="H48" s="3">
-        <v>5853300</v>
+        <v>6316900</v>
       </c>
       <c r="I48" s="3">
-        <v>5762100</v>
+        <v>5907600</v>
       </c>
       <c r="J48" s="3">
+        <v>5815500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5677700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5810200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5777200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5696300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6081100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5732700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5388000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5447100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5283000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5523200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5452500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5259300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5234800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5196100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5066500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5064200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7505400</v>
+        <v>10297800</v>
       </c>
       <c r="E49" s="3">
-        <v>7579800</v>
+        <v>7575000</v>
       </c>
       <c r="F49" s="3">
-        <v>7586700</v>
+        <v>7650100</v>
       </c>
       <c r="G49" s="3">
-        <v>7411100</v>
+        <v>7657000</v>
       </c>
       <c r="H49" s="3">
-        <v>7431000</v>
+        <v>7479800</v>
       </c>
       <c r="I49" s="3">
-        <v>6554000</v>
+        <v>7500000</v>
       </c>
       <c r="J49" s="3">
+        <v>6614800</v>
+      </c>
+      <c r="K49" s="3">
         <v>6646000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6347800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6459400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6171100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6536200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5600300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5475000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5473000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5073000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5305700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5245400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5097800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5018200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5123100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5357600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5393000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1475000</v>
+        <v>1604800</v>
       </c>
       <c r="E52" s="3">
-        <v>1416800</v>
+        <v>1488700</v>
       </c>
       <c r="F52" s="3">
-        <v>1271900</v>
+        <v>1429900</v>
       </c>
       <c r="G52" s="3">
-        <v>1202100</v>
+        <v>1283700</v>
       </c>
       <c r="H52" s="3">
-        <v>1200600</v>
+        <v>1213200</v>
       </c>
       <c r="I52" s="3">
-        <v>1252700</v>
+        <v>1211700</v>
       </c>
       <c r="J52" s="3">
+        <v>1264300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1138500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1203800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1260800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1134400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1186400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1034900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>983800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>920200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>815300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1002700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1011700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>963800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1096200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1117100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1064800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1112400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>253130000</v>
+        <v>244102700</v>
       </c>
       <c r="E54" s="3">
-        <v>264774500</v>
+        <v>255477500</v>
       </c>
       <c r="F54" s="3">
-        <v>253951800</v>
+        <v>267230000</v>
       </c>
       <c r="G54" s="3">
-        <v>252177000</v>
+        <v>256307000</v>
       </c>
       <c r="H54" s="3">
-        <v>243341500</v>
+        <v>254515800</v>
       </c>
       <c r="I54" s="3">
-        <v>247633200</v>
+        <v>245598300</v>
       </c>
       <c r="J54" s="3">
+        <v>249929800</v>
+      </c>
+      <c r="K54" s="3">
         <v>239872500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>242039700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>228598700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>231719500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>242921600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>226810900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>217365600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>206884800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>196741900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>205813500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>203042500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>200275800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>194234300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>196338200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>200584100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>198386200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,8 +4039,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3984,28 +4114,31 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>84300</v>
+      </c>
+      <c r="E58" s="3">
         <v>4600</v>
       </c>
-      <c r="E58" s="3">
-        <v>102000</v>
-      </c>
       <c r="F58" s="3">
-        <v>70500</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H58" s="3">
-        <v>137200</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
+        <v>102900</v>
+      </c>
+      <c r="G58" s="3">
+        <v>71200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
+        <v>138500</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
@@ -4013,8 +4146,8 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4049,91 +4182,97 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y58" s="3">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z58" s="3">
         <v>145200</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>211694600</v>
+        <v>199904500</v>
       </c>
       <c r="E59" s="3">
-        <v>223226400</v>
+        <v>213657900</v>
       </c>
       <c r="F59" s="3">
-        <v>215103900</v>
+        <v>225296700</v>
       </c>
       <c r="G59" s="3">
-        <v>213767600</v>
+        <v>217098800</v>
       </c>
       <c r="H59" s="3">
-        <v>206279800</v>
+        <v>215750100</v>
       </c>
       <c r="I59" s="3">
-        <v>210736300</v>
+        <v>208192900</v>
       </c>
       <c r="J59" s="3">
+        <v>212690700</v>
+      </c>
+      <c r="K59" s="3">
         <v>202449700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>202967500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>189350900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>195910000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>204607100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>192352600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>183708300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>173641900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>166350200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>174071400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>171658700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>169128400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>163182200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>164999500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>168698700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>170079200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4206,156 +4345,165 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5079800</v>
+        <v>5127600</v>
       </c>
       <c r="E61" s="3">
-        <v>5079000</v>
+        <v>5126900</v>
       </c>
       <c r="F61" s="3">
-        <v>3552600</v>
+        <v>5126100</v>
       </c>
       <c r="G61" s="3">
-        <v>3781800</v>
+        <v>3585600</v>
       </c>
       <c r="H61" s="3">
-        <v>3781100</v>
+        <v>3816900</v>
       </c>
       <c r="I61" s="3">
-        <v>4048600</v>
+        <v>3816100</v>
       </c>
       <c r="J61" s="3">
+        <v>4086200</v>
+      </c>
+      <c r="K61" s="3">
         <v>3476700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3950400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3170800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3148300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3762200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3244200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3340200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3301600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3152400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3264900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3264100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>3227600</v>
       </c>
       <c r="W61" s="3">
         <v>3227600</v>
       </c>
       <c r="X61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="Y61" s="3">
         <v>3331000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7968800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>246100</v>
+        <v>551700</v>
       </c>
       <c r="E62" s="3">
-        <v>246900</v>
+        <v>248400</v>
       </c>
       <c r="F62" s="3">
-        <v>289800</v>
+        <v>249100</v>
       </c>
       <c r="G62" s="3">
-        <v>317400</v>
+        <v>292500</v>
       </c>
       <c r="H62" s="3">
-        <v>295900</v>
+        <v>320300</v>
       </c>
       <c r="I62" s="3">
-        <v>293600</v>
+        <v>298700</v>
       </c>
       <c r="J62" s="3">
+        <v>296300</v>
+      </c>
+      <c r="K62" s="3">
         <v>312000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>306800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>245700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>316500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>329100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>311700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>252500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>245100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>260900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>353800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>322200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>299900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>555900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>571600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>569300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>527800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>231969200</v>
+        <v>222610200</v>
       </c>
       <c r="E66" s="3">
-        <v>243297800</v>
+        <v>234120500</v>
       </c>
       <c r="F66" s="3">
-        <v>232839300</v>
+        <v>245554200</v>
       </c>
       <c r="G66" s="3">
-        <v>231288400</v>
+        <v>234998700</v>
       </c>
       <c r="H66" s="3">
-        <v>223645800</v>
+        <v>233433400</v>
       </c>
       <c r="I66" s="3">
-        <v>227825500</v>
+        <v>225719900</v>
       </c>
       <c r="J66" s="3">
+        <v>229938400</v>
+      </c>
+      <c r="K66" s="3">
         <v>220045600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>222118300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>208782500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>212626100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>222876800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>208029000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>199057700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>188184800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>180148600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>188336800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>185875900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>183664300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>177640000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>179730400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>183510200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>181518900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,64 +4990,67 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1716500</v>
+        <v>1732400</v>
       </c>
       <c r="E70" s="3">
-        <v>1716500</v>
+        <v>1732400</v>
       </c>
       <c r="F70" s="3">
-        <v>1940400</v>
+        <v>1732400</v>
       </c>
       <c r="G70" s="3">
-        <v>2487000</v>
+        <v>1958400</v>
       </c>
       <c r="H70" s="3">
+        <v>2510000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1746400</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1746400</v>
+      </c>
+      <c r="K70" s="3">
         <v>1730300</v>
       </c>
-      <c r="I70" s="3">
-        <v>1730300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1730300</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1771200</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1771900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1759700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1871200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1789800</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1737500</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1717800</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="S70" s="3">
-        <v>1699000</v>
       </c>
       <c r="T70" s="3">
         <v>1699000</v>
       </c>
       <c r="U70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="V70" s="3">
         <v>1679700</v>
@@ -4892,7 +5059,7 @@
         <v>1679700</v>
       </c>
       <c r="X70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="Y70" s="3">
         <v>1733900</v>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11640700</v>
+        <v>12042600</v>
       </c>
       <c r="E72" s="3">
-        <v>11279600</v>
+        <v>11748600</v>
       </c>
       <c r="F72" s="3">
-        <v>10756000</v>
+        <v>11384200</v>
       </c>
       <c r="G72" s="3">
-        <v>10224700</v>
+        <v>10855700</v>
       </c>
       <c r="H72" s="3">
-        <v>9786200</v>
+        <v>10319500</v>
       </c>
       <c r="I72" s="3">
-        <v>9421200</v>
+        <v>9876900</v>
       </c>
       <c r="J72" s="3">
+        <v>9508600</v>
+      </c>
+      <c r="K72" s="3">
         <v>9097700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>8970400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8820800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8824300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9049100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9166500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8793700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8575200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8096800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8286700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>7994600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7669100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7765800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7402700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7415700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7190600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19444300</v>
+        <v>19760000</v>
       </c>
       <c r="E76" s="3">
-        <v>19760100</v>
+        <v>19624600</v>
       </c>
       <c r="F76" s="3">
-        <v>19172100</v>
+        <v>19943400</v>
       </c>
       <c r="G76" s="3">
-        <v>18401700</v>
+        <v>19349900</v>
       </c>
       <c r="H76" s="3">
-        <v>17965400</v>
+        <v>18572300</v>
       </c>
       <c r="I76" s="3">
-        <v>18077400</v>
+        <v>18132100</v>
       </c>
       <c r="J76" s="3">
+        <v>18245000</v>
+      </c>
+      <c r="K76" s="3">
         <v>18096500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18150300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18044400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17333600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18173600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>16992000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16570400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16982200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14953100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15777700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15467600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14931800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14914700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14928100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15340000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15133400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>617100</v>
+        <v>607400</v>
       </c>
       <c r="E81" s="3">
-        <v>831000</v>
+        <v>663900</v>
       </c>
       <c r="F81" s="3">
-        <v>770500</v>
+        <v>834100</v>
       </c>
       <c r="G81" s="3">
-        <v>700700</v>
+        <v>788500</v>
       </c>
       <c r="H81" s="3">
-        <v>696900</v>
+        <v>696400</v>
       </c>
       <c r="I81" s="3">
-        <v>570400</v>
+        <v>725000</v>
       </c>
       <c r="J81" s="3">
+        <v>575700</v>
+      </c>
+      <c r="K81" s="3">
         <v>575000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>407300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>307000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>560600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>564600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>471800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>479600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>441400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>412000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>531500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>503600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>154100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>608000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>427200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>423300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>559300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,8 +5796,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5673,8 +5871,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-361100</v>
+        <v>1534300</v>
       </c>
       <c r="E89" s="3">
-        <v>-1533300</v>
+        <v>-364400</v>
       </c>
       <c r="F89" s="3">
-        <v>678500</v>
+        <v>-1547500</v>
       </c>
       <c r="G89" s="3">
-        <v>207800</v>
+        <v>684800</v>
       </c>
       <c r="H89" s="3">
-        <v>-776600</v>
+        <v>209700</v>
       </c>
       <c r="I89" s="3">
-        <v>889300</v>
+        <v>-783800</v>
       </c>
       <c r="J89" s="3">
+        <v>897600</v>
+      </c>
+      <c r="K89" s="3">
         <v>2264700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2398200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>65200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1309800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>160000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1507500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-944600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1433100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>812400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>303400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>323700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>483700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>468900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>983800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-474800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1057900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-14600</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E91" s="3">
-        <v>-16900</v>
+        <v>-14700</v>
       </c>
       <c r="F91" s="3">
-        <v>-16100</v>
+        <v>-17000</v>
       </c>
       <c r="G91" s="3">
-        <v>-24500</v>
+        <v>-16200</v>
       </c>
       <c r="H91" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-4600</v>
       </c>
-      <c r="I91" s="3">
-        <v>-30700</v>
-      </c>
       <c r="J91" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-33700</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-29000</v>
       </c>
       <c r="L91" s="3">
         <v>-29000</v>
       </c>
       <c r="M91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-35100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-16700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-23900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-38800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-21100</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-35700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-29800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-38000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-33000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-39900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-39900</v>
+        <v>-2003200</v>
       </c>
       <c r="E94" s="3">
-        <v>204700</v>
+        <v>-40200</v>
       </c>
       <c r="F94" s="3">
-        <v>-135700</v>
+        <v>206600</v>
       </c>
       <c r="G94" s="3">
-        <v>-61300</v>
+        <v>-137000</v>
       </c>
       <c r="H94" s="3">
-        <v>-623300</v>
+        <v>-61900</v>
       </c>
       <c r="I94" s="3">
-        <v>-102700</v>
+        <v>-629100</v>
       </c>
       <c r="J94" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-430100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-73800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-76100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-98200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-175800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-101200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-41400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-51200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-104900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-49100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-111600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>13800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-77600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,82 +6701,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-301300</v>
+        <v>-335000</v>
       </c>
       <c r="E96" s="3">
-        <v>-315900</v>
+        <v>-304100</v>
       </c>
       <c r="F96" s="3">
+        <v>-318800</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-261500</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-262300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-262300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-263100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-259100</v>
       </c>
-      <c r="G96" s="3">
-        <v>-259900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-259900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-260700</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-259100</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-267600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-267700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-266600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-270300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-262500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-245600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-240500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-223100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-231900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-222800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-221000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-214300</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-217300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-213600</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-212800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,226 +7007,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-271400</v>
+        <v>975700</v>
       </c>
       <c r="E100" s="3">
-        <v>921500</v>
+        <v>-273900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1066400</v>
+        <v>930000</v>
       </c>
       <c r="G100" s="3">
-        <v>371100</v>
+        <v>-1076300</v>
       </c>
       <c r="H100" s="3">
-        <v>-425500</v>
+        <v>374500</v>
       </c>
       <c r="I100" s="3">
-        <v>357300</v>
+        <v>-429400</v>
       </c>
       <c r="J100" s="3">
+        <v>360600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2221700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>446500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-352500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-704000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-135100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-551900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-462700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-475700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-426600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-299600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-719700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-14900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-337100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-277600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-901100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-574600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-49100</v>
+        <v>60400</v>
       </c>
       <c r="E101" s="3">
-        <v>-10000</v>
+        <v>-49500</v>
       </c>
       <c r="F101" s="3">
-        <v>74400</v>
+        <v>-10100</v>
       </c>
       <c r="G101" s="3">
-        <v>-42900</v>
+        <v>75100</v>
       </c>
       <c r="H101" s="3">
-        <v>-48300</v>
+        <v>-43300</v>
       </c>
       <c r="I101" s="3">
-        <v>-181700</v>
+        <v>-48700</v>
       </c>
       <c r="J101" s="3">
+        <v>-183400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-37600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-127900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>280300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-52200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>29000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-64200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-59300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>153700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-48000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>28600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>57200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>26800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-77400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-59500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-23800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>50700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-721400</v>
+        <v>567200</v>
       </c>
       <c r="E102" s="3">
-        <v>-417100</v>
+        <v>-728100</v>
       </c>
       <c r="F102" s="3">
-        <v>-449300</v>
+        <v>-420900</v>
       </c>
       <c r="G102" s="3">
-        <v>474600</v>
+        <v>-453400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1873700</v>
+        <v>479000</v>
       </c>
       <c r="I102" s="3">
-        <v>962100</v>
+        <v>-1891000</v>
       </c>
       <c r="J102" s="3">
+        <v>971100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-270600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2672800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-270800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>408500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-132600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>847700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1010000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>296500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-355300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>390700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>535100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>456300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,181 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7620700</v>
+        <v>7909600</v>
       </c>
       <c r="E8" s="3">
-        <v>6725400</v>
+        <v>7395200</v>
       </c>
       <c r="F8" s="3">
-        <v>8101200</v>
+        <v>6526500</v>
       </c>
       <c r="G8" s="3">
-        <v>7302700</v>
+        <v>7861500</v>
       </c>
       <c r="H8" s="3">
-        <v>7045000</v>
+        <v>7086600</v>
       </c>
       <c r="I8" s="3">
-        <v>6545900</v>
+        <v>6836600</v>
       </c>
       <c r="J8" s="3">
+        <v>6352300</v>
+      </c>
+      <c r="K8" s="3">
         <v>7814900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7309900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6719700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6499400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7722600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6547800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5963500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5572000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6225700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4358700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5138500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4511500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6435900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4134100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6044500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5384500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1817600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,8 +915,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +995,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1185,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1228,8 +1247,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>5</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>5</v>
@@ -1246,8 +1265,11 @@
       <c r="AA14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,8 +1345,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>680900</v>
+        <v>5888200</v>
       </c>
       <c r="E17" s="3">
-        <v>-679400</v>
+        <v>660800</v>
       </c>
       <c r="F17" s="3">
-        <v>9004900</v>
+        <v>-659300</v>
       </c>
       <c r="G17" s="3">
-        <v>5543900</v>
+        <v>8738500</v>
       </c>
       <c r="H17" s="3">
-        <v>8792100</v>
+        <v>5379900</v>
       </c>
       <c r="I17" s="3">
-        <v>75800</v>
+        <v>8532000</v>
       </c>
       <c r="J17" s="3">
+        <v>73600</v>
+      </c>
+      <c r="K17" s="3">
         <v>8232700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6866800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11286900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4486600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5861600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7283200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7381400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8084600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5576500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3534600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4363200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3910000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6241700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3305000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5519100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4607800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>965700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>6939800</v>
+        <v>2021300</v>
       </c>
       <c r="E18" s="3">
-        <v>7404800</v>
+        <v>6734500</v>
       </c>
       <c r="F18" s="3">
-        <v>-903700</v>
+        <v>7185700</v>
       </c>
       <c r="G18" s="3">
-        <v>1758700</v>
+        <v>-877000</v>
       </c>
       <c r="H18" s="3">
-        <v>-1747100</v>
+        <v>1706700</v>
       </c>
       <c r="I18" s="3">
-        <v>6470100</v>
+        <v>-1695400</v>
       </c>
       <c r="J18" s="3">
+        <v>6278700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-417800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>443100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4567200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2012900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1861100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-735400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1417900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>649200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>824100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>775400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>601500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>194200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>829000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>525400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>776700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>852000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,56 +1564,57 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6064700</v>
+        <v>-1429600</v>
       </c>
       <c r="E20" s="3">
-        <v>-6431400</v>
+        <v>-5885200</v>
       </c>
       <c r="F20" s="3">
-        <v>1953700</v>
+        <v>-6241100</v>
       </c>
       <c r="G20" s="3">
-        <v>-718000</v>
+        <v>1895900</v>
       </c>
       <c r="H20" s="3">
-        <v>2757600</v>
+        <v>-696800</v>
       </c>
       <c r="I20" s="3">
-        <v>-5374500</v>
+        <v>2676100</v>
       </c>
       <c r="J20" s="3">
+        <v>-5215500</v>
+      </c>
+      <c r="K20" s="3">
         <v>1198500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>381000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5197300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1420200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1075900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1424300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2082500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3197800</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1609,8 +1642,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1686,239 +1722,251 @@
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>78100</v>
+        <v>89400</v>
       </c>
       <c r="E22" s="3">
         <v>75800</v>
       </c>
       <c r="F22" s="3">
-        <v>63400</v>
+        <v>73600</v>
       </c>
       <c r="G22" s="3">
-        <v>62700</v>
+        <v>61600</v>
       </c>
       <c r="H22" s="3">
-        <v>65000</v>
+        <v>60800</v>
       </c>
       <c r="I22" s="3">
-        <v>61900</v>
+        <v>63100</v>
       </c>
       <c r="J22" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K22" s="3">
         <v>68900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>65900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>70700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>74800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>53900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>66600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>67700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>53000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>58700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>56500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>60300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>40900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>64700</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>61500</v>
       </c>
       <c r="Z22" s="3">
         <v>61500</v>
       </c>
       <c r="AA22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="AB22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>797000</v>
+        <v>502300</v>
       </c>
       <c r="E23" s="3">
-        <v>897600</v>
+        <v>773400</v>
       </c>
       <c r="F23" s="3">
-        <v>986500</v>
+        <v>871000</v>
       </c>
       <c r="G23" s="3">
-        <v>978000</v>
+        <v>957300</v>
       </c>
       <c r="H23" s="3">
-        <v>945500</v>
+        <v>949100</v>
       </c>
       <c r="I23" s="3">
-        <v>1033700</v>
+        <v>917600</v>
       </c>
       <c r="J23" s="3">
+        <v>1003100</v>
+      </c>
+      <c r="K23" s="3">
         <v>711900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>758200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>559500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>522100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>710300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>635100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>597900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>617400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>589100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>771000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>716700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>545000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>134000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>788100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>460700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>715200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>790500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>169500</v>
+        <v>108900</v>
       </c>
       <c r="E24" s="3">
-        <v>207400</v>
+        <v>164400</v>
       </c>
       <c r="F24" s="3">
-        <v>34000</v>
+        <v>201200</v>
       </c>
       <c r="G24" s="3">
-        <v>130000</v>
+        <v>33000</v>
       </c>
       <c r="H24" s="3">
-        <v>139300</v>
+        <v>126100</v>
       </c>
       <c r="I24" s="3">
-        <v>251500</v>
+        <v>135200</v>
       </c>
       <c r="J24" s="3">
+        <v>244000</v>
+      </c>
+      <c r="K24" s="3">
         <v>40200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>78200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>219000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>74800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>71400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>85200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>133700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>137000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>89600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-43900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>155500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-17100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>139800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>154400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>627500</v>
+        <v>393500</v>
       </c>
       <c r="E26" s="3">
-        <v>690200</v>
+        <v>608900</v>
       </c>
       <c r="F26" s="3">
-        <v>952500</v>
+        <v>669800</v>
       </c>
       <c r="G26" s="3">
-        <v>848000</v>
+        <v>924300</v>
       </c>
       <c r="H26" s="3">
-        <v>806200</v>
+        <v>822900</v>
       </c>
       <c r="I26" s="3">
-        <v>782300</v>
+        <v>782400</v>
       </c>
       <c r="J26" s="3">
+        <v>759100</v>
+      </c>
+      <c r="K26" s="3">
         <v>671600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>680000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>511700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>303000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>635400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>626800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>526600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>549700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>503800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>637300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>579600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>455400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>177900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>632600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>477800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>575400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>636100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>607400</v>
+        <v>349900</v>
       </c>
       <c r="E27" s="3">
-        <v>663900</v>
+        <v>589400</v>
       </c>
       <c r="F27" s="3">
-        <v>841800</v>
+        <v>644200</v>
       </c>
       <c r="G27" s="3">
-        <v>788500</v>
+        <v>816900</v>
       </c>
       <c r="H27" s="3">
-        <v>696400</v>
+        <v>765100</v>
       </c>
       <c r="I27" s="3">
-        <v>725000</v>
+        <v>675800</v>
       </c>
       <c r="J27" s="3">
+        <v>703600</v>
+      </c>
+      <c r="K27" s="3">
         <v>576400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>575000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>407300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>307000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>562100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>564600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>471800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>479600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>441400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>412000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>531500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>503600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>148800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>608000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>427200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>423300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>559300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2236,11 +2296,11 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-7500</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -2248,24 +2308,24 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-800</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1600</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2284,12 +2344,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>5200</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2302,8 +2362,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,56 +2522,59 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6064700</v>
+        <v>1429600</v>
       </c>
       <c r="E32" s="3">
-        <v>6431400</v>
+        <v>5885200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1953700</v>
+        <v>6241100</v>
       </c>
       <c r="G32" s="3">
-        <v>718000</v>
+        <v>-1895900</v>
       </c>
       <c r="H32" s="3">
-        <v>-2757600</v>
+        <v>696800</v>
       </c>
       <c r="I32" s="3">
-        <v>5374500</v>
+        <v>-2676100</v>
       </c>
       <c r="J32" s="3">
+        <v>5215500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1198500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-381000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5197300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1420200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1075900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1424300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2082500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2533,85 +2602,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>607400</v>
+        <v>349900</v>
       </c>
       <c r="E33" s="3">
-        <v>663900</v>
+        <v>589400</v>
       </c>
       <c r="F33" s="3">
-        <v>834100</v>
+        <v>644200</v>
       </c>
       <c r="G33" s="3">
-        <v>788500</v>
+        <v>809400</v>
       </c>
       <c r="H33" s="3">
-        <v>696400</v>
+        <v>765100</v>
       </c>
       <c r="I33" s="3">
-        <v>725000</v>
+        <v>675800</v>
       </c>
       <c r="J33" s="3">
+        <v>703600</v>
+      </c>
+      <c r="K33" s="3">
         <v>575700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>575000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>407300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>307000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>560600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>564600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>471800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>479600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>441400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>412000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>531500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>503600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>154100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>608000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>427200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>423300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>559300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>607400</v>
+        <v>349900</v>
       </c>
       <c r="E35" s="3">
-        <v>663900</v>
+        <v>589400</v>
       </c>
       <c r="F35" s="3">
-        <v>834100</v>
+        <v>644200</v>
       </c>
       <c r="G35" s="3">
-        <v>788500</v>
+        <v>809400</v>
       </c>
       <c r="H35" s="3">
-        <v>696400</v>
+        <v>765100</v>
       </c>
       <c r="I35" s="3">
-        <v>725000</v>
+        <v>675800</v>
       </c>
       <c r="J35" s="3">
+        <v>703600</v>
+      </c>
+      <c r="K35" s="3">
         <v>575700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>575000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>407300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>307000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>560600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>564600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>471800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>479600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>441400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>412000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>531500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>503600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>154100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>608000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>427200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>423300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>559300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,85 +2989,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5875900</v>
+        <v>7055100</v>
       </c>
       <c r="E41" s="3">
-        <v>5229000</v>
+        <v>5702000</v>
       </c>
       <c r="F41" s="3">
-        <v>6055400</v>
+        <v>5074300</v>
       </c>
       <c r="G41" s="3">
-        <v>6444600</v>
+        <v>5876200</v>
       </c>
       <c r="H41" s="3">
-        <v>6826800</v>
+        <v>6253900</v>
       </c>
       <c r="I41" s="3">
-        <v>6486300</v>
+        <v>6624800</v>
       </c>
       <c r="J41" s="3">
+        <v>6294500</v>
+      </c>
+      <c r="K41" s="3">
         <v>8243500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7212500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7648900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5057300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5235500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5160800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5019000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4177000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5554400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4411000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4235200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4173500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4536700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4168300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4160100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3698300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6639000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3058,8 +3147,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3126,17 +3218,20 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z43" s="3">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA43" s="3">
         <v>2152600</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,8 +3307,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,8 +3387,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3366,239 +3467,251 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115556500</v>
+        <v>115396700</v>
       </c>
       <c r="E47" s="3">
-        <v>121615700</v>
+        <v>112137900</v>
       </c>
       <c r="F47" s="3">
-        <v>128445600</v>
+        <v>118017900</v>
       </c>
       <c r="G47" s="3">
-        <v>122647900</v>
+        <v>124645800</v>
       </c>
       <c r="H47" s="3">
-        <v>121193200</v>
+        <v>119019600</v>
       </c>
       <c r="I47" s="3">
-        <v>117418100</v>
+        <v>117608000</v>
       </c>
       <c r="J47" s="3">
+        <v>113944500</v>
+      </c>
+      <c r="K47" s="3">
         <v>121929100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>120529600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>122762400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>119078000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>113870800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>121190500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>111944300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>108093500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>103629300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>95237800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>100356700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>99454100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>97862100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>94758000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>96311200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>98931100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>96419000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7568000</v>
+        <v>7620500</v>
       </c>
       <c r="E48" s="3">
-        <v>7297200</v>
+        <v>7344200</v>
       </c>
       <c r="F48" s="3">
-        <v>7048100</v>
+        <v>7081400</v>
       </c>
       <c r="G48" s="3">
-        <v>6653500</v>
+        <v>6839600</v>
       </c>
       <c r="H48" s="3">
-        <v>6316900</v>
+        <v>6456600</v>
       </c>
       <c r="I48" s="3">
-        <v>5907600</v>
+        <v>6130000</v>
       </c>
       <c r="J48" s="3">
+        <v>5732800</v>
+      </c>
+      <c r="K48" s="3">
         <v>5815500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5677700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5810200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5777200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5696300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6081100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5732700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5388000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5447100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5283000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5523200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5452500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5259300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5234800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5196100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5066500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5064200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10297800</v>
+        <v>10304800</v>
       </c>
       <c r="E49" s="3">
-        <v>7575000</v>
+        <v>9993200</v>
       </c>
       <c r="F49" s="3">
-        <v>7650100</v>
+        <v>7350900</v>
       </c>
       <c r="G49" s="3">
-        <v>7657000</v>
+        <v>7423800</v>
       </c>
       <c r="H49" s="3">
-        <v>7479800</v>
+        <v>7430500</v>
       </c>
       <c r="I49" s="3">
-        <v>7500000</v>
+        <v>7258600</v>
       </c>
       <c r="J49" s="3">
+        <v>7278100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6614800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6646000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6347800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6459400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6171100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6536200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5600300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5475000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5473000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5073000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5305700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5245400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5097800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5018200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5123100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5357600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5393000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1604800</v>
+        <v>1621100</v>
       </c>
       <c r="E52" s="3">
-        <v>1488700</v>
+        <v>1557300</v>
       </c>
       <c r="F52" s="3">
-        <v>1429900</v>
+        <v>1444700</v>
       </c>
       <c r="G52" s="3">
-        <v>1283700</v>
+        <v>1387600</v>
       </c>
       <c r="H52" s="3">
-        <v>1213200</v>
+        <v>1245700</v>
       </c>
       <c r="I52" s="3">
-        <v>1211700</v>
+        <v>1177300</v>
       </c>
       <c r="J52" s="3">
+        <v>1175800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1264300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1138500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1203800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1260800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1134400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1186400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1034900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>983800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>920200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>815300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1002700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1011700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>963800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1096200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1117100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1064800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1112400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>244102700</v>
+        <v>241875300</v>
       </c>
       <c r="E54" s="3">
-        <v>255477500</v>
+        <v>236881300</v>
       </c>
       <c r="F54" s="3">
-        <v>267230000</v>
+        <v>247919700</v>
       </c>
       <c r="G54" s="3">
-        <v>256307000</v>
+        <v>259324500</v>
       </c>
       <c r="H54" s="3">
-        <v>254515800</v>
+        <v>248724600</v>
       </c>
       <c r="I54" s="3">
-        <v>245598300</v>
+        <v>246986400</v>
       </c>
       <c r="J54" s="3">
+        <v>238332700</v>
+      </c>
+      <c r="K54" s="3">
         <v>249929800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>239872500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>242039700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>228598700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>231719500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>242921600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>226810900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>217365600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>206884800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>196741900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>205813500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>203042500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>200275800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>194234300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>196338200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>200584100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>198386200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,8 +4169,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4117,31 +4247,34 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>84300</v>
+        <v>800</v>
       </c>
       <c r="E58" s="3">
-        <v>4600</v>
+        <v>81800</v>
       </c>
       <c r="F58" s="3">
-        <v>102900</v>
+        <v>4500</v>
       </c>
       <c r="G58" s="3">
-        <v>71200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
-        <v>138500</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
+        <v>99900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>69100</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
+        <v>134400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
@@ -4149,8 +4282,8 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4185,94 +4318,100 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z58" s="3">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA58" s="3">
         <v>145200</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>199904500</v>
+        <v>195069700</v>
       </c>
       <c r="E59" s="3">
-        <v>213657900</v>
+        <v>193990700</v>
       </c>
       <c r="F59" s="3">
-        <v>225296700</v>
+        <v>207337200</v>
       </c>
       <c r="G59" s="3">
-        <v>217098800</v>
+        <v>218631700</v>
       </c>
       <c r="H59" s="3">
-        <v>215750100</v>
+        <v>210676300</v>
       </c>
       <c r="I59" s="3">
-        <v>208192900</v>
+        <v>209367500</v>
       </c>
       <c r="J59" s="3">
+        <v>202033900</v>
+      </c>
+      <c r="K59" s="3">
         <v>212690700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>202449700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>202967500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>189350900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>195910000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>204607100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>192352600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>183708300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>173641900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>166350200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>174071400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>171658700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>169128400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>163182200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>164999500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>168698700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>170079200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4348,162 +4487,171 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5127600</v>
+        <v>5462500</v>
       </c>
       <c r="E61" s="3">
-        <v>5126900</v>
+        <v>4975900</v>
       </c>
       <c r="F61" s="3">
-        <v>5126100</v>
+        <v>4975200</v>
       </c>
       <c r="G61" s="3">
-        <v>3585600</v>
+        <v>4974400</v>
       </c>
       <c r="H61" s="3">
-        <v>3816900</v>
+        <v>3479500</v>
       </c>
       <c r="I61" s="3">
-        <v>3816100</v>
+        <v>3704000</v>
       </c>
       <c r="J61" s="3">
+        <v>3703200</v>
+      </c>
+      <c r="K61" s="3">
         <v>4086200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3476700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3950400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3170800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3148300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3762200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3244200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3340200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3301600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3152400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3264900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3264100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>3227600</v>
       </c>
       <c r="X61" s="3">
         <v>3227600</v>
       </c>
       <c r="Y61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="Z61" s="3">
         <v>3331000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7968800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>551700</v>
+        <v>561600</v>
       </c>
       <c r="E62" s="3">
-        <v>248400</v>
+        <v>535400</v>
       </c>
       <c r="F62" s="3">
-        <v>249100</v>
+        <v>241000</v>
       </c>
       <c r="G62" s="3">
-        <v>292500</v>
+        <v>241800</v>
       </c>
       <c r="H62" s="3">
-        <v>320300</v>
+        <v>283800</v>
       </c>
       <c r="I62" s="3">
-        <v>298700</v>
+        <v>310900</v>
       </c>
       <c r="J62" s="3">
+        <v>289800</v>
+      </c>
+      <c r="K62" s="3">
         <v>296300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>312000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>306800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>245700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>316500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>329100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>311700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>252500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>245100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>260900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>353800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>322200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>299900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>555900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>571600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>569300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>527800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>222610200</v>
+        <v>220309800</v>
       </c>
       <c r="E66" s="3">
-        <v>234120500</v>
+        <v>216024700</v>
       </c>
       <c r="F66" s="3">
-        <v>245554200</v>
+        <v>227194500</v>
       </c>
       <c r="G66" s="3">
-        <v>234998700</v>
+        <v>238289900</v>
       </c>
       <c r="H66" s="3">
-        <v>233433400</v>
+        <v>228046700</v>
       </c>
       <c r="I66" s="3">
-        <v>225719900</v>
+        <v>226527700</v>
       </c>
       <c r="J66" s="3">
+        <v>219042400</v>
+      </c>
+      <c r="K66" s="3">
         <v>229938400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>220045600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>222118300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>208782500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>212626100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>222876800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>208029000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>199057700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>188184800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>180148600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>188336800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>185875900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>183664300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>177640000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>179730400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>183510200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>181518900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,67 +5157,70 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1732400</v>
+        <v>1681200</v>
       </c>
       <c r="E70" s="3">
-        <v>1732400</v>
+        <v>1681200</v>
       </c>
       <c r="F70" s="3">
-        <v>1732400</v>
+        <v>1681200</v>
       </c>
       <c r="G70" s="3">
-        <v>1958400</v>
+        <v>1681200</v>
       </c>
       <c r="H70" s="3">
-        <v>2510000</v>
+        <v>1900400</v>
       </c>
       <c r="I70" s="3">
+        <v>2435800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1694700</v>
+      </c>
+      <c r="K70" s="3">
         <v>1746400</v>
       </c>
-      <c r="J70" s="3">
-        <v>1746400</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1730300</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1771200</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1771900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1759700</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1871200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1789800</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1737500</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1717800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="T70" s="3">
-        <v>1699000</v>
       </c>
       <c r="U70" s="3">
         <v>1699000</v>
       </c>
       <c r="V70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="W70" s="3">
         <v>1679700</v>
@@ -5062,7 +5229,7 @@
         <v>1679700</v>
       </c>
       <c r="Y70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="Z70" s="3">
         <v>1733900</v>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12042600</v>
+        <v>11735900</v>
       </c>
       <c r="E72" s="3">
-        <v>11748600</v>
+        <v>11686400</v>
       </c>
       <c r="F72" s="3">
-        <v>11384200</v>
+        <v>11401100</v>
       </c>
       <c r="G72" s="3">
-        <v>10855700</v>
+        <v>11047400</v>
       </c>
       <c r="H72" s="3">
-        <v>10319500</v>
+        <v>10534600</v>
       </c>
       <c r="I72" s="3">
-        <v>9876900</v>
+        <v>10014200</v>
       </c>
       <c r="J72" s="3">
+        <v>9584700</v>
+      </c>
+      <c r="K72" s="3">
         <v>9508600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9097700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>8970400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8820800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8824300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9049100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9166500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8793700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8575200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8096800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8286700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>7994600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7669100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7765800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7402700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7415700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7190600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19760000</v>
+        <v>19884300</v>
       </c>
       <c r="E76" s="3">
-        <v>19624600</v>
+        <v>19175500</v>
       </c>
       <c r="F76" s="3">
-        <v>19943400</v>
+        <v>19044100</v>
       </c>
       <c r="G76" s="3">
-        <v>19349900</v>
+        <v>19353400</v>
       </c>
       <c r="H76" s="3">
-        <v>18572300</v>
+        <v>18777500</v>
       </c>
       <c r="I76" s="3">
-        <v>18132100</v>
+        <v>18022900</v>
       </c>
       <c r="J76" s="3">
+        <v>17595700</v>
+      </c>
+      <c r="K76" s="3">
         <v>18245000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18096500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18150300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18044400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>17333600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18173600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>16992000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16570400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16982200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14953100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>15777700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15467600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14931800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14914700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14928100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15340000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>15133400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>607400</v>
+        <v>349900</v>
       </c>
       <c r="E81" s="3">
-        <v>663900</v>
+        <v>589400</v>
       </c>
       <c r="F81" s="3">
-        <v>834100</v>
+        <v>644200</v>
       </c>
       <c r="G81" s="3">
-        <v>788500</v>
+        <v>809400</v>
       </c>
       <c r="H81" s="3">
-        <v>696400</v>
+        <v>765100</v>
       </c>
       <c r="I81" s="3">
-        <v>725000</v>
+        <v>675800</v>
       </c>
       <c r="J81" s="3">
+        <v>703600</v>
+      </c>
+      <c r="K81" s="3">
         <v>575700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>575000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>407300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>307000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>560600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>564600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>471800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>479600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>441400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>412000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>531500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>503600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>154100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>608000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>427200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>423300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>559300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,8 +5994,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5874,8 +6072,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1534300</v>
+        <v>1415400</v>
       </c>
       <c r="E89" s="3">
-        <v>-364400</v>
+        <v>1489000</v>
       </c>
       <c r="F89" s="3">
-        <v>-1547500</v>
+        <v>-353700</v>
       </c>
       <c r="G89" s="3">
-        <v>684800</v>
+        <v>-1501700</v>
       </c>
       <c r="H89" s="3">
-        <v>209700</v>
+        <v>664500</v>
       </c>
       <c r="I89" s="3">
-        <v>-783800</v>
+        <v>203500</v>
       </c>
       <c r="J89" s="3">
+        <v>-760600</v>
+      </c>
+      <c r="K89" s="3">
         <v>897600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2264700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2398200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>65200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1309800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>160000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1507500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-944600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1433100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>812400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>303400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>323700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>483700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>468900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>983800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-474800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1057900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E91" s="3">
-        <v>-14700</v>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F91" s="3">
-        <v>-17000</v>
+        <v>-14300</v>
       </c>
       <c r="G91" s="3">
-        <v>-16200</v>
+        <v>-16500</v>
       </c>
       <c r="H91" s="3">
-        <v>-24800</v>
+        <v>-15800</v>
       </c>
       <c r="I91" s="3">
-        <v>-4600</v>
+        <v>-24000</v>
       </c>
       <c r="J91" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-31000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-33700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-29000</v>
       </c>
       <c r="M91" s="3">
         <v>-29000</v>
       </c>
       <c r="N91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-35100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-16700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-38800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-21100</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-35700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-29800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-33000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-39900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2003200</v>
+        <v>-72100</v>
       </c>
       <c r="E94" s="3">
-        <v>-40200</v>
+        <v>-1944000</v>
       </c>
       <c r="F94" s="3">
-        <v>206600</v>
+        <v>-39000</v>
       </c>
       <c r="G94" s="3">
-        <v>-137000</v>
+        <v>200500</v>
       </c>
       <c r="H94" s="3">
-        <v>-61900</v>
+        <v>-132900</v>
       </c>
       <c r="I94" s="3">
-        <v>-629100</v>
+        <v>-60100</v>
       </c>
       <c r="J94" s="3">
+        <v>-610400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-103700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-430100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-73800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-76100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-98200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-175800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-43600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-101200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-41400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-51200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-104900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-49100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-111600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>13800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-77600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,85 +6934,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-335000</v>
+        <v>-309400</v>
       </c>
       <c r="E96" s="3">
-        <v>-304100</v>
+        <v>-325100</v>
       </c>
       <c r="F96" s="3">
-        <v>-318800</v>
+        <v>-295100</v>
       </c>
       <c r="G96" s="3">
-        <v>-261500</v>
+        <v>-309400</v>
       </c>
       <c r="H96" s="3">
-        <v>-262300</v>
+        <v>-253800</v>
       </c>
       <c r="I96" s="3">
-        <v>-262300</v>
+        <v>-254500</v>
       </c>
       <c r="J96" s="3">
+        <v>-254500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-263100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-259100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-267600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-267700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-266600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-270300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-262500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-245600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-240500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-223100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-231900</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-222800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-221000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-214300</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-217300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-213600</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-212800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7252,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>975700</v>
+        <v>-159900</v>
       </c>
       <c r="E100" s="3">
-        <v>-273900</v>
+        <v>946800</v>
       </c>
       <c r="F100" s="3">
-        <v>930000</v>
+        <v>-265800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1076300</v>
+        <v>902500</v>
       </c>
       <c r="H100" s="3">
-        <v>374500</v>
+        <v>-1044400</v>
       </c>
       <c r="I100" s="3">
-        <v>-429400</v>
+        <v>363400</v>
       </c>
       <c r="J100" s="3">
+        <v>-416700</v>
+      </c>
+      <c r="K100" s="3">
         <v>360600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2221700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>446500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-352500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-704000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-135100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-551900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-462700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-475700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-426600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-299600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-719700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-14900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-337100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-277600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-901100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-574600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>60400</v>
+        <v>250800</v>
       </c>
       <c r="E101" s="3">
-        <v>-49500</v>
+        <v>58600</v>
       </c>
       <c r="F101" s="3">
-        <v>-10100</v>
+        <v>-48100</v>
       </c>
       <c r="G101" s="3">
-        <v>75100</v>
+        <v>-9800</v>
       </c>
       <c r="H101" s="3">
-        <v>-43300</v>
+        <v>72800</v>
       </c>
       <c r="I101" s="3">
-        <v>-48700</v>
+        <v>-42000</v>
       </c>
       <c r="J101" s="3">
+        <v>-47300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-183400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-37600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-127900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>280300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-52200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>29000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-59300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>153700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-48000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>28600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>57200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>26800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-77400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-59500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-23800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>50700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>567200</v>
+        <v>1434100</v>
       </c>
       <c r="E102" s="3">
-        <v>-728100</v>
+        <v>550400</v>
       </c>
       <c r="F102" s="3">
-        <v>-420900</v>
+        <v>-706600</v>
       </c>
       <c r="G102" s="3">
-        <v>-453400</v>
+        <v>-408500</v>
       </c>
       <c r="H102" s="3">
-        <v>479000</v>
+        <v>-440000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1891000</v>
+        <v>464800</v>
       </c>
       <c r="J102" s="3">
+        <v>-1835100</v>
+      </c>
+      <c r="K102" s="3">
         <v>971100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-270600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2672800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-270800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>408500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-132600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>847700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1010000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>296500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-355300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>390700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>535100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>456300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,187 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7909600</v>
+        <v>8683000</v>
       </c>
       <c r="E8" s="3">
-        <v>7395200</v>
+        <v>7618400</v>
       </c>
       <c r="F8" s="3">
-        <v>6526500</v>
+        <v>7123000</v>
       </c>
       <c r="G8" s="3">
-        <v>7861500</v>
+        <v>6286200</v>
       </c>
       <c r="H8" s="3">
-        <v>7086600</v>
+        <v>7572100</v>
       </c>
       <c r="I8" s="3">
-        <v>6836600</v>
+        <v>6825800</v>
       </c>
       <c r="J8" s="3">
+        <v>6584900</v>
+      </c>
+      <c r="K8" s="3">
         <v>6352300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7814900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7309900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6719700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6499400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7722600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6547800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5963500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5572000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6225700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4358700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5138500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4511500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6435900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4134100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6044500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5384500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1817600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -918,8 +924,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,8 +1007,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1040,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1121,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1204,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1250,8 +1269,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>5</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>5</v>
@@ -1268,8 +1287,11 @@
       <c r="AB14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1348,8 +1370,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5888200</v>
+        <v>8035000</v>
       </c>
       <c r="E17" s="3">
-        <v>660800</v>
+        <v>5671500</v>
       </c>
       <c r="F17" s="3">
-        <v>-659300</v>
+        <v>636400</v>
       </c>
       <c r="G17" s="3">
-        <v>8738500</v>
+        <v>-635000</v>
       </c>
       <c r="H17" s="3">
-        <v>5379900</v>
+        <v>8416800</v>
       </c>
       <c r="I17" s="3">
-        <v>8532000</v>
+        <v>5181900</v>
       </c>
       <c r="J17" s="3">
+        <v>8217900</v>
+      </c>
+      <c r="K17" s="3">
         <v>73600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8232700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6866800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11286900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4486600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5861600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7283200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7381400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8084600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5576500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3534600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4363200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3910000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6241700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3305000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5519100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4607800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>965700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2021300</v>
+        <v>648000</v>
       </c>
       <c r="E18" s="3">
-        <v>6734500</v>
+        <v>1946900</v>
       </c>
       <c r="F18" s="3">
-        <v>7185700</v>
+        <v>6486600</v>
       </c>
       <c r="G18" s="3">
-        <v>-877000</v>
+        <v>6921200</v>
       </c>
       <c r="H18" s="3">
-        <v>1706700</v>
+        <v>-844700</v>
       </c>
       <c r="I18" s="3">
-        <v>-1695400</v>
+        <v>1643900</v>
       </c>
       <c r="J18" s="3">
+        <v>-1633000</v>
+      </c>
+      <c r="K18" s="3">
         <v>6278700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-417800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>443100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-4567200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2012900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1861100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-735400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1417900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>649200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>824100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>775400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>601500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>194200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>829000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>525400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>776700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>852000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,59 +1597,60 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1429600</v>
+        <v>213300</v>
       </c>
       <c r="E20" s="3">
-        <v>-5885200</v>
+        <v>-1377000</v>
       </c>
       <c r="F20" s="3">
-        <v>-6241100</v>
+        <v>-5668600</v>
       </c>
       <c r="G20" s="3">
-        <v>1895900</v>
+        <v>-6011400</v>
       </c>
       <c r="H20" s="3">
-        <v>-696800</v>
+        <v>1826100</v>
       </c>
       <c r="I20" s="3">
-        <v>2676100</v>
+        <v>-671100</v>
       </c>
       <c r="J20" s="3">
+        <v>2577600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5215500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1198500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>381000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5197300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1420200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1075900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1424300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2082500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3197800</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1645,8 +1678,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1725,248 +1761,260 @@
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>89400</v>
+        <v>91800</v>
       </c>
       <c r="E22" s="3">
-        <v>75800</v>
+        <v>86100</v>
       </c>
       <c r="F22" s="3">
-        <v>73600</v>
+        <v>73000</v>
       </c>
       <c r="G22" s="3">
-        <v>61600</v>
+        <v>70900</v>
       </c>
       <c r="H22" s="3">
+        <v>59300</v>
+      </c>
+      <c r="I22" s="3">
+        <v>58600</v>
+      </c>
+      <c r="J22" s="3">
         <v>60800</v>
       </c>
-      <c r="I22" s="3">
-        <v>63100</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>68900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>65900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>70600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>70700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>74800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>53900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>66600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>67700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>60100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>53000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>58700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>56500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>60300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>40900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>64700</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>61500</v>
       </c>
       <c r="AA22" s="3">
         <v>61500</v>
       </c>
       <c r="AB22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="AC22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>502300</v>
+        <v>769500</v>
       </c>
       <c r="E23" s="3">
-        <v>773400</v>
+        <v>483800</v>
       </c>
       <c r="F23" s="3">
-        <v>871000</v>
+        <v>744900</v>
       </c>
       <c r="G23" s="3">
-        <v>957300</v>
+        <v>838900</v>
       </c>
       <c r="H23" s="3">
-        <v>949100</v>
+        <v>922100</v>
       </c>
       <c r="I23" s="3">
-        <v>917600</v>
+        <v>914200</v>
       </c>
       <c r="J23" s="3">
+        <v>883800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1003100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>711900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>758200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>559500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>522100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>710300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>635100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>597900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>617400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>589100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>771000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>716700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>545000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>134000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>788100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>460700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>715200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>790500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>108900</v>
+        <v>-8000</v>
       </c>
       <c r="E24" s="3">
-        <v>164400</v>
+        <v>104900</v>
       </c>
       <c r="F24" s="3">
-        <v>201200</v>
+        <v>158400</v>
       </c>
       <c r="G24" s="3">
-        <v>33000</v>
+        <v>193800</v>
       </c>
       <c r="H24" s="3">
-        <v>126100</v>
+        <v>31800</v>
       </c>
       <c r="I24" s="3">
-        <v>135200</v>
+        <v>121500</v>
       </c>
       <c r="J24" s="3">
+        <v>130200</v>
+      </c>
+      <c r="K24" s="3">
         <v>244000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>78200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>47900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>219000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>74800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>71400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>85200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>133700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>137000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>89600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-43900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>155500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-17100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>139800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>154400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>393500</v>
+        <v>777500</v>
       </c>
       <c r="E26" s="3">
-        <v>608900</v>
+        <v>379000</v>
       </c>
       <c r="F26" s="3">
-        <v>669800</v>
+        <v>586500</v>
       </c>
       <c r="G26" s="3">
-        <v>924300</v>
+        <v>645100</v>
       </c>
       <c r="H26" s="3">
-        <v>822900</v>
+        <v>890300</v>
       </c>
       <c r="I26" s="3">
-        <v>782400</v>
+        <v>792600</v>
       </c>
       <c r="J26" s="3">
+        <v>753600</v>
+      </c>
+      <c r="K26" s="3">
         <v>759100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>671600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>680000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>511700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>303000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>635400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>626800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>526600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>549700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>503800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>637300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>579600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>455400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>177900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>632600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>477800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>575400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>636100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>349900</v>
+        <v>687800</v>
       </c>
       <c r="E27" s="3">
-        <v>589400</v>
+        <v>337000</v>
       </c>
       <c r="F27" s="3">
-        <v>644200</v>
+        <v>567700</v>
       </c>
       <c r="G27" s="3">
-        <v>816900</v>
+        <v>620500</v>
       </c>
       <c r="H27" s="3">
-        <v>765100</v>
+        <v>786900</v>
       </c>
       <c r="I27" s="3">
-        <v>675800</v>
+        <v>737000</v>
       </c>
       <c r="J27" s="3">
+        <v>650900</v>
+      </c>
+      <c r="K27" s="3">
         <v>703600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>576400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>575000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>407300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>307000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>562100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>564600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>471800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>479600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>441400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>412000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>531500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>503600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>148800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>608000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>427200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>423300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>559300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2342,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2299,11 +2359,11 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-7200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -2311,24 +2371,24 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>-800</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1600</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2347,12 +2407,12 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3">
         <v>5200</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2365,8 +2425,11 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,59 +2591,62 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1429600</v>
+        <v>-213300</v>
       </c>
       <c r="E32" s="3">
-        <v>5885200</v>
+        <v>1377000</v>
       </c>
       <c r="F32" s="3">
-        <v>6241100</v>
+        <v>5668600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1895900</v>
+        <v>6011400</v>
       </c>
       <c r="H32" s="3">
-        <v>696800</v>
+        <v>-1826100</v>
       </c>
       <c r="I32" s="3">
-        <v>-2676100</v>
+        <v>671100</v>
       </c>
       <c r="J32" s="3">
+        <v>-2577600</v>
+      </c>
+      <c r="K32" s="3">
         <v>5215500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1198500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-381000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5197300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1420200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1075900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1424300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2082500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2605,88 +2674,94 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>349900</v>
+        <v>687800</v>
       </c>
       <c r="E33" s="3">
-        <v>589400</v>
+        <v>337000</v>
       </c>
       <c r="F33" s="3">
-        <v>644200</v>
+        <v>567700</v>
       </c>
       <c r="G33" s="3">
-        <v>809400</v>
+        <v>620500</v>
       </c>
       <c r="H33" s="3">
-        <v>765100</v>
+        <v>779600</v>
       </c>
       <c r="I33" s="3">
-        <v>675800</v>
+        <v>737000</v>
       </c>
       <c r="J33" s="3">
+        <v>650900</v>
+      </c>
+      <c r="K33" s="3">
         <v>703600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>575700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>575000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>407300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>307000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>560600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>564600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>471800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>479600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>441400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>412000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>531500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>503600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>154100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>608000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>427200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>423300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>559300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>349900</v>
+        <v>687800</v>
       </c>
       <c r="E35" s="3">
-        <v>589400</v>
+        <v>337000</v>
       </c>
       <c r="F35" s="3">
-        <v>644200</v>
+        <v>567700</v>
       </c>
       <c r="G35" s="3">
-        <v>809400</v>
+        <v>620500</v>
       </c>
       <c r="H35" s="3">
-        <v>765100</v>
+        <v>779600</v>
       </c>
       <c r="I35" s="3">
-        <v>675800</v>
+        <v>737000</v>
       </c>
       <c r="J35" s="3">
+        <v>650900</v>
+      </c>
+      <c r="K35" s="3">
         <v>703600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>575700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>575000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>407300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>307000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>560600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>564600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>471800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>479600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>441400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>412000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>531500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>503600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>154100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>608000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>427200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>423300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>559300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,88 +3075,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7055100</v>
+        <v>6782400</v>
       </c>
       <c r="E41" s="3">
-        <v>5702000</v>
+        <v>6795400</v>
       </c>
       <c r="F41" s="3">
-        <v>5074300</v>
+        <v>5492100</v>
       </c>
       <c r="G41" s="3">
-        <v>5876200</v>
+        <v>4887500</v>
       </c>
       <c r="H41" s="3">
-        <v>6253900</v>
+        <v>5659900</v>
       </c>
       <c r="I41" s="3">
-        <v>6624800</v>
+        <v>6023700</v>
       </c>
       <c r="J41" s="3">
+        <v>6381000</v>
+      </c>
+      <c r="K41" s="3">
         <v>6294500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8243500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7212500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7648900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5057300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5235500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5160800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5019000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4177000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5554400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4411000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4235200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4173500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4536700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4168300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4160100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3698300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6639000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3150,8 +3239,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3221,17 +3313,20 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="3">
         <v>2152600</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3310,8 +3405,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3390,8 +3488,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3470,248 +3571,260 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115396700</v>
+        <v>112617600</v>
       </c>
       <c r="E47" s="3">
-        <v>112137900</v>
+        <v>111148800</v>
       </c>
       <c r="F47" s="3">
-        <v>118017900</v>
+        <v>108010000</v>
       </c>
       <c r="G47" s="3">
-        <v>124645800</v>
+        <v>113673500</v>
       </c>
       <c r="H47" s="3">
-        <v>119019600</v>
+        <v>120057400</v>
       </c>
       <c r="I47" s="3">
-        <v>117608000</v>
+        <v>114638300</v>
       </c>
       <c r="J47" s="3">
+        <v>113278700</v>
+      </c>
+      <c r="K47" s="3">
         <v>113944500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>121929100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>120529600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>122762400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>119078000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>113870800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>121190500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>111944300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>108093500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>103629300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>95237800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>100356700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>99454100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>97862100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>94758000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>96311200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>98931100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>96419000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7620500</v>
+        <v>7306000</v>
       </c>
       <c r="E48" s="3">
-        <v>7344200</v>
+        <v>7340000</v>
       </c>
       <c r="F48" s="3">
-        <v>7081400</v>
+        <v>7073800</v>
       </c>
       <c r="G48" s="3">
-        <v>6839600</v>
+        <v>6820700</v>
       </c>
       <c r="H48" s="3">
-        <v>6456600</v>
+        <v>6587800</v>
       </c>
       <c r="I48" s="3">
-        <v>6130000</v>
+        <v>6219000</v>
       </c>
       <c r="J48" s="3">
+        <v>5904400</v>
+      </c>
+      <c r="K48" s="3">
         <v>5732800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5815500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5677700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5810200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5777200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5696300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6081100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5732700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5388000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5447100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5283000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5523200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5452500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5259300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5234800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5196100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5066500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5064200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10304800</v>
+        <v>9712100</v>
       </c>
       <c r="E49" s="3">
-        <v>9993200</v>
+        <v>9925500</v>
       </c>
       <c r="F49" s="3">
-        <v>7350900</v>
+        <v>9625300</v>
       </c>
       <c r="G49" s="3">
-        <v>7423800</v>
+        <v>7080300</v>
       </c>
       <c r="H49" s="3">
-        <v>7430500</v>
+        <v>7150500</v>
       </c>
       <c r="I49" s="3">
-        <v>7258600</v>
+        <v>7157000</v>
       </c>
       <c r="J49" s="3">
+        <v>6991400</v>
+      </c>
+      <c r="K49" s="3">
         <v>7278100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6614800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6646000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6347800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6459400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6171100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6536200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5600300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5475000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5473000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5073000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5305700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5245400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5097800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5018200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5123100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5357600</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5393000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +3986,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1621100</v>
+        <v>1650400</v>
       </c>
       <c r="E52" s="3">
-        <v>1557300</v>
+        <v>1561400</v>
       </c>
       <c r="F52" s="3">
-        <v>1444700</v>
+        <v>1500000</v>
       </c>
       <c r="G52" s="3">
-        <v>1387600</v>
+        <v>1391500</v>
       </c>
       <c r="H52" s="3">
-        <v>1245700</v>
+        <v>1336500</v>
       </c>
       <c r="I52" s="3">
-        <v>1177300</v>
+        <v>1199800</v>
       </c>
       <c r="J52" s="3">
+        <v>1134000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1175800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1264300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1138500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1203800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1260800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1134400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1186400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1034900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>983800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>920200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>815300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1002700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1011700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>963800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1096200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1117100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1064800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1112400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>241875300</v>
+        <v>239317800</v>
       </c>
       <c r="E54" s="3">
-        <v>236881300</v>
+        <v>232971600</v>
       </c>
       <c r="F54" s="3">
-        <v>247919700</v>
+        <v>228161400</v>
       </c>
       <c r="G54" s="3">
-        <v>259324500</v>
+        <v>238793500</v>
       </c>
       <c r="H54" s="3">
-        <v>248724600</v>
+        <v>249778500</v>
       </c>
       <c r="I54" s="3">
-        <v>246986400</v>
+        <v>239568800</v>
       </c>
       <c r="J54" s="3">
+        <v>237894500</v>
+      </c>
+      <c r="K54" s="3">
         <v>238332700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>249929800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>239872500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>242039700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>228598700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>231719500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>242921600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>226810900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>217365600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>206884800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>196741900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>205813500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>203042500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>200275800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>194234300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>196338200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>200584100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>198386200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,8 +4299,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4250,43 +4380,46 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>800</v>
+        <v>4300</v>
       </c>
       <c r="E58" s="3">
-        <v>81800</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>4500</v>
+        <v>78800</v>
       </c>
       <c r="G58" s="3">
-        <v>99900</v>
+        <v>4300</v>
       </c>
       <c r="H58" s="3">
-        <v>69100</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" s="3">
+        <v>96200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>66500</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>134400</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4321,97 +4454,103 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-      <c r="Z58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA58" s="3">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB58" s="3">
         <v>145200</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>195069700</v>
+        <v>194563500</v>
       </c>
       <c r="E59" s="3">
-        <v>193990700</v>
+        <v>187888900</v>
       </c>
       <c r="F59" s="3">
-        <v>207337200</v>
+        <v>186849700</v>
       </c>
       <c r="G59" s="3">
-        <v>218631700</v>
+        <v>199704900</v>
       </c>
       <c r="H59" s="3">
-        <v>210676300</v>
+        <v>210583600</v>
       </c>
       <c r="I59" s="3">
-        <v>209367500</v>
+        <v>202921100</v>
       </c>
       <c r="J59" s="3">
+        <v>201660500</v>
+      </c>
+      <c r="K59" s="3">
         <v>202033900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>212690700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>202449700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>202967500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>189350900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>195910000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>204607100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>192352600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>183708300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>173641900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>166350200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>174071400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>171658700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>169128400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>163182200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>164999500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>168698700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>170079200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4490,168 +4629,177 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5462500</v>
+        <v>4972900</v>
       </c>
       <c r="E61" s="3">
-        <v>4975900</v>
+        <v>5261400</v>
       </c>
       <c r="F61" s="3">
-        <v>4975200</v>
+        <v>4792800</v>
       </c>
       <c r="G61" s="3">
-        <v>4974400</v>
+        <v>4792100</v>
       </c>
       <c r="H61" s="3">
-        <v>3479500</v>
+        <v>4791300</v>
       </c>
       <c r="I61" s="3">
-        <v>3704000</v>
+        <v>3351400</v>
       </c>
       <c r="J61" s="3">
+        <v>3567600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3703200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4086200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3476700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3950400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3170800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3148300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3762200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3244200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3340200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3301600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3152400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3264900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3264100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="X61" s="3">
-        <v>3227600</v>
       </c>
       <c r="Y61" s="3">
         <v>3227600</v>
       </c>
       <c r="Z61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="AA61" s="3">
         <v>3331000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7968800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>561600</v>
+        <v>455600</v>
       </c>
       <c r="E62" s="3">
-        <v>535400</v>
+        <v>541000</v>
       </c>
       <c r="F62" s="3">
-        <v>241000</v>
+        <v>515700</v>
       </c>
       <c r="G62" s="3">
-        <v>241800</v>
+        <v>232200</v>
       </c>
       <c r="H62" s="3">
-        <v>283800</v>
+        <v>232900</v>
       </c>
       <c r="I62" s="3">
-        <v>310900</v>
+        <v>273400</v>
       </c>
       <c r="J62" s="3">
+        <v>299400</v>
+      </c>
+      <c r="K62" s="3">
         <v>289800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>296300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>312000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>306800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>245700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>316500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>329100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>311700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>252500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>245100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>260900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>353800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>322200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>299900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>555900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>571600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>569300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>527800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>220309800</v>
+        <v>218136900</v>
       </c>
       <c r="E66" s="3">
-        <v>216024700</v>
+        <v>212200000</v>
       </c>
       <c r="F66" s="3">
-        <v>227194500</v>
+        <v>208072600</v>
       </c>
       <c r="G66" s="3">
-        <v>238289900</v>
+        <v>218831200</v>
       </c>
       <c r="H66" s="3">
-        <v>228046700</v>
+        <v>229518200</v>
       </c>
       <c r="I66" s="3">
-        <v>226527700</v>
+        <v>219652000</v>
       </c>
       <c r="J66" s="3">
+        <v>218189000</v>
+      </c>
+      <c r="K66" s="3">
         <v>219042400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>229938400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>220045600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>222118300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>208782500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>212626100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>222876800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>208029000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>199057700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>188184800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>180148600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>188336800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>185875900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>183664300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>177640000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>179730400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>183510200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>181518900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,70 +5324,73 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1681200</v>
+        <v>1619300</v>
       </c>
       <c r="E70" s="3">
-        <v>1681200</v>
+        <v>1619300</v>
       </c>
       <c r="F70" s="3">
-        <v>1681200</v>
+        <v>1619300</v>
       </c>
       <c r="G70" s="3">
-        <v>1681200</v>
+        <v>1619300</v>
       </c>
       <c r="H70" s="3">
-        <v>1900400</v>
+        <v>1619300</v>
       </c>
       <c r="I70" s="3">
-        <v>2435800</v>
+        <v>1830500</v>
       </c>
       <c r="J70" s="3">
+        <v>2346100</v>
+      </c>
+      <c r="K70" s="3">
         <v>1694700</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1746400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1730300</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1771200</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1771900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1759700</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1871200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1789800</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1737500</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1717800</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="U70" s="3">
-        <v>1699000</v>
       </c>
       <c r="V70" s="3">
         <v>1699000</v>
       </c>
       <c r="W70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="X70" s="3">
         <v>1679700</v>
@@ -5232,7 +5399,7 @@
         <v>1679700</v>
       </c>
       <c r="Z70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="AA70" s="3">
         <v>1733900</v>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5490,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11735900</v>
+        <v>11686500</v>
       </c>
       <c r="E72" s="3">
-        <v>11686400</v>
+        <v>11303900</v>
       </c>
       <c r="F72" s="3">
-        <v>11401100</v>
+        <v>11256200</v>
       </c>
       <c r="G72" s="3">
-        <v>11047400</v>
+        <v>10981400</v>
       </c>
       <c r="H72" s="3">
-        <v>10534600</v>
+        <v>10640700</v>
       </c>
       <c r="I72" s="3">
-        <v>10014200</v>
+        <v>10146800</v>
       </c>
       <c r="J72" s="3">
+        <v>9645600</v>
+      </c>
+      <c r="K72" s="3">
         <v>9584700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9508600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9097700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>8970400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8820800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8824300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9049100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9166500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8793700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8575200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8096800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8286700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>7994600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7669100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7765800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7402700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7415700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7190600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19884300</v>
+        <v>19561700</v>
       </c>
       <c r="E76" s="3">
-        <v>19175500</v>
+        <v>19152300</v>
       </c>
       <c r="F76" s="3">
-        <v>19044100</v>
+        <v>18469600</v>
       </c>
       <c r="G76" s="3">
-        <v>19353400</v>
+        <v>18343000</v>
       </c>
       <c r="H76" s="3">
-        <v>18777500</v>
+        <v>18641000</v>
       </c>
       <c r="I76" s="3">
-        <v>18022900</v>
+        <v>18086300</v>
       </c>
       <c r="J76" s="3">
+        <v>17359400</v>
+      </c>
+      <c r="K76" s="3">
         <v>17595700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18245000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18096500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18150300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18044400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>17333600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18173600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16992000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16570400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16982200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14953100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>15777700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15467600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14931800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14914700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14928100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>15340000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>15133400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>349900</v>
+        <v>687800</v>
       </c>
       <c r="E81" s="3">
-        <v>589400</v>
+        <v>337000</v>
       </c>
       <c r="F81" s="3">
-        <v>644200</v>
+        <v>567700</v>
       </c>
       <c r="G81" s="3">
-        <v>809400</v>
+        <v>620500</v>
       </c>
       <c r="H81" s="3">
-        <v>765100</v>
+        <v>779600</v>
       </c>
       <c r="I81" s="3">
-        <v>675800</v>
+        <v>737000</v>
       </c>
       <c r="J81" s="3">
+        <v>650900</v>
+      </c>
+      <c r="K81" s="3">
         <v>703600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>575700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>575000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>407300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>307000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>560600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>564600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>471800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>479600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>441400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>412000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>531500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>503600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>154100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>608000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>427200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>423300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>559300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,8 +6192,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6075,8 +6273,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1415400</v>
+        <v>661000</v>
       </c>
       <c r="E89" s="3">
-        <v>1489000</v>
+        <v>1363300</v>
       </c>
       <c r="F89" s="3">
-        <v>-353700</v>
+        <v>1434100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1501700</v>
+        <v>-340600</v>
       </c>
       <c r="H89" s="3">
-        <v>664500</v>
+        <v>-1446400</v>
       </c>
       <c r="I89" s="3">
-        <v>203500</v>
+        <v>640000</v>
       </c>
       <c r="J89" s="3">
+        <v>196000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-760600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>897600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2264700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2398200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>65200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1309800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>160000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1507500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-944600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1433100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>812400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>303400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>323700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>483700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>468900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>983800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-474800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1057900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,8 +6804,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6596,77 +6816,80 @@
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
-        <v>-14300</v>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G91" s="3">
-        <v>-16500</v>
+        <v>-13700</v>
       </c>
       <c r="H91" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="I91" s="3">
-        <v>-24000</v>
+        <v>-15200</v>
       </c>
       <c r="J91" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-4500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-31000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-33700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-29000</v>
       </c>
       <c r="N91" s="3">
         <v>-29000</v>
       </c>
       <c r="O91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-35100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-16700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-38800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-21100</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-35700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-29800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-33000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-39900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-72100</v>
+        <v>-91100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1944000</v>
+        <v>-69400</v>
       </c>
       <c r="F94" s="3">
-        <v>-39000</v>
+        <v>-1872400</v>
       </c>
       <c r="G94" s="3">
-        <v>200500</v>
+        <v>-37600</v>
       </c>
       <c r="H94" s="3">
-        <v>-132900</v>
+        <v>193100</v>
       </c>
       <c r="I94" s="3">
-        <v>-60100</v>
+        <v>-128000</v>
       </c>
       <c r="J94" s="3">
+        <v>-57900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-610400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-103700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-430100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-73800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-76100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-98200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-175800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-43600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-101200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-41400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-51200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-104900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-49100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-111600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>13800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-77600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,88 +7167,92 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-309400</v>
+        <v>-313200</v>
       </c>
       <c r="E96" s="3">
-        <v>-325100</v>
+        <v>-298000</v>
       </c>
       <c r="F96" s="3">
-        <v>-295100</v>
+        <v>-313200</v>
       </c>
       <c r="G96" s="3">
-        <v>-309400</v>
+        <v>-284200</v>
       </c>
       <c r="H96" s="3">
-        <v>-253800</v>
+        <v>-298000</v>
       </c>
       <c r="I96" s="3">
+        <v>-244400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-245200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-254500</v>
       </c>
-      <c r="J96" s="3">
-        <v>-254500</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-263100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-259100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-267600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-267700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-266600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-270300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-262500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-245600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-240500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-223100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-231900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-222800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-221000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-214300</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-217300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-213600</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-212800</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,244 +7497,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-159900</v>
+        <v>-553300</v>
       </c>
       <c r="E100" s="3">
-        <v>946800</v>
+        <v>-154000</v>
       </c>
       <c r="F100" s="3">
-        <v>-265800</v>
+        <v>912000</v>
       </c>
       <c r="G100" s="3">
-        <v>902500</v>
+        <v>-256000</v>
       </c>
       <c r="H100" s="3">
-        <v>-1044400</v>
+        <v>869300</v>
       </c>
       <c r="I100" s="3">
-        <v>363400</v>
+        <v>-1006000</v>
       </c>
       <c r="J100" s="3">
+        <v>350000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-416700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>360600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2221700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>446500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-352500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-704000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-135100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-551900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-462700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-475700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-426600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-299600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-719700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-14900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-337100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-277600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-901100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-574600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>250800</v>
+        <v>-33300</v>
       </c>
       <c r="E101" s="3">
-        <v>58600</v>
+        <v>241600</v>
       </c>
       <c r="F101" s="3">
-        <v>-48100</v>
+        <v>56400</v>
       </c>
       <c r="G101" s="3">
-        <v>-9800</v>
+        <v>-46300</v>
       </c>
       <c r="H101" s="3">
-        <v>72800</v>
+        <v>-9400</v>
       </c>
       <c r="I101" s="3">
-        <v>-42000</v>
+        <v>70200</v>
       </c>
       <c r="J101" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-47300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-183400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-37600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-127900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>280300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-52200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>29000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-64200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-59300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>153700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-48000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>28600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>57200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>26800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-77400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-59500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-23800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>50700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1434100</v>
+        <v>-16600</v>
       </c>
       <c r="E102" s="3">
-        <v>550400</v>
+        <v>1381400</v>
       </c>
       <c r="F102" s="3">
-        <v>-706600</v>
+        <v>530100</v>
       </c>
       <c r="G102" s="3">
-        <v>-408500</v>
+        <v>-680600</v>
       </c>
       <c r="H102" s="3">
-        <v>-440000</v>
+        <v>-393400</v>
       </c>
       <c r="I102" s="3">
-        <v>464800</v>
+        <v>-423800</v>
       </c>
       <c r="J102" s="3">
+        <v>447700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1835100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>971100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-270600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2672800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-270800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>408500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-132600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>847700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1010000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>296500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-355300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>390700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>5200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>535100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>456300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,187 +665,193 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8683000</v>
+        <v>5610400</v>
       </c>
       <c r="E8" s="3">
-        <v>7618400</v>
+        <v>8893300</v>
       </c>
       <c r="F8" s="3">
-        <v>7123000</v>
+        <v>7803000</v>
       </c>
       <c r="G8" s="3">
-        <v>6286200</v>
+        <v>7295500</v>
       </c>
       <c r="H8" s="3">
-        <v>7572100</v>
+        <v>6438500</v>
       </c>
       <c r="I8" s="3">
-        <v>6825800</v>
+        <v>7755500</v>
       </c>
       <c r="J8" s="3">
+        <v>6991100</v>
+      </c>
+      <c r="K8" s="3">
         <v>6584900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6352300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7814900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7309900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6719700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6499400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7722600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6547800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5963500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5572000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6225700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4358700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5138500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4511500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6435900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4134100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6044500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5384500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1817600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -927,8 +933,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,8 +1019,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,8 +1053,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1124,8 +1137,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1207,8 +1223,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1272,8 +1291,8 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>5</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>5</v>
@@ -1290,8 +1309,11 @@
       <c r="AC14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,8 +1395,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1426,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8035000</v>
+        <v>4799300</v>
       </c>
       <c r="E17" s="3">
-        <v>5671500</v>
+        <v>8229600</v>
       </c>
       <c r="F17" s="3">
-        <v>636400</v>
+        <v>5808900</v>
       </c>
       <c r="G17" s="3">
-        <v>-635000</v>
+        <v>651900</v>
       </c>
       <c r="H17" s="3">
-        <v>8416800</v>
+        <v>-650400</v>
       </c>
       <c r="I17" s="3">
-        <v>5181900</v>
+        <v>8620700</v>
       </c>
       <c r="J17" s="3">
+        <v>5307400</v>
+      </c>
+      <c r="K17" s="3">
         <v>8217900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>73600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8232700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6866800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11286900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4486600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5861600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7283200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7381400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8084600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5576500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3534600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4363200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3910000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6241700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3305000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5519100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4607800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>965700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>648000</v>
+        <v>811100</v>
       </c>
       <c r="E18" s="3">
-        <v>1946900</v>
+        <v>663700</v>
       </c>
       <c r="F18" s="3">
-        <v>6486600</v>
+        <v>1994100</v>
       </c>
       <c r="G18" s="3">
-        <v>6921200</v>
+        <v>6643700</v>
       </c>
       <c r="H18" s="3">
-        <v>-844700</v>
+        <v>7088900</v>
       </c>
       <c r="I18" s="3">
-        <v>1643900</v>
+        <v>-865200</v>
       </c>
       <c r="J18" s="3">
+        <v>1683700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1633000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6278700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-417800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>443100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-4567200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2012900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1861100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-735400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1417900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>649200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>824100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>775400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>601500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>194200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>829000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>525400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>776700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>852000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1598,62 +1630,63 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>213300</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-1377000</v>
+        <v>218500</v>
       </c>
       <c r="F20" s="3">
-        <v>-5668600</v>
+        <v>-1410400</v>
       </c>
       <c r="G20" s="3">
-        <v>-6011400</v>
+        <v>-5805900</v>
       </c>
       <c r="H20" s="3">
-        <v>1826100</v>
+        <v>-6157000</v>
       </c>
       <c r="I20" s="3">
-        <v>-671100</v>
+        <v>1870400</v>
       </c>
       <c r="J20" s="3">
+        <v>-687400</v>
+      </c>
+      <c r="K20" s="3">
         <v>2577600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5215500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1198500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>381000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5197300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1420200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1075900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1424300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2082500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3197800</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1681,8 +1714,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1764,257 +1800,269 @@
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>91800</v>
+      <c r="D22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>86100</v>
+        <v>94100</v>
       </c>
       <c r="F22" s="3">
-        <v>73000</v>
+        <v>88100</v>
       </c>
       <c r="G22" s="3">
-        <v>70900</v>
+        <v>74800</v>
       </c>
       <c r="H22" s="3">
-        <v>59300</v>
+        <v>72600</v>
       </c>
       <c r="I22" s="3">
-        <v>58600</v>
+        <v>60700</v>
       </c>
       <c r="J22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K22" s="3">
         <v>60800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>68900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>65900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>70600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>70700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>74800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>53900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>66600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>67700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>60100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>53000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>58700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>56500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>60300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>40900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>64700</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>61500</v>
       </c>
       <c r="AB22" s="3">
         <v>61500</v>
       </c>
       <c r="AC22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="AD22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>769500</v>
+        <v>811100</v>
       </c>
       <c r="E23" s="3">
-        <v>483800</v>
+        <v>788100</v>
       </c>
       <c r="F23" s="3">
-        <v>744900</v>
+        <v>495600</v>
       </c>
       <c r="G23" s="3">
-        <v>838900</v>
+        <v>763000</v>
       </c>
       <c r="H23" s="3">
-        <v>922100</v>
+        <v>859300</v>
       </c>
       <c r="I23" s="3">
-        <v>914200</v>
+        <v>944400</v>
       </c>
       <c r="J23" s="3">
+        <v>936300</v>
+      </c>
+      <c r="K23" s="3">
         <v>883800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1003100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>711900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>758200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>559500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>522100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>710300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>635100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>597900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>617400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>589100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>771000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>716700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>545000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>134000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>788100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>460700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>715200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>790500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-8000</v>
+        <v>131100</v>
       </c>
       <c r="E24" s="3">
-        <v>104900</v>
+        <v>60000</v>
       </c>
       <c r="F24" s="3">
-        <v>158400</v>
+        <v>107400</v>
       </c>
       <c r="G24" s="3">
-        <v>193800</v>
+        <v>162200</v>
       </c>
       <c r="H24" s="3">
-        <v>31800</v>
+        <v>198500</v>
       </c>
       <c r="I24" s="3">
-        <v>121500</v>
+        <v>32600</v>
       </c>
       <c r="J24" s="3">
+        <v>124400</v>
+      </c>
+      <c r="K24" s="3">
         <v>130200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>244000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>78200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>47900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>219000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>74800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>71400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>85200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>133700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>137000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>89600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-43900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>155500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-17100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>139800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>154400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,174 +2144,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>777500</v>
+        <v>680000</v>
       </c>
       <c r="E26" s="3">
-        <v>379000</v>
+        <v>728100</v>
       </c>
       <c r="F26" s="3">
-        <v>586500</v>
+        <v>388100</v>
       </c>
       <c r="G26" s="3">
-        <v>645100</v>
+        <v>600700</v>
       </c>
       <c r="H26" s="3">
-        <v>890300</v>
+        <v>660700</v>
       </c>
       <c r="I26" s="3">
-        <v>792600</v>
+        <v>911900</v>
       </c>
       <c r="J26" s="3">
+        <v>811900</v>
+      </c>
+      <c r="K26" s="3">
         <v>753600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>759100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>671600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>680000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>511700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>303000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>635400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>626800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>526600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>549700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>503800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>637300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>579600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>455400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>177900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>632600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>477800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>575400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>636100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>687800</v>
+        <v>597000</v>
       </c>
       <c r="E27" s="3">
-        <v>337000</v>
+        <v>636300</v>
       </c>
       <c r="F27" s="3">
-        <v>567700</v>
+        <v>345200</v>
       </c>
       <c r="G27" s="3">
-        <v>620500</v>
+        <v>581500</v>
       </c>
       <c r="H27" s="3">
-        <v>786900</v>
+        <v>635600</v>
       </c>
       <c r="I27" s="3">
-        <v>737000</v>
+        <v>805900</v>
       </c>
       <c r="J27" s="3">
+        <v>754800</v>
+      </c>
+      <c r="K27" s="3">
         <v>650900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>703600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>576400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>575000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>407300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>307000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>562100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>564600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>471800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>479600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>441400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>412000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>531500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>503600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>148800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>608000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>427200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>423300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>559300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2345,16 +2402,19 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>68100</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
@@ -2362,11 +2422,11 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-7400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
@@ -2374,24 +2434,24 @@
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-800</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2410,12 +2470,12 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>5200</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2428,8 +2488,11 @@
       <c r="AC29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2574,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,62 +2660,65 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-213300</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>1377000</v>
+        <v>-218500</v>
       </c>
       <c r="F32" s="3">
-        <v>5668600</v>
+        <v>1410400</v>
       </c>
       <c r="G32" s="3">
-        <v>6011400</v>
+        <v>5805900</v>
       </c>
       <c r="H32" s="3">
-        <v>-1826100</v>
+        <v>6157000</v>
       </c>
       <c r="I32" s="3">
-        <v>671100</v>
+        <v>-1870400</v>
       </c>
       <c r="J32" s="3">
+        <v>687400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2577600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5215500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1198500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-381000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5197300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1420200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1075900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1424300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2082500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2677,91 +2746,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>687800</v>
+        <v>597000</v>
       </c>
       <c r="E33" s="3">
-        <v>337000</v>
+        <v>704400</v>
       </c>
       <c r="F33" s="3">
-        <v>567700</v>
+        <v>345200</v>
       </c>
       <c r="G33" s="3">
-        <v>620500</v>
+        <v>581500</v>
       </c>
       <c r="H33" s="3">
-        <v>779600</v>
+        <v>635600</v>
       </c>
       <c r="I33" s="3">
-        <v>737000</v>
+        <v>798500</v>
       </c>
       <c r="J33" s="3">
+        <v>754800</v>
+      </c>
+      <c r="K33" s="3">
         <v>650900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>703600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>575700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>575000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>407300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>307000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>560600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>564600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>471800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>479600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>441400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>412000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>531500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>503600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>154100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>608000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>427200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>423300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>559300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2918,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>687800</v>
+        <v>597000</v>
       </c>
       <c r="E35" s="3">
-        <v>337000</v>
+        <v>704400</v>
       </c>
       <c r="F35" s="3">
-        <v>567700</v>
+        <v>345200</v>
       </c>
       <c r="G35" s="3">
-        <v>620500</v>
+        <v>581500</v>
       </c>
       <c r="H35" s="3">
-        <v>779600</v>
+        <v>635600</v>
       </c>
       <c r="I35" s="3">
-        <v>737000</v>
+        <v>798500</v>
       </c>
       <c r="J35" s="3">
+        <v>754800</v>
+      </c>
+      <c r="K35" s="3">
         <v>650900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>703600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>575700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>575000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>407300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>307000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>560600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>564600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>471800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>479600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>441400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>412000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>531500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>503600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>154100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>608000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>427200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>423300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>559300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3129,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,91 +3161,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6782400</v>
+        <v>6689600</v>
       </c>
       <c r="E41" s="3">
-        <v>6795400</v>
+        <v>6946700</v>
       </c>
       <c r="F41" s="3">
-        <v>5492100</v>
+        <v>6960000</v>
       </c>
       <c r="G41" s="3">
-        <v>4887500</v>
+        <v>5625200</v>
       </c>
       <c r="H41" s="3">
-        <v>5659900</v>
+        <v>5005900</v>
       </c>
       <c r="I41" s="3">
-        <v>6023700</v>
+        <v>5797000</v>
       </c>
       <c r="J41" s="3">
+        <v>6169600</v>
+      </c>
+      <c r="K41" s="3">
         <v>6381000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6294500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8243500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7212500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7648900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5057300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5235500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5160800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5019000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4177000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5554400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4411000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4235200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4173500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4536700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4168300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4160100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>3698300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6639000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3242,8 +3331,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3316,17 +3408,20 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-      <c r="AA43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB43" s="3">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC43" s="3">
         <v>2152600</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3408,8 +3503,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3491,8 +3589,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3574,257 +3675,269 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>112617600</v>
+        <v>111522100</v>
       </c>
       <c r="E47" s="3">
-        <v>111148800</v>
+        <v>115345800</v>
       </c>
       <c r="F47" s="3">
-        <v>108010000</v>
+        <v>113841400</v>
       </c>
       <c r="G47" s="3">
-        <v>113673500</v>
+        <v>110626600</v>
       </c>
       <c r="H47" s="3">
-        <v>120057400</v>
+        <v>116427300</v>
       </c>
       <c r="I47" s="3">
-        <v>114638300</v>
+        <v>122965800</v>
       </c>
       <c r="J47" s="3">
+        <v>117415400</v>
+      </c>
+      <c r="K47" s="3">
         <v>113278700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>113944500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>121929100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>120529600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>122762400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>119078000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>113870800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>121190500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>111944300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>108093500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>103629300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>95237800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>100356700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>99454100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>97862100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>94758000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>96311200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>98931100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>96419000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7306000</v>
+        <v>7517000</v>
       </c>
       <c r="E48" s="3">
-        <v>7340000</v>
+        <v>7483000</v>
       </c>
       <c r="F48" s="3">
-        <v>7073800</v>
+        <v>7517800</v>
       </c>
       <c r="G48" s="3">
-        <v>6820700</v>
+        <v>7245200</v>
       </c>
       <c r="H48" s="3">
-        <v>6587800</v>
+        <v>6985900</v>
       </c>
       <c r="I48" s="3">
-        <v>6219000</v>
+        <v>6747400</v>
       </c>
       <c r="J48" s="3">
+        <v>6369600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5904400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5732800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5815500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5677700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5810200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5777200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5696300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6081100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5732700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5388000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5447100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5283000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5523200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5452500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5259300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5234800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5196100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5066500</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5064200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9712100</v>
+        <v>10288100</v>
       </c>
       <c r="E49" s="3">
-        <v>9925500</v>
+        <v>9947400</v>
       </c>
       <c r="F49" s="3">
-        <v>9625300</v>
+        <v>10165900</v>
       </c>
       <c r="G49" s="3">
-        <v>7080300</v>
+        <v>9858500</v>
       </c>
       <c r="H49" s="3">
-        <v>7150500</v>
+        <v>7251800</v>
       </c>
       <c r="I49" s="3">
-        <v>7157000</v>
+        <v>7323700</v>
       </c>
       <c r="J49" s="3">
+        <v>7330400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6991400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7278100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6614800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6646000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6347800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6459400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6171100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6536200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5600300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5475000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5473000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5073000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5305700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5245400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5097800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5018200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5123100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5357600</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5393000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4019,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4105,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1650400</v>
+        <v>2574100</v>
       </c>
       <c r="E52" s="3">
-        <v>1561400</v>
+        <v>1690400</v>
       </c>
       <c r="F52" s="3">
-        <v>1500000</v>
+        <v>1599300</v>
       </c>
       <c r="G52" s="3">
-        <v>1391500</v>
+        <v>1536300</v>
       </c>
       <c r="H52" s="3">
-        <v>1336500</v>
+        <v>1425200</v>
       </c>
       <c r="I52" s="3">
-        <v>1199800</v>
+        <v>1368900</v>
       </c>
       <c r="J52" s="3">
+        <v>1228900</v>
+      </c>
+      <c r="K52" s="3">
         <v>1134000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1175800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1264300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1138500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1203800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1260800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1134400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1186400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1034900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>983800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>920200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>815300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1002700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1011700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>963800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1096200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1117100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1064800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1112400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4277,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>239317800</v>
+        <v>246536800</v>
       </c>
       <c r="E54" s="3">
-        <v>232971600</v>
+        <v>245115300</v>
       </c>
       <c r="F54" s="3">
-        <v>228161400</v>
+        <v>238615300</v>
       </c>
       <c r="G54" s="3">
-        <v>238793500</v>
+        <v>233688700</v>
       </c>
       <c r="H54" s="3">
-        <v>249778500</v>
+        <v>244578300</v>
       </c>
       <c r="I54" s="3">
-        <v>239568800</v>
+        <v>255829400</v>
       </c>
       <c r="J54" s="3">
+        <v>245372300</v>
+      </c>
+      <c r="K54" s="3">
         <v>237894500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>238332700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>249929800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>239872500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>242039700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>228598700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>231719500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>242921600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>226810900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>217365600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>206884800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>196741900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>205813500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>203042500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>200275800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>194234300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>196338200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>200584100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>198386200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4397,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,8 +4429,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4383,46 +4513,49 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>4300</v>
+      <c r="D58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F58" s="3">
         <v>700</v>
       </c>
-      <c r="F58" s="3">
-        <v>78800</v>
-      </c>
       <c r="G58" s="3">
-        <v>4300</v>
+        <v>80700</v>
       </c>
       <c r="H58" s="3">
-        <v>96200</v>
+        <v>4400</v>
       </c>
       <c r="I58" s="3">
-        <v>66500</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+        <v>98500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>134400</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4457,100 +4590,106 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB58" s="3">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC58" s="3">
         <v>145200</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>194563500</v>
+        <v>205899100</v>
       </c>
       <c r="E59" s="3">
-        <v>187888900</v>
+        <v>199276800</v>
       </c>
       <c r="F59" s="3">
-        <v>186849700</v>
+        <v>192440500</v>
       </c>
       <c r="G59" s="3">
-        <v>199704900</v>
+        <v>191376100</v>
       </c>
       <c r="H59" s="3">
-        <v>210583600</v>
+        <v>204542800</v>
       </c>
       <c r="I59" s="3">
-        <v>202921100</v>
+        <v>215685000</v>
       </c>
       <c r="J59" s="3">
+        <v>207836800</v>
+      </c>
+      <c r="K59" s="3">
         <v>201660500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>202033900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>212690700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>202449700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>202967500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>189350900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>195910000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>204607100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>192352600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>183708300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>173641900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>166350200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>174071400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>171658700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>169128400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>163182200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>164999500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>168698700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>170079200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4632,174 +4771,183 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4972900</v>
+        <v>5094100</v>
       </c>
       <c r="E61" s="3">
-        <v>5261400</v>
+        <v>5093300</v>
       </c>
       <c r="F61" s="3">
-        <v>4792800</v>
+        <v>5388900</v>
       </c>
       <c r="G61" s="3">
-        <v>4792100</v>
+        <v>4908900</v>
       </c>
       <c r="H61" s="3">
-        <v>4791300</v>
+        <v>4908100</v>
       </c>
       <c r="I61" s="3">
-        <v>3351400</v>
+        <v>4907400</v>
       </c>
       <c r="J61" s="3">
+        <v>3432600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3567600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3703200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4086200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3476700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3950400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3170800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3148300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3762200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3244200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3340200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3301600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3152400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3264900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3264100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>3227600</v>
       </c>
       <c r="Z61" s="3">
         <v>3227600</v>
       </c>
       <c r="AA61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="AB61" s="3">
         <v>3331000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7968800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>455600</v>
+        <v>379300</v>
       </c>
       <c r="E62" s="3">
-        <v>541000</v>
+        <v>466700</v>
       </c>
       <c r="F62" s="3">
-        <v>515700</v>
+        <v>554100</v>
       </c>
       <c r="G62" s="3">
-        <v>232200</v>
+        <v>528100</v>
       </c>
       <c r="H62" s="3">
-        <v>232900</v>
+        <v>237800</v>
       </c>
       <c r="I62" s="3">
-        <v>273400</v>
+        <v>238500</v>
       </c>
       <c r="J62" s="3">
+        <v>280000</v>
+      </c>
+      <c r="K62" s="3">
         <v>299400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>289800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>296300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>312000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>306800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>245700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>316500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>329100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>311700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>252500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>245100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>260900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>353800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>322200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>299900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>555900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>571600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>569300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>527800</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5029,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5115,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5201,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>218136900</v>
+        <v>229294600</v>
       </c>
       <c r="E66" s="3">
-        <v>212200000</v>
+        <v>223421300</v>
       </c>
       <c r="F66" s="3">
-        <v>208072600</v>
+        <v>217340500</v>
       </c>
       <c r="G66" s="3">
-        <v>218831200</v>
+        <v>213113100</v>
       </c>
       <c r="H66" s="3">
-        <v>229518200</v>
+        <v>224132400</v>
       </c>
       <c r="I66" s="3">
-        <v>219652000</v>
+        <v>235078300</v>
       </c>
       <c r="J66" s="3">
+        <v>224973100</v>
+      </c>
+      <c r="K66" s="3">
         <v>218189000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>219042400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>229938400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>220045600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>222118300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>208782500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>212626100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>222876800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>208029000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>199057700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>188184800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>180148600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>188336800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>185875900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>183664300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>177640000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>179730400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>183510200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>181518900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5321,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5405,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,73 +5491,76 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1619300</v>
+        <v>1658500</v>
       </c>
       <c r="E70" s="3">
-        <v>1619300</v>
+        <v>1658500</v>
       </c>
       <c r="F70" s="3">
-        <v>1619300</v>
+        <v>1658500</v>
       </c>
       <c r="G70" s="3">
-        <v>1619300</v>
+        <v>1658500</v>
       </c>
       <c r="H70" s="3">
-        <v>1619300</v>
+        <v>1658500</v>
       </c>
       <c r="I70" s="3">
-        <v>1830500</v>
+        <v>1658500</v>
       </c>
       <c r="J70" s="3">
+        <v>1874800</v>
+      </c>
+      <c r="K70" s="3">
         <v>2346100</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1694700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1746400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1730300</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1771200</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1771900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1759700</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1871200</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1789800</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1737500</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1717800</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="V70" s="3">
-        <v>1699000</v>
       </c>
       <c r="W70" s="3">
         <v>1699000</v>
       </c>
       <c r="X70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="Y70" s="3">
         <v>1679700</v>
@@ -5402,7 +5569,7 @@
         <v>1679700</v>
       </c>
       <c r="AA70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="AB70" s="3">
         <v>1733900</v>
@@ -5410,8 +5577,11 @@
       <c r="AC70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5663,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11686500</v>
+        <v>8444400</v>
       </c>
       <c r="E72" s="3">
-        <v>11303900</v>
+        <v>11969600</v>
       </c>
       <c r="F72" s="3">
-        <v>11256200</v>
+        <v>11577800</v>
       </c>
       <c r="G72" s="3">
-        <v>10981400</v>
+        <v>11528900</v>
       </c>
       <c r="H72" s="3">
-        <v>10640700</v>
+        <v>11247400</v>
       </c>
       <c r="I72" s="3">
-        <v>10146800</v>
+        <v>10898500</v>
       </c>
       <c r="J72" s="3">
+        <v>10392600</v>
+      </c>
+      <c r="K72" s="3">
         <v>9645600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9584700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9508600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9097700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>8970400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8820800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8824300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9049100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9166500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>8793700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8575200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8096800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8286700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>7994600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7669100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7765800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7402700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7415700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7190600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5835,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5921,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6007,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19561700</v>
+        <v>15583700</v>
       </c>
       <c r="E76" s="3">
-        <v>19152300</v>
+        <v>20035500</v>
       </c>
       <c r="F76" s="3">
-        <v>18469600</v>
+        <v>19616300</v>
       </c>
       <c r="G76" s="3">
-        <v>18343000</v>
+        <v>18917000</v>
       </c>
       <c r="H76" s="3">
-        <v>18641000</v>
+        <v>18787400</v>
       </c>
       <c r="I76" s="3">
-        <v>18086300</v>
+        <v>19092600</v>
       </c>
       <c r="J76" s="3">
+        <v>18524400</v>
+      </c>
+      <c r="K76" s="3">
         <v>17359400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17595700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18245000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18096500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18150300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18044400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17333600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18173600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16992000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16570400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16982200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14953100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>15777700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15467600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>14931800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14914700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14928100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>15340000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>15133400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6179,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>687800</v>
+        <v>597000</v>
       </c>
       <c r="E81" s="3">
-        <v>337000</v>
+        <v>704400</v>
       </c>
       <c r="F81" s="3">
-        <v>567700</v>
+        <v>345200</v>
       </c>
       <c r="G81" s="3">
-        <v>620500</v>
+        <v>581500</v>
       </c>
       <c r="H81" s="3">
-        <v>779600</v>
+        <v>635600</v>
       </c>
       <c r="I81" s="3">
-        <v>737000</v>
+        <v>798500</v>
       </c>
       <c r="J81" s="3">
+        <v>754800</v>
+      </c>
+      <c r="K81" s="3">
         <v>650900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>703600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>575700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>575000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>407300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>307000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>560600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>564600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>471800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>479600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>441400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>412000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>531500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>503600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>154100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>608000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>427200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>423300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>559300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,8 +6390,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6276,8 +6474,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6560,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6646,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6732,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6818,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6904,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>661000</v>
+        <v>14800</v>
       </c>
       <c r="E89" s="3">
-        <v>1363300</v>
+        <v>677000</v>
       </c>
       <c r="F89" s="3">
-        <v>1434100</v>
+        <v>1396300</v>
       </c>
       <c r="G89" s="3">
-        <v>-340600</v>
+        <v>1468900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1446400</v>
+        <v>-348900</v>
       </c>
       <c r="I89" s="3">
-        <v>640000</v>
+        <v>-1481500</v>
       </c>
       <c r="J89" s="3">
+        <v>655600</v>
+      </c>
+      <c r="K89" s="3">
         <v>196000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-760600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>897600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2264700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2398200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>65200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1309800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>160000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1507500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-944600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1433100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>812400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>303400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>323700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>483700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>468900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>983800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-474800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1057900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7024,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-22000</v>
       </c>
       <c r="G91" s="3">
-        <v>-13700</v>
+        <v>-21000</v>
       </c>
       <c r="H91" s="3">
-        <v>-15900</v>
+        <v>-32000</v>
       </c>
       <c r="I91" s="3">
-        <v>-15200</v>
+        <v>-6000</v>
       </c>
       <c r="J91" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-23100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-31000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-33700</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-29000</v>
       </c>
       <c r="O91" s="3">
         <v>-29000</v>
       </c>
       <c r="P91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-35100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-16700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-38800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-21100</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-35700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-29800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-33000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-39900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7194,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7280,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-91100</v>
+        <v>-180700</v>
       </c>
       <c r="E94" s="3">
-        <v>-69400</v>
+        <v>-93300</v>
       </c>
       <c r="F94" s="3">
-        <v>-1872400</v>
+        <v>-71100</v>
       </c>
       <c r="G94" s="3">
-        <v>-37600</v>
+        <v>-1917800</v>
       </c>
       <c r="H94" s="3">
-        <v>193100</v>
+        <v>-38500</v>
       </c>
       <c r="I94" s="3">
-        <v>-128000</v>
+        <v>197800</v>
       </c>
       <c r="J94" s="3">
+        <v>-131100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-57900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-610400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-103700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-430100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-73800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-76100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-98200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-175800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-43600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-101200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-41400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-51200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-104900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-49100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-111600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>13800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-77600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,91 +7400,95 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-313200</v>
+        <v>-323000</v>
       </c>
       <c r="E96" s="3">
-        <v>-298000</v>
+        <v>-320700</v>
       </c>
       <c r="F96" s="3">
-        <v>-313200</v>
+        <v>-305200</v>
       </c>
       <c r="G96" s="3">
-        <v>-284200</v>
+        <v>-320700</v>
       </c>
       <c r="H96" s="3">
-        <v>-298000</v>
+        <v>-291100</v>
       </c>
       <c r="I96" s="3">
-        <v>-244400</v>
+        <v>-305200</v>
       </c>
       <c r="J96" s="3">
+        <v>-250400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-245200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-254500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-263100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-259100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-267600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-267700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-266600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-270300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-262500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-245600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-240500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-223100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-231900</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-222800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-221000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-214300</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-217300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-213600</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-212800</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7570,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7656,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,253 +7742,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-553300</v>
+        <v>-195600</v>
       </c>
       <c r="E100" s="3">
-        <v>-154000</v>
+        <v>-566700</v>
       </c>
       <c r="F100" s="3">
-        <v>912000</v>
+        <v>-157800</v>
       </c>
       <c r="G100" s="3">
-        <v>-256000</v>
+        <v>934100</v>
       </c>
       <c r="H100" s="3">
-        <v>869300</v>
+        <v>-262200</v>
       </c>
       <c r="I100" s="3">
-        <v>-1006000</v>
+        <v>890400</v>
       </c>
       <c r="J100" s="3">
+        <v>-1030400</v>
+      </c>
+      <c r="K100" s="3">
         <v>350000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-416700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>360600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2221700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>446500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-352500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-704000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-135100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-551900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-462700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-475700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-426600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-299600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-719700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-337100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-277600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-901100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-574600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-33300</v>
+        <v>-24400</v>
       </c>
       <c r="E101" s="3">
-        <v>241600</v>
+        <v>-34100</v>
       </c>
       <c r="F101" s="3">
-        <v>56400</v>
+        <v>247400</v>
       </c>
       <c r="G101" s="3">
-        <v>-46300</v>
+        <v>57800</v>
       </c>
       <c r="H101" s="3">
-        <v>-9400</v>
+        <v>-47400</v>
       </c>
       <c r="I101" s="3">
-        <v>70200</v>
+        <v>-9600</v>
       </c>
       <c r="J101" s="3">
+        <v>71900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-40500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-47300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-183400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-37600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-127900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>280300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-52200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>29000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-64200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-59300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>153700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-48000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>28600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>57200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>26800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-77400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-59500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-23800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>50700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16600</v>
+        <v>-385900</v>
       </c>
       <c r="E102" s="3">
-        <v>1381400</v>
+        <v>-17000</v>
       </c>
       <c r="F102" s="3">
-        <v>530100</v>
+        <v>1414800</v>
       </c>
       <c r="G102" s="3">
-        <v>-680600</v>
+        <v>543000</v>
       </c>
       <c r="H102" s="3">
-        <v>-393400</v>
+        <v>-697000</v>
       </c>
       <c r="I102" s="3">
-        <v>-423800</v>
+        <v>-403000</v>
       </c>
       <c r="J102" s="3">
+        <v>-434100</v>
+      </c>
+      <c r="K102" s="3">
         <v>447700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1835100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>971100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-270600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2672800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-270800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>408500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-132600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>847700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1010000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>296500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-18800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-355300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>390700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>5200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>535100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>456300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,199 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5610400</v>
+        <v>5603800</v>
       </c>
       <c r="E8" s="3">
-        <v>8893300</v>
+        <v>5660800</v>
       </c>
       <c r="F8" s="3">
-        <v>7803000</v>
+        <v>8888800</v>
       </c>
       <c r="G8" s="3">
-        <v>7295500</v>
+        <v>7799000</v>
       </c>
       <c r="H8" s="3">
-        <v>6438500</v>
+        <v>5169200</v>
       </c>
       <c r="I8" s="3">
-        <v>7755500</v>
+        <v>4752400</v>
       </c>
       <c r="J8" s="3">
+        <v>7751600</v>
+      </c>
+      <c r="K8" s="3">
         <v>6991100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6584900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6352300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7814900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7309900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6719700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6499400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7722600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6547800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5963500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5572000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6225700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4358700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5138500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>4511500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6435900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>4134100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6044500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5384500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1817600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1031,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1066,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,8 +1153,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1294,8 +1313,8 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
-        <v>5</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>5</v>
@@ -1312,8 +1331,11 @@
       <c r="AD14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1398,8 +1420,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4799300</v>
+        <v>4961900</v>
       </c>
       <c r="E17" s="3">
-        <v>8229600</v>
+        <v>4849400</v>
       </c>
       <c r="F17" s="3">
-        <v>5808900</v>
+        <v>8225400</v>
       </c>
       <c r="G17" s="3">
-        <v>651900</v>
+        <v>5805900</v>
       </c>
       <c r="H17" s="3">
-        <v>-650400</v>
+        <v>4189700</v>
       </c>
       <c r="I17" s="3">
-        <v>8620700</v>
+        <v>4056400</v>
       </c>
       <c r="J17" s="3">
+        <v>8616300</v>
+      </c>
+      <c r="K17" s="3">
         <v>5307400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8217900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>73600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8232700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6866800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11286900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4486600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5861600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7283200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7381400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8084600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5576500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3534600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4363200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3910000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6241700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3305000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5519100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4607800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>965700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>811100</v>
+        <v>641900</v>
       </c>
       <c r="E18" s="3">
-        <v>663700</v>
+        <v>811400</v>
       </c>
       <c r="F18" s="3">
-        <v>1994100</v>
+        <v>663400</v>
       </c>
       <c r="G18" s="3">
-        <v>6643700</v>
+        <v>1993000</v>
       </c>
       <c r="H18" s="3">
-        <v>7088900</v>
+        <v>979500</v>
       </c>
       <c r="I18" s="3">
-        <v>-865200</v>
+        <v>695900</v>
       </c>
       <c r="J18" s="3">
+        <v>-864700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1683700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1633000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6278700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-417800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>443100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4567200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2012900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1861100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-735400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1417900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>649200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>824100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>775400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>601500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>194200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>829000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>525400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>776700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>852000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,8 +1663,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1640,56 +1673,56 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>218500</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-1410400</v>
+        <v>218400</v>
       </c>
       <c r="G20" s="3">
-        <v>-5805900</v>
+        <v>-1409600</v>
       </c>
       <c r="H20" s="3">
-        <v>-6157000</v>
+        <v>74800</v>
       </c>
       <c r="I20" s="3">
-        <v>1870400</v>
+        <v>72600</v>
       </c>
       <c r="J20" s="3">
+        <v>1869400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-687400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2577600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5215500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1198500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>381000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5197300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1420200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1075900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1424300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2082500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3197800</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1717,8 +1750,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1803,266 +1839,278 @@
       <c r="AD21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="3">
-        <v>94100</v>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F22" s="3">
+        <v>94000</v>
+      </c>
+      <c r="G22" s="3">
         <v>88100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>74800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>72600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>68900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>65900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>70600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>70700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>74800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>53900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>66600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>67700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>60100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>53000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>58700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>56500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>60300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>40900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>64700</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>61500</v>
       </c>
       <c r="AC22" s="3">
         <v>61500</v>
       </c>
       <c r="AD22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="AE22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>811100</v>
+        <v>641900</v>
       </c>
       <c r="E23" s="3">
+        <v>811400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>787700</v>
+      </c>
+      <c r="G23" s="3">
+        <v>495300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>979500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>695900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>944000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>936300</v>
+      </c>
+      <c r="L23" s="3">
+        <v>883800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>1003100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>711900</v>
+      </c>
+      <c r="O23" s="3">
+        <v>758200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>559500</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>522100</v>
+      </c>
+      <c r="R23" s="3">
+        <v>710300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>635100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>597900</v>
+      </c>
+      <c r="U23" s="3">
+        <v>617400</v>
+      </c>
+      <c r="V23" s="3">
+        <v>589100</v>
+      </c>
+      <c r="W23" s="3">
+        <v>771000</v>
+      </c>
+      <c r="X23" s="3">
+        <v>716700</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>545000</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>134000</v>
+      </c>
+      <c r="AA23" s="3">
         <v>788100</v>
       </c>
-      <c r="F23" s="3">
-        <v>495600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>763000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>859300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>944400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>936300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>883800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1003100</v>
-      </c>
-      <c r="M23" s="3">
-        <v>711900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>758200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>559500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>522100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>710300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>635100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>597900</v>
-      </c>
-      <c r="T23" s="3">
-        <v>617400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>589100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>771000</v>
-      </c>
-      <c r="W23" s="3">
-        <v>716700</v>
-      </c>
-      <c r="X23" s="3">
-        <v>545000</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>134000</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>788100</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>460700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>715200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>790500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>131100</v>
+        <v>94000</v>
       </c>
       <c r="E24" s="3">
+        <v>131000</v>
+      </c>
+      <c r="F24" s="3">
         <v>60000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>107400</v>
       </c>
-      <c r="G24" s="3">
-        <v>162200</v>
-      </c>
       <c r="H24" s="3">
-        <v>198500</v>
+        <v>233200</v>
       </c>
       <c r="I24" s="3">
+        <v>162100</v>
+      </c>
+      <c r="J24" s="3">
         <v>32600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>124400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>130200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>244000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>78200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>47900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>219000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>74800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>71400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>67700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>85200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>133700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>137000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>89600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-43900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>155500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-17100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>139800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>154400</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>547900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>680400</v>
+      </c>
+      <c r="F26" s="3">
+        <v>727800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>387900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>746300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>533800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>911400</v>
+      </c>
+      <c r="K26" s="3">
+        <v>811900</v>
+      </c>
+      <c r="L26" s="3">
+        <v>753600</v>
+      </c>
+      <c r="M26" s="3">
+        <v>759100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>671600</v>
+      </c>
+      <c r="O26" s="3">
         <v>680000</v>
       </c>
-      <c r="E26" s="3">
-        <v>728100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>388100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>600700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>660700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>911900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>811900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>753600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>759100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>671600</v>
-      </c>
-      <c r="N26" s="3">
-        <v>680000</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>511700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>303000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>635400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>626800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>526600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>549700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>503800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>637300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>579600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>455400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>177900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>632600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>477800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>575400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>636100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>597000</v>
+        <v>488600</v>
       </c>
       <c r="E27" s="3">
-        <v>636300</v>
+        <v>596700</v>
       </c>
       <c r="F27" s="3">
-        <v>345200</v>
+        <v>636000</v>
       </c>
       <c r="G27" s="3">
-        <v>581500</v>
+        <v>345000</v>
       </c>
       <c r="H27" s="3">
-        <v>635600</v>
+        <v>688500</v>
       </c>
       <c r="I27" s="3">
-        <v>805900</v>
+        <v>492300</v>
       </c>
       <c r="J27" s="3">
+        <v>805500</v>
+      </c>
+      <c r="K27" s="3">
         <v>754800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>650900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>703600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>576400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>575000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>407300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>307000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>562100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>564600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>471800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>479600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>441400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>412000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>531500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>503600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>148800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>608000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>427200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>423300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>559300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2405,56 +2462,59 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
         <v>68100</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>-7400</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-800</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1600</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2473,12 +2533,12 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>5200</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,8 +2551,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,8 +2729,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2672,56 +2741,56 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-218500</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>1410400</v>
+        <v>-218400</v>
       </c>
       <c r="G32" s="3">
-        <v>5805900</v>
+        <v>1409600</v>
       </c>
       <c r="H32" s="3">
-        <v>6157000</v>
+        <v>-74800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1870400</v>
+        <v>-72600</v>
       </c>
       <c r="J32" s="3">
+        <v>-1869400</v>
+      </c>
+      <c r="K32" s="3">
         <v>687400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2577600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5215500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1198500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-381000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5197300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1420200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1075900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1424300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2082500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2749,94 +2818,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>597000</v>
+        <v>488600</v>
       </c>
       <c r="E33" s="3">
-        <v>704400</v>
+        <v>596700</v>
       </c>
       <c r="F33" s="3">
-        <v>345200</v>
+        <v>704100</v>
       </c>
       <c r="G33" s="3">
-        <v>581500</v>
+        <v>345000</v>
       </c>
       <c r="H33" s="3">
-        <v>635600</v>
+        <v>688500</v>
       </c>
       <c r="I33" s="3">
-        <v>798500</v>
+        <v>492300</v>
       </c>
       <c r="J33" s="3">
+        <v>798100</v>
+      </c>
+      <c r="K33" s="3">
         <v>754800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>650900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>703600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>575700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>575000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>407300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>307000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>560600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>564600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>471800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>479600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>441400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>412000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>531500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>503600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>154100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>608000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>427200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>423300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>559300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>597000</v>
+        <v>488600</v>
       </c>
       <c r="E35" s="3">
-        <v>704400</v>
+        <v>596700</v>
       </c>
       <c r="F35" s="3">
-        <v>345200</v>
+        <v>704100</v>
       </c>
       <c r="G35" s="3">
-        <v>581500</v>
+        <v>345000</v>
       </c>
       <c r="H35" s="3">
-        <v>635600</v>
+        <v>688500</v>
       </c>
       <c r="I35" s="3">
-        <v>798500</v>
+        <v>492300</v>
       </c>
       <c r="J35" s="3">
+        <v>798100</v>
+      </c>
+      <c r="K35" s="3">
         <v>754800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>650900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>703600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>575700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>575000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>407300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>307000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>560600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>564600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>471800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>479600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>441400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>412000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>531500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>503600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>154100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>608000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>427200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>423300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>559300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,94 +3247,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6689600</v>
+        <v>6310800</v>
       </c>
       <c r="E41" s="3">
-        <v>6946700</v>
+        <v>6686200</v>
       </c>
       <c r="F41" s="3">
-        <v>6960000</v>
+        <v>6943100</v>
       </c>
       <c r="G41" s="3">
-        <v>5625200</v>
+        <v>6956400</v>
       </c>
       <c r="H41" s="3">
-        <v>5005900</v>
+        <v>5622300</v>
       </c>
       <c r="I41" s="3">
-        <v>5797000</v>
+        <v>5003400</v>
       </c>
       <c r="J41" s="3">
+        <v>5794100</v>
+      </c>
+      <c r="K41" s="3">
         <v>6169600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6381000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6294500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8243500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7212500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7648900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5057300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5235500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5160800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5019000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4177000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5554400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4411000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4235200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4173500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4536700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4168300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4160100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3698300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6639000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3334,8 +3423,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3411,17 +3503,20 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD43" s="3">
         <v>2152600</v>
       </c>
-      <c r="AD43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3506,8 +3601,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3592,8 +3690,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3678,266 +3779,278 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>111522100</v>
+        <v>107595000</v>
       </c>
       <c r="E47" s="3">
-        <v>115345800</v>
+        <v>111464900</v>
       </c>
       <c r="F47" s="3">
-        <v>113841400</v>
+        <v>111527100</v>
       </c>
       <c r="G47" s="3">
-        <v>110626600</v>
+        <v>113783000</v>
       </c>
       <c r="H47" s="3">
-        <v>116427300</v>
+        <v>110569800</v>
       </c>
       <c r="I47" s="3">
-        <v>122965800</v>
+        <v>116367600</v>
       </c>
       <c r="J47" s="3">
+        <v>122902700</v>
+      </c>
+      <c r="K47" s="3">
         <v>117415400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>113278700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>113944500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>121929100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>120529600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>122762400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>119078000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>113870800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>121190500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>111944300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>108093500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>103629300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>95237800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>100356700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>99454100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>97862100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>94758000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>96311200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>98931100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>96419000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7517000</v>
+        <v>7404300</v>
       </c>
       <c r="E48" s="3">
-        <v>7483000</v>
+        <v>7513200</v>
       </c>
       <c r="F48" s="3">
-        <v>7517800</v>
+        <v>7479100</v>
       </c>
       <c r="G48" s="3">
-        <v>7245200</v>
+        <v>7513900</v>
       </c>
       <c r="H48" s="3">
-        <v>6985900</v>
+        <v>7241500</v>
       </c>
       <c r="I48" s="3">
-        <v>6747400</v>
+        <v>6982300</v>
       </c>
       <c r="J48" s="3">
+        <v>6743900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6369600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5904400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5732800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5815500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5677700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5810200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5777200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5696300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6081100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5732700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5388000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5447100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5283000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5523200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5452500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5259300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5234800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5196100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5066500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5064200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10288100</v>
+        <v>10134800</v>
       </c>
       <c r="E49" s="3">
-        <v>9947400</v>
+        <v>10282900</v>
       </c>
       <c r="F49" s="3">
-        <v>10165900</v>
+        <v>9942300</v>
       </c>
       <c r="G49" s="3">
-        <v>9858500</v>
+        <v>10160700</v>
       </c>
       <c r="H49" s="3">
-        <v>7251800</v>
+        <v>9853500</v>
       </c>
       <c r="I49" s="3">
-        <v>7323700</v>
+        <v>7248100</v>
       </c>
       <c r="J49" s="3">
+        <v>7319900</v>
+      </c>
+      <c r="K49" s="3">
         <v>7330400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6991400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7278100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6614800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6646000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6347800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6459400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6171100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6536200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5600300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5475000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5473000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5073000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5305700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5245400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5097800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5018200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5123100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5357600</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5393000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,94 +4224,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2574100</v>
+        <v>2552800</v>
       </c>
       <c r="E52" s="3">
-        <v>1690400</v>
+        <v>2572800</v>
       </c>
       <c r="F52" s="3">
-        <v>1599300</v>
+        <v>2566100</v>
       </c>
       <c r="G52" s="3">
-        <v>1536300</v>
+        <v>1598400</v>
       </c>
       <c r="H52" s="3">
-        <v>1425200</v>
+        <v>1535500</v>
       </c>
       <c r="I52" s="3">
-        <v>1368900</v>
+        <v>1424500</v>
       </c>
       <c r="J52" s="3">
+        <v>1368200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1228900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1134000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1175800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1264300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1138500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1203800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1260800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1134400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1186400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1034900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>983800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>920200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>815300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1002700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1011700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>963800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1096200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1117100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1064800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1112400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>246536800</v>
+        <v>236871500</v>
       </c>
       <c r="E54" s="3">
-        <v>245115300</v>
+        <v>246410300</v>
       </c>
       <c r="F54" s="3">
-        <v>238615300</v>
+        <v>239586400</v>
       </c>
       <c r="G54" s="3">
-        <v>233688700</v>
+        <v>238492900</v>
       </c>
       <c r="H54" s="3">
-        <v>244578300</v>
+        <v>233568800</v>
       </c>
       <c r="I54" s="3">
-        <v>255829400</v>
+        <v>244452800</v>
       </c>
       <c r="J54" s="3">
+        <v>255698100</v>
+      </c>
+      <c r="K54" s="3">
         <v>245372300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>237894500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>238332700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>249929800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>239872500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>242039700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>228598700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>231719500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>242921600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>226810900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>217365600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>206884800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>196741900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>205813500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>203042500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>200275800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>194234300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>196338200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>200584100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>198386200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,8 +4559,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4516,49 +4646,52 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
         <v>4400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>80700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>98500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>68100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>134400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4593,103 +4726,109 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD58" s="3">
         <v>145200</v>
       </c>
-      <c r="AD58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>205899100</v>
+        <v>196303500</v>
       </c>
       <c r="E59" s="3">
-        <v>199276800</v>
+        <v>205793400</v>
       </c>
       <c r="F59" s="3">
-        <v>192440500</v>
+        <v>395816400</v>
       </c>
       <c r="G59" s="3">
-        <v>191376100</v>
+        <v>192341800</v>
       </c>
       <c r="H59" s="3">
-        <v>204542800</v>
+        <v>191277900</v>
       </c>
       <c r="I59" s="3">
-        <v>215685000</v>
+        <v>204437800</v>
       </c>
       <c r="J59" s="3">
+        <v>215574300</v>
+      </c>
+      <c r="K59" s="3">
         <v>207836800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>201660500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>202033900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>212690700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>202449700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>202967500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>189350900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>195910000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>204607100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>192352600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>183708300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>173641900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>166350200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>174071400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>171658700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>169128400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>163182200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>164999500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>168698700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>170079200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4774,180 +4913,189 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5094100</v>
+        <v>5092900</v>
       </c>
       <c r="E61" s="3">
-        <v>5093300</v>
+        <v>5091500</v>
       </c>
       <c r="F61" s="3">
-        <v>5388900</v>
+        <v>5090700</v>
       </c>
       <c r="G61" s="3">
-        <v>4908900</v>
+        <v>5386100</v>
       </c>
       <c r="H61" s="3">
-        <v>4908100</v>
+        <v>4906400</v>
       </c>
       <c r="I61" s="3">
-        <v>4907400</v>
+        <v>4905600</v>
       </c>
       <c r="J61" s="3">
+        <v>4904900</v>
+      </c>
+      <c r="K61" s="3">
         <v>3432600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3567600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3703200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4086200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3476700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3950400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3170800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3148300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3762200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3244200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3340200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3301600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3152400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3264900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3264100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>3227600</v>
       </c>
       <c r="AA61" s="3">
         <v>3227600</v>
       </c>
       <c r="AB61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="AC61" s="3">
         <v>3331000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7968800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>379300</v>
+        <v>387900</v>
       </c>
       <c r="E62" s="3">
-        <v>466700</v>
+        <v>379100</v>
       </c>
       <c r="F62" s="3">
-        <v>554100</v>
+        <v>346500</v>
       </c>
       <c r="G62" s="3">
-        <v>528100</v>
+        <v>553800</v>
       </c>
       <c r="H62" s="3">
-        <v>237800</v>
+        <v>527900</v>
       </c>
       <c r="I62" s="3">
-        <v>238500</v>
+        <v>237700</v>
       </c>
       <c r="J62" s="3">
+        <v>238400</v>
+      </c>
+      <c r="K62" s="3">
         <v>280000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>299400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>289800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>296300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>312000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>306800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>245700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>316500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>329100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>311700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>252500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>245100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>260900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>353800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>322200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>299900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>555900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>571600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>569300</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>527800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>229294600</v>
+        <v>219803300</v>
       </c>
       <c r="E66" s="3">
-        <v>223421300</v>
+        <v>229177000</v>
       </c>
       <c r="F66" s="3">
-        <v>217340500</v>
+        <v>222708400</v>
       </c>
       <c r="G66" s="3">
-        <v>213113100</v>
+        <v>217229000</v>
       </c>
       <c r="H66" s="3">
-        <v>224132400</v>
+        <v>213003800</v>
       </c>
       <c r="I66" s="3">
-        <v>235078300</v>
+        <v>224017400</v>
       </c>
       <c r="J66" s="3">
+        <v>234957700</v>
+      </c>
+      <c r="K66" s="3">
         <v>224973100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>218189000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>219042400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>229938400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>220045600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>222118300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>208782500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>212626100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>222876800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>208029000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>199057700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>188184800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>180148600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>188336800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>185875900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>183664300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>177640000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>179730400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>183510200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>181518900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,76 +5658,79 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>1658500</v>
+        <v>1657700</v>
       </c>
       <c r="E70" s="3">
-        <v>1658500</v>
+        <v>1657700</v>
       </c>
       <c r="F70" s="3">
-        <v>1658500</v>
+        <v>1657700</v>
       </c>
       <c r="G70" s="3">
-        <v>1658500</v>
+        <v>1657700</v>
       </c>
       <c r="H70" s="3">
-        <v>1658500</v>
+        <v>1657700</v>
       </c>
       <c r="I70" s="3">
-        <v>1658500</v>
+        <v>1657700</v>
       </c>
       <c r="J70" s="3">
+        <v>1657700</v>
+      </c>
+      <c r="K70" s="3">
         <v>1874800</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>2346100</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>1694700</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1746400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1730300</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1771200</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1771900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1759700</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1871200</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1789800</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1737500</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>1717800</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="W70" s="3">
-        <v>1699000</v>
       </c>
       <c r="X70" s="3">
         <v>1699000</v>
       </c>
       <c r="Y70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="Z70" s="3">
         <v>1679700</v>
@@ -5572,7 +5739,7 @@
         <v>1679700</v>
       </c>
       <c r="AB70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="AC70" s="3">
         <v>1733900</v>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,94 +5836,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8444400</v>
+        <v>8574800</v>
       </c>
       <c r="E72" s="3">
-        <v>11969600</v>
+        <v>8440100</v>
       </c>
       <c r="F72" s="3">
-        <v>11577800</v>
+        <v>8802100</v>
       </c>
       <c r="G72" s="3">
-        <v>11528900</v>
+        <v>11571800</v>
       </c>
       <c r="H72" s="3">
-        <v>11247400</v>
+        <v>11523000</v>
       </c>
       <c r="I72" s="3">
-        <v>10898500</v>
+        <v>11241600</v>
       </c>
       <c r="J72" s="3">
+        <v>10892900</v>
+      </c>
+      <c r="K72" s="3">
         <v>10392600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9645600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9584700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9508600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9097700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>8970400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8820800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8824300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9049100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9166500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>8793700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8575200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8096800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8286700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>7994600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7669100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7765800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7402700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7415700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7190600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15583700</v>
+        <v>15410600</v>
       </c>
       <c r="E76" s="3">
-        <v>20035500</v>
+        <v>15575700</v>
       </c>
       <c r="F76" s="3">
-        <v>19616300</v>
+        <v>15220300</v>
       </c>
       <c r="G76" s="3">
-        <v>18917000</v>
+        <v>19606200</v>
       </c>
       <c r="H76" s="3">
-        <v>18787400</v>
+        <v>18907300</v>
       </c>
       <c r="I76" s="3">
-        <v>19092600</v>
+        <v>18777800</v>
       </c>
       <c r="J76" s="3">
+        <v>19082800</v>
+      </c>
+      <c r="K76" s="3">
         <v>18524400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17359400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17595700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18245000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18096500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18150300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18044400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17333600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18173600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16992000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16570400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16982200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14953100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>15777700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15467600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>14931800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14914700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14928100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>15340000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>15133400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>597000</v>
+        <v>488600</v>
       </c>
       <c r="E81" s="3">
-        <v>704400</v>
+        <v>596700</v>
       </c>
       <c r="F81" s="3">
-        <v>345200</v>
+        <v>704100</v>
       </c>
       <c r="G81" s="3">
-        <v>581500</v>
+        <v>345000</v>
       </c>
       <c r="H81" s="3">
-        <v>635600</v>
+        <v>688500</v>
       </c>
       <c r="I81" s="3">
-        <v>798500</v>
+        <v>492300</v>
       </c>
       <c r="J81" s="3">
+        <v>798100</v>
+      </c>
+      <c r="K81" s="3">
         <v>754800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>650900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>703600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>575700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>575000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>407300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>307000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>560600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>564600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>471800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>479600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>441400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>412000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>531500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>503600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>154100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>608000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>427200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>423300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>559300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,8 +6588,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6477,8 +6675,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,94 +7120,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E89" s="3">
         <v>14800</v>
       </c>
-      <c r="E89" s="3">
-        <v>677000</v>
-      </c>
       <c r="F89" s="3">
-        <v>1396300</v>
+        <v>676700</v>
       </c>
       <c r="G89" s="3">
-        <v>1468900</v>
+        <v>1395600</v>
       </c>
       <c r="H89" s="3">
-        <v>-348900</v>
+        <v>1468100</v>
       </c>
       <c r="I89" s="3">
-        <v>-1481500</v>
+        <v>-348700</v>
       </c>
       <c r="J89" s="3">
+        <v>-1480700</v>
+      </c>
+      <c r="K89" s="3">
         <v>655600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>196000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-760600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>897600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2264700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2398200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>65200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1309800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>160000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1507500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-944600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1433100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>812400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>303400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>323700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>483700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>468900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>983800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-474800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1057900</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,94 +7244,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-49000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-22000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-40000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-31000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-33700</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-29000</v>
       </c>
       <c r="P91" s="3">
         <v>-29000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-35100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-16700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-38800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-21100</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-35700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-29800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-38000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-33000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-39900</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,94 +7509,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-180700</v>
+        <v>47400</v>
       </c>
       <c r="E94" s="3">
+        <v>-180600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-93300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-71100</v>
       </c>
-      <c r="G94" s="3">
-        <v>-1917800</v>
-      </c>
       <c r="H94" s="3">
+        <v>-1916800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-38500</v>
       </c>
-      <c r="I94" s="3">
-        <v>197800</v>
-      </c>
       <c r="J94" s="3">
+        <v>197700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-131100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-57900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-610400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-103700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-430100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-73800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-76100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-98200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-175800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-43600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-28500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-101200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-41400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-51200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-104900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-49100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-111600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>13800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-77600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,94 +7633,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-323000</v>
+        <v>-349400</v>
       </c>
       <c r="E96" s="3">
-        <v>-320700</v>
+        <v>-322800</v>
       </c>
       <c r="F96" s="3">
-        <v>-305200</v>
+        <v>-320600</v>
       </c>
       <c r="G96" s="3">
-        <v>-320700</v>
+        <v>-305000</v>
       </c>
       <c r="H96" s="3">
-        <v>-291100</v>
+        <v>-320600</v>
       </c>
       <c r="I96" s="3">
-        <v>-305200</v>
+        <v>-291000</v>
       </c>
       <c r="J96" s="3">
+        <v>-305000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-250400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-245200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-254500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-263100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-259100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-267600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-267700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-266600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-270300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-262500</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-245600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-240500</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-223100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-231900</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-222800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-221000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-214300</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-217300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-213600</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-212800</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,262 +7987,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-195600</v>
+        <v>-559700</v>
       </c>
       <c r="E100" s="3">
-        <v>-566700</v>
+        <v>-195500</v>
       </c>
       <c r="F100" s="3">
-        <v>-157800</v>
+        <v>-566400</v>
       </c>
       <c r="G100" s="3">
-        <v>934100</v>
+        <v>-157700</v>
       </c>
       <c r="H100" s="3">
-        <v>-262200</v>
+        <v>933600</v>
       </c>
       <c r="I100" s="3">
-        <v>890400</v>
+        <v>-262100</v>
       </c>
       <c r="J100" s="3">
+        <v>889900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1030400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>350000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-416700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>360600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2221700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>446500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-352500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-704000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-135100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-551900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-462700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-475700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-426600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-299600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-719700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-14900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-337100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-277600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-901100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-574600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-24400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-34100</v>
       </c>
-      <c r="F101" s="3">
-        <v>247400</v>
-      </c>
       <c r="G101" s="3">
-        <v>57800</v>
+        <v>247300</v>
       </c>
       <c r="H101" s="3">
+        <v>57700</v>
+      </c>
+      <c r="I101" s="3">
         <v>-47400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-9600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>71900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-40500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-47300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-183400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-37600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-127900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>280300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-52200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>29000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-64200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-59300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>153700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-48000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>28600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>57200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>26800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-77400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-59500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-23800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>50700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-385900</v>
+        <v>-353200</v>
       </c>
       <c r="E102" s="3">
+        <v>-385700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-17000</v>
       </c>
-      <c r="F102" s="3">
-        <v>1414800</v>
-      </c>
       <c r="G102" s="3">
-        <v>543000</v>
+        <v>1414100</v>
       </c>
       <c r="H102" s="3">
-        <v>-697000</v>
+        <v>542700</v>
       </c>
       <c r="I102" s="3">
-        <v>-403000</v>
+        <v>-696700</v>
       </c>
       <c r="J102" s="3">
+        <v>-402800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-434100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>447700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1835100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>971100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-270600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2672800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-270800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>408500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-132600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>847700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1010000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>296500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-18800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-355300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>390700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>5200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>535100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>456300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>863500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SLF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="92">
   <si>
     <t>SLF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5603800</v>
+        <v>5807400</v>
       </c>
       <c r="E8" s="3">
-        <v>5660800</v>
+        <v>5502700</v>
       </c>
       <c r="F8" s="3">
-        <v>8888800</v>
+        <v>5558700</v>
       </c>
       <c r="G8" s="3">
-        <v>7799000</v>
+        <v>8728500</v>
       </c>
       <c r="H8" s="3">
-        <v>5169200</v>
+        <v>4779400</v>
       </c>
       <c r="I8" s="3">
-        <v>4752400</v>
+        <v>5076000</v>
       </c>
       <c r="J8" s="3">
+        <v>4666700</v>
+      </c>
+      <c r="K8" s="3">
         <v>7751600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6991100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6584900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6352300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7814900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7309900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6719700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6499400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7722600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6547800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5963500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5572000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6225700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4358700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5138500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>4511500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6435900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>4134100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6044500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>5384500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1817600</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>6062900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +951,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1043,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1156,8 +1169,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1261,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1316,8 +1335,8 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>5</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>5</v>
@@ -1334,8 +1353,11 @@
       <c r="AE14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1423,8 +1445,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,186 +1478,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4961900</v>
+        <v>4948800</v>
       </c>
       <c r="E17" s="3">
-        <v>4849400</v>
+        <v>4872400</v>
       </c>
       <c r="F17" s="3">
-        <v>8225400</v>
+        <v>4761900</v>
       </c>
       <c r="G17" s="3">
-        <v>5805900</v>
+        <v>8077100</v>
       </c>
       <c r="H17" s="3">
-        <v>4189700</v>
+        <v>4612200</v>
       </c>
       <c r="I17" s="3">
-        <v>4056400</v>
+        <v>4114100</v>
       </c>
       <c r="J17" s="3">
+        <v>3983300</v>
+      </c>
+      <c r="K17" s="3">
         <v>8616300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5307400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8217900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>73600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8232700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6866800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11286900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4486600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5861600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7283200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7381400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8084600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5576500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3534600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4363200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3910000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6241700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3305000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5519100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4607800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>965700</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>5141800</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>641900</v>
+        <v>858600</v>
       </c>
       <c r="E18" s="3">
-        <v>811400</v>
+        <v>630300</v>
       </c>
       <c r="F18" s="3">
-        <v>663400</v>
+        <v>796800</v>
       </c>
       <c r="G18" s="3">
-        <v>1993000</v>
+        <v>651400</v>
       </c>
       <c r="H18" s="3">
-        <v>979500</v>
+        <v>167200</v>
       </c>
       <c r="I18" s="3">
-        <v>695900</v>
+        <v>961800</v>
       </c>
       <c r="J18" s="3">
+        <v>683400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-864700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1683700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1633000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6278700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-417800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>443100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4567200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2012900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1861100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-735400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1417900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2512700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>649200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>824100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>775400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>601500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>194200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>829000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>525400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>776700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>852000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>921100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1664,8 +1696,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1676,56 +1709,56 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>218400</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>-1409600</v>
+        <v>214500</v>
       </c>
       <c r="H20" s="3">
-        <v>74800</v>
+        <v>86500</v>
       </c>
       <c r="I20" s="3">
-        <v>72600</v>
+        <v>73400</v>
       </c>
       <c r="J20" s="3">
+        <v>71200</v>
+      </c>
+      <c r="K20" s="3">
         <v>1869400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-687400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2577600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5215500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1198500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>381000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5197300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1420200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1075900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1424300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2082500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3197800</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1753,8 +1786,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1842,8 +1878,11 @@
       <c r="AE21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1853,264 +1892,273 @@
       <c r="E22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="3">
-        <v>94000</v>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G22" s="3">
-        <v>88100</v>
+        <v>92300</v>
       </c>
       <c r="H22" s="3">
+        <v>86500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>73400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>71200</v>
+      </c>
+      <c r="K22" s="3">
+        <v>60700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="M22" s="3">
+        <v>60800</v>
+      </c>
+      <c r="N22" s="3">
+        <v>60100</v>
+      </c>
+      <c r="O22" s="3">
+        <v>68900</v>
+      </c>
+      <c r="P22" s="3">
+        <v>65900</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>70600</v>
+      </c>
+      <c r="R22" s="3">
+        <v>70700</v>
+      </c>
+      <c r="S22" s="3">
         <v>74800</v>
       </c>
-      <c r="I22" s="3">
-        <v>72600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>60700</v>
-      </c>
-      <c r="K22" s="3">
-        <v>60000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>60800</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="T22" s="3">
+        <v>53900</v>
+      </c>
+      <c r="U22" s="3">
+        <v>66600</v>
+      </c>
+      <c r="V22" s="3">
+        <v>67700</v>
+      </c>
+      <c r="W22" s="3">
         <v>60100</v>
       </c>
-      <c r="N22" s="3">
-        <v>68900</v>
-      </c>
-      <c r="O22" s="3">
-        <v>65900</v>
-      </c>
-      <c r="P22" s="3">
-        <v>70600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>70700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>74800</v>
-      </c>
-      <c r="S22" s="3">
-        <v>53900</v>
-      </c>
-      <c r="T22" s="3">
-        <v>66600</v>
-      </c>
-      <c r="U22" s="3">
-        <v>67700</v>
-      </c>
-      <c r="V22" s="3">
-        <v>60100</v>
-      </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>53000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>58700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>56500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>60300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>40900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>64700</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>61500</v>
       </c>
       <c r="AD22" s="3">
         <v>61500</v>
       </c>
       <c r="AE22" s="3">
+        <v>61500</v>
+      </c>
+      <c r="AF22" s="3">
         <v>58400</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>641900</v>
+        <v>858600</v>
       </c>
       <c r="E23" s="3">
-        <v>811400</v>
+        <v>630300</v>
       </c>
       <c r="F23" s="3">
-        <v>787700</v>
+        <v>796800</v>
       </c>
       <c r="G23" s="3">
-        <v>495300</v>
+        <v>773500</v>
       </c>
       <c r="H23" s="3">
-        <v>979500</v>
+        <v>167200</v>
       </c>
       <c r="I23" s="3">
-        <v>695900</v>
+        <v>961800</v>
       </c>
       <c r="J23" s="3">
+        <v>683400</v>
+      </c>
+      <c r="K23" s="3">
         <v>944000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>936300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>883800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1003100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>711900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>758200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>559500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>522100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>710300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>635100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>597900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>617400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>589100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>771000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>716700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>545000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>134000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>788100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>460700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>715200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>790500</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>862700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>94000</v>
+        <v>177400</v>
       </c>
       <c r="E24" s="3">
-        <v>131000</v>
+        <v>92300</v>
       </c>
       <c r="F24" s="3">
-        <v>60000</v>
+        <v>128700</v>
       </c>
       <c r="G24" s="3">
-        <v>107400</v>
+        <v>58900</v>
       </c>
       <c r="H24" s="3">
-        <v>233200</v>
+        <v>56000</v>
       </c>
       <c r="I24" s="3">
-        <v>162100</v>
+        <v>229000</v>
       </c>
       <c r="J24" s="3">
+        <v>159200</v>
+      </c>
+      <c r="K24" s="3">
         <v>32600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>124400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>130200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>244000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>78200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>47900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>219000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>74800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>71400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>67700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>85200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>133700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>137000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>89600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-43900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>155500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-17100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>139800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>154400</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>158300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,186 +2246,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>547900</v>
+        <v>681200</v>
       </c>
       <c r="E26" s="3">
-        <v>680400</v>
+        <v>538000</v>
       </c>
       <c r="F26" s="3">
-        <v>727800</v>
+        <v>668100</v>
       </c>
       <c r="G26" s="3">
-        <v>387900</v>
+        <v>714700</v>
       </c>
       <c r="H26" s="3">
-        <v>746300</v>
+        <v>111200</v>
       </c>
       <c r="I26" s="3">
-        <v>533800</v>
+        <v>732800</v>
       </c>
       <c r="J26" s="3">
+        <v>524200</v>
+      </c>
+      <c r="K26" s="3">
         <v>911400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>811900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>753600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>759100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>671600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>680000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>511700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>303000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>635400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>626800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>526600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>549700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>503800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>637300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>579600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>455400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>177900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>632600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>477800</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>575400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>636100</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>704500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>488600</v>
+        <v>633200</v>
       </c>
       <c r="E27" s="3">
-        <v>596700</v>
+        <v>479800</v>
       </c>
       <c r="F27" s="3">
-        <v>636000</v>
+        <v>586000</v>
       </c>
       <c r="G27" s="3">
-        <v>345000</v>
+        <v>624500</v>
       </c>
       <c r="H27" s="3">
-        <v>688500</v>
+        <v>80700</v>
       </c>
       <c r="I27" s="3">
-        <v>492300</v>
+        <v>676100</v>
       </c>
       <c r="J27" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K27" s="3">
         <v>805500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>754800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>650900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>703600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>576400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>575000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>407300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>307000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>562100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>564600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>471800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>479600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>441400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>412000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>531500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>503600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>148800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>608000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>427200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>423300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>559300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2465,8 +2522,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2476,11 +2536,11 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>68100</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>66900</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -2488,36 +2548,36 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>-7400</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-800</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1600</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2536,12 +2596,12 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>5200</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2554,8 +2614,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2706,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2732,8 +2798,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2744,56 +2813,56 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-218400</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>1409600</v>
+        <v>-214500</v>
       </c>
       <c r="H32" s="3">
-        <v>-74800</v>
+        <v>-86500</v>
       </c>
       <c r="I32" s="3">
-        <v>-72600</v>
+        <v>-73400</v>
       </c>
       <c r="J32" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1869400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>687400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2577600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5215500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1198500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-381000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5197300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1420200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1075900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1424300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2082500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3197800</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2821,97 +2890,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>488600</v>
+        <v>633200</v>
       </c>
       <c r="E33" s="3">
-        <v>596700</v>
+        <v>479800</v>
       </c>
       <c r="F33" s="3">
-        <v>704100</v>
+        <v>586000</v>
       </c>
       <c r="G33" s="3">
-        <v>345000</v>
+        <v>691400</v>
       </c>
       <c r="H33" s="3">
-        <v>688500</v>
+        <v>80700</v>
       </c>
       <c r="I33" s="3">
-        <v>492300</v>
+        <v>676100</v>
       </c>
       <c r="J33" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K33" s="3">
         <v>798100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>754800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>650900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>703600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>575700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>575000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>407300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>307000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>560600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>564600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>471800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>479600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>441400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>412000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>531500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>503600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>154100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>608000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>427200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>423300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>559300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2999,191 +3074,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>488600</v>
+        <v>633200</v>
       </c>
       <c r="E35" s="3">
-        <v>596700</v>
+        <v>479800</v>
       </c>
       <c r="F35" s="3">
-        <v>704100</v>
+        <v>586000</v>
       </c>
       <c r="G35" s="3">
-        <v>345000</v>
+        <v>691400</v>
       </c>
       <c r="H35" s="3">
-        <v>688500</v>
+        <v>80700</v>
       </c>
       <c r="I35" s="3">
-        <v>492300</v>
+        <v>676100</v>
       </c>
       <c r="J35" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K35" s="3">
         <v>798100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>754800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>650900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>703600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>575700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>575000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>407300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>307000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>560600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>564600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>471800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>479600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>441400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>412000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>531500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>503600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>154100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>608000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>427200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>423300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>559300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3299,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3248,97 +3333,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6310800</v>
+        <v>6496600</v>
       </c>
       <c r="E41" s="3">
-        <v>6686200</v>
+        <v>6197000</v>
       </c>
       <c r="F41" s="3">
-        <v>6943100</v>
+        <v>6565600</v>
       </c>
       <c r="G41" s="3">
-        <v>6956400</v>
+        <v>6817900</v>
       </c>
       <c r="H41" s="3">
-        <v>5622300</v>
+        <v>6831000</v>
       </c>
       <c r="I41" s="3">
-        <v>5003400</v>
+        <v>5520900</v>
       </c>
       <c r="J41" s="3">
+        <v>4913100</v>
+      </c>
+      <c r="K41" s="3">
         <v>5794100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6169600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6381000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6294500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8243500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7212500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7648900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5057300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5235500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5160800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5019000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4177000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5554400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4411000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4235200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4173500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4536700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4168300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4160100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3698300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6639000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>6139700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3426,8 +3515,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3506,17 +3598,20 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD43" s="3">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="3">
         <v>2152600</v>
       </c>
-      <c r="AE43" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3604,8 +3699,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3693,8 +3791,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3782,275 +3883,287 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>107595000</v>
+        <v>103385200</v>
       </c>
       <c r="E47" s="3">
-        <v>111464900</v>
+        <v>105654900</v>
       </c>
       <c r="F47" s="3">
-        <v>111527100</v>
+        <v>109455000</v>
       </c>
       <c r="G47" s="3">
-        <v>113783000</v>
+        <v>109516100</v>
       </c>
       <c r="H47" s="3">
-        <v>110569800</v>
+        <v>111731300</v>
       </c>
       <c r="I47" s="3">
-        <v>116367600</v>
+        <v>108576000</v>
       </c>
       <c r="J47" s="3">
+        <v>114269300</v>
+      </c>
+      <c r="K47" s="3">
         <v>122902700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>117415400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>113278700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>113944500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>121929100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>120529600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>122762400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>119078000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>113870800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>121190500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>111944300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>108093500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>103629300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>95237800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>100356700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>99454100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>97862100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>94758000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>96311200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>98931100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>96419000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>98671500</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7404300</v>
+        <v>7235200</v>
       </c>
       <c r="E48" s="3">
-        <v>7513200</v>
+        <v>7270800</v>
       </c>
       <c r="F48" s="3">
-        <v>7479100</v>
+        <v>7377700</v>
       </c>
       <c r="G48" s="3">
-        <v>7513900</v>
+        <v>7344300</v>
       </c>
       <c r="H48" s="3">
-        <v>7241500</v>
+        <v>7378400</v>
       </c>
       <c r="I48" s="3">
-        <v>6982300</v>
+        <v>7110900</v>
       </c>
       <c r="J48" s="3">
+        <v>6856400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6743900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6369600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5904400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5732800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5815500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5677700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5810200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5777200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5696300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6081100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5732700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5388000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5447100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5283000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5523200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5452500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>5259300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>5234800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>5196100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>5066500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>5064200</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>4987300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10134800</v>
+        <v>10249400</v>
       </c>
       <c r="E49" s="3">
-        <v>10282900</v>
+        <v>9952000</v>
       </c>
       <c r="F49" s="3">
-        <v>9942300</v>
+        <v>10097400</v>
       </c>
       <c r="G49" s="3">
-        <v>10160700</v>
+        <v>9763000</v>
       </c>
       <c r="H49" s="3">
-        <v>9853500</v>
+        <v>9977500</v>
       </c>
       <c r="I49" s="3">
-        <v>7248100</v>
+        <v>9675800</v>
       </c>
       <c r="J49" s="3">
+        <v>7117400</v>
+      </c>
+      <c r="K49" s="3">
         <v>7319900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7330400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6991400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7278100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6614800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6646000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6347800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6459400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6171100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6536200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5600300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5475000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5473000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5073000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5305700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>5245400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>5097800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>5018200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>5123100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>5357600</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>5393000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>5357600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4138,8 +4251,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4227,97 +4343,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2552800</v>
+        <v>2487100</v>
       </c>
       <c r="E52" s="3">
-        <v>2572800</v>
+        <v>2506700</v>
       </c>
       <c r="F52" s="3">
-        <v>2566100</v>
+        <v>2526400</v>
       </c>
       <c r="G52" s="3">
-        <v>1598400</v>
+        <v>2519800</v>
       </c>
       <c r="H52" s="3">
-        <v>1535500</v>
+        <v>1569600</v>
       </c>
       <c r="I52" s="3">
-        <v>1424500</v>
+        <v>1507800</v>
       </c>
       <c r="J52" s="3">
+        <v>1398800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1368200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1228900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1134000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1175800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1264300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1138500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1203800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1260800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1134400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1186400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1034900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>983800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>920200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>815300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1002700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1011700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>963800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1096200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1117100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1064800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1112400</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1192300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,97 +4527,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>236871500</v>
+        <v>228169200</v>
       </c>
       <c r="E54" s="3">
-        <v>246410300</v>
+        <v>232600300</v>
       </c>
       <c r="F54" s="3">
-        <v>239586400</v>
+        <v>241967100</v>
       </c>
       <c r="G54" s="3">
-        <v>238492900</v>
+        <v>235266300</v>
       </c>
       <c r="H54" s="3">
-        <v>233568800</v>
+        <v>234192500</v>
       </c>
       <c r="I54" s="3">
-        <v>244452800</v>
+        <v>229357100</v>
       </c>
       <c r="J54" s="3">
+        <v>240044900</v>
+      </c>
+      <c r="K54" s="3">
         <v>255698100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>245372300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>237894500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>238332700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>249929800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>239872500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>242039700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>228598700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>231719500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>242921600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>226810900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>217365600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>206884800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>196741900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>205813500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>203042500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>200275800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>194234300</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>196338200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>200584100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>198386200</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>199514700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4655,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4560,8 +4689,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4649,8 +4779,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4660,41 +4793,41 @@
       <c r="E58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>700</v>
       </c>
-      <c r="H58" s="3">
-        <v>80700</v>
-      </c>
       <c r="I58" s="3">
+        <v>79200</v>
+      </c>
+      <c r="J58" s="3">
         <v>4400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>98500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>68100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>134400</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4729,106 +4862,112 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD58" s="3">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE58" s="3">
         <v>145200</v>
       </c>
-      <c r="AE58" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>196303500</v>
+        <v>187385400</v>
       </c>
       <c r="E59" s="3">
-        <v>205793400</v>
+        <v>192763800</v>
       </c>
       <c r="F59" s="3">
-        <v>395816400</v>
+        <v>202082600</v>
       </c>
       <c r="G59" s="3">
-        <v>192341800</v>
+        <v>388679200</v>
       </c>
       <c r="H59" s="3">
-        <v>191277900</v>
+        <v>188873600</v>
       </c>
       <c r="I59" s="3">
-        <v>204437800</v>
+        <v>187828800</v>
       </c>
       <c r="J59" s="3">
+        <v>200751500</v>
+      </c>
+      <c r="K59" s="3">
         <v>215574300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>207836800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>201660500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>202033900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>212690700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>202449700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>202967500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>189350900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>195910000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>204607100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>192352600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>183708300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>173641900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>166350200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>174071400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>171658700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>169128400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>163182200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>164999500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>168698700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>170079200</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>166743600</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4916,186 +5055,195 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5092900</v>
+        <v>4636100</v>
       </c>
       <c r="E61" s="3">
-        <v>5091500</v>
+        <v>5001100</v>
       </c>
       <c r="F61" s="3">
-        <v>5090700</v>
+        <v>4999600</v>
       </c>
       <c r="G61" s="3">
-        <v>5386100</v>
+        <v>4998900</v>
       </c>
       <c r="H61" s="3">
-        <v>4906400</v>
+        <v>5289000</v>
       </c>
       <c r="I61" s="3">
-        <v>4905600</v>
+        <v>4817900</v>
       </c>
       <c r="J61" s="3">
+        <v>4817200</v>
+      </c>
+      <c r="K61" s="3">
         <v>4904900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3432600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3567600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3703200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4086200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3476700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3950400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3170800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3148300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3762200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3244200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3340200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3301600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3152400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3264900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3264100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4533000</v>
-      </c>
-      <c r="AA61" s="3">
-        <v>3227600</v>
       </c>
       <c r="AB61" s="3">
         <v>3227600</v>
       </c>
       <c r="AC61" s="3">
+        <v>3227600</v>
+      </c>
+      <c r="AD61" s="3">
         <v>3331000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>7968800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>3944100</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>387900</v>
+        <v>221700</v>
       </c>
       <c r="E62" s="3">
-        <v>379100</v>
+        <v>381000</v>
       </c>
       <c r="F62" s="3">
-        <v>346500</v>
+        <v>372200</v>
       </c>
       <c r="G62" s="3">
-        <v>553800</v>
+        <v>340200</v>
       </c>
       <c r="H62" s="3">
-        <v>527900</v>
+        <v>543800</v>
       </c>
       <c r="I62" s="3">
-        <v>237700</v>
+        <v>518400</v>
       </c>
       <c r="J62" s="3">
+        <v>233400</v>
+      </c>
+      <c r="K62" s="3">
         <v>238400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>280000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>299400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>289800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>296300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>312000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>306800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>245700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>316500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>329100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>311700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>252500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>245100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>260900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>353800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>322200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>299900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>555900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>571600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>569300</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>527800</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>487100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,8 +5331,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5272,8 +5423,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5361,97 +5515,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>219803300</v>
+        <v>210997200</v>
       </c>
       <c r="E66" s="3">
-        <v>229177000</v>
+        <v>215839800</v>
       </c>
       <c r="F66" s="3">
-        <v>222708400</v>
+        <v>225044500</v>
       </c>
       <c r="G66" s="3">
-        <v>217229000</v>
+        <v>218692600</v>
       </c>
       <c r="H66" s="3">
-        <v>213003800</v>
+        <v>213312000</v>
       </c>
       <c r="I66" s="3">
-        <v>224017400</v>
+        <v>209163000</v>
       </c>
       <c r="J66" s="3">
+        <v>219978000</v>
+      </c>
+      <c r="K66" s="3">
         <v>234957700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>224973100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>218189000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>219042400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>229938400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>220045600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>222118300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>208782500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>212626100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>222876800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>208029000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>199057700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>188184800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>180148600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>188336800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>185875900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>183664300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>177640000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>179730400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>183510200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>181518900</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>182917900</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5483,8 +5643,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +5733,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5661,79 +5825,82 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>1627800</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1627800</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1627800</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1627800</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1627800</v>
+      </c>
+      <c r="I70" s="3">
+        <v>1627800</v>
+      </c>
+      <c r="J70" s="3">
+        <v>1627800</v>
+      </c>
+      <c r="K70" s="3">
         <v>1657700</v>
       </c>
-      <c r="E70" s="3">
-        <v>1657700</v>
-      </c>
-      <c r="F70" s="3">
-        <v>1657700</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1657700</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1657700</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1657700</v>
-      </c>
-      <c r="J70" s="3">
-        <v>1657700</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>1874800</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>2346100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>1694700</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>1746400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>1730300</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>1771200</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>1771900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>1759700</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>1871200</v>
       </c>
-      <c r="T70" s="3">
+      <c r="U70" s="3">
         <v>1789800</v>
       </c>
-      <c r="U70" s="3">
+      <c r="V70" s="3">
         <v>1737500</v>
       </c>
-      <c r="V70" s="3">
+      <c r="W70" s="3">
         <v>1717800</v>
       </c>
-      <c r="W70" s="3">
+      <c r="X70" s="3">
         <v>1640100</v>
-      </c>
-      <c r="X70" s="3">
-        <v>1699000</v>
       </c>
       <c r="Y70" s="3">
         <v>1699000</v>
       </c>
       <c r="Z70" s="3">
-        <v>1679700</v>
+        <v>1699000</v>
       </c>
       <c r="AA70" s="3">
         <v>1679700</v>
@@ -5742,7 +5909,7 @@
         <v>1679700</v>
       </c>
       <c r="AC70" s="3">
-        <v>1733900</v>
+        <v>1679700</v>
       </c>
       <c r="AD70" s="3">
         <v>1733900</v>
@@ -5750,8 +5917,11 @@
       <c r="AE70" s="3">
         <v>1733900</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>1733900</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5839,97 +6009,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8574800</v>
+        <v>8626700</v>
       </c>
       <c r="E72" s="3">
-        <v>8440100</v>
+        <v>8420200</v>
       </c>
       <c r="F72" s="3">
-        <v>8802100</v>
+        <v>8287900</v>
       </c>
       <c r="G72" s="3">
-        <v>11571800</v>
+        <v>8643400</v>
       </c>
       <c r="H72" s="3">
-        <v>11523000</v>
+        <v>11363200</v>
       </c>
       <c r="I72" s="3">
-        <v>11241600</v>
+        <v>11315200</v>
       </c>
       <c r="J72" s="3">
+        <v>11038900</v>
+      </c>
+      <c r="K72" s="3">
         <v>10892900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10392600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9645600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9584700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9508600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9097700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>8970400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>8820800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>8824300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9049100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9166500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>8793700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>8575200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>8096800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>8286700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>7994600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>7669100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>7765800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>7402700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>7415700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>7190600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>6811100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6017,8 +6193,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +6285,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6195,97 +6377,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15410600</v>
+        <v>15544200</v>
       </c>
       <c r="E76" s="3">
-        <v>15575700</v>
+        <v>15132700</v>
       </c>
       <c r="F76" s="3">
-        <v>15220300</v>
+        <v>15294800</v>
       </c>
       <c r="G76" s="3">
-        <v>19606200</v>
+        <v>14945900</v>
       </c>
       <c r="H76" s="3">
-        <v>18907300</v>
+        <v>19252700</v>
       </c>
       <c r="I76" s="3">
-        <v>18777800</v>
+        <v>18566400</v>
       </c>
       <c r="J76" s="3">
+        <v>18439200</v>
+      </c>
+      <c r="K76" s="3">
         <v>19082800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18524400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17359400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17595700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>18245000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18096500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18150300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18044400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17333600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18173600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16992000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16570400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16982200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>14953100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>15777700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>15467600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>14931800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>14914700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>14928100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>15340000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>15133400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>14862900</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6373,191 +6561,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>488600</v>
+        <v>633200</v>
       </c>
       <c r="E81" s="3">
-        <v>596700</v>
+        <v>479800</v>
       </c>
       <c r="F81" s="3">
-        <v>704100</v>
+        <v>586000</v>
       </c>
       <c r="G81" s="3">
-        <v>345000</v>
+        <v>691400</v>
       </c>
       <c r="H81" s="3">
-        <v>688500</v>
+        <v>80700</v>
       </c>
       <c r="I81" s="3">
-        <v>492300</v>
+        <v>676100</v>
       </c>
       <c r="J81" s="3">
+        <v>483500</v>
+      </c>
+      <c r="K81" s="3">
         <v>798100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>754800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>650900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>703600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>575700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>575000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>407300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>307000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>560600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>564600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>471800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>479600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>441400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>412000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>531500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>503600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>154100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>608000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>427200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>423300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>559300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>566200</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6589,8 +6786,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6678,8 +6876,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6767,8 +6968,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6856,8 +7060,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6945,8 +7152,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7034,8 +7244,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7123,97 +7336,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>214000</v>
+        <v>1381300</v>
       </c>
       <c r="E89" s="3">
-        <v>14800</v>
+        <v>210100</v>
       </c>
       <c r="F89" s="3">
-        <v>676700</v>
+        <v>14500</v>
       </c>
       <c r="G89" s="3">
-        <v>1395600</v>
+        <v>664500</v>
       </c>
       <c r="H89" s="3">
-        <v>1468100</v>
+        <v>1370400</v>
       </c>
       <c r="I89" s="3">
-        <v>-348700</v>
+        <v>1441700</v>
       </c>
       <c r="J89" s="3">
+        <v>-342400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1480700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>655600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>196000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-760600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>897600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2264700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2398200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>65200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1309800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>160000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1507500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-944600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1433100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>812400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>303400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>323700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>483700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>468900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>983800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-474800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1057900</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>491700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7245,97 +7464,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-42000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-22000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-32000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-40000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-31000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-33700</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-29000</v>
       </c>
       <c r="Q91" s="3">
         <v>-29000</v>
       </c>
       <c r="R91" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-35100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-16700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-38800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-21100</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-35700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-29800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-38000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-33000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-39900</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-24600</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7423,8 +7646,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7512,97 +7738,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>47400</v>
+        <v>-100300</v>
       </c>
       <c r="E94" s="3">
-        <v>-180600</v>
+        <v>46500</v>
       </c>
       <c r="F94" s="3">
-        <v>-93300</v>
+        <v>-177400</v>
       </c>
       <c r="G94" s="3">
-        <v>-71100</v>
+        <v>-91600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1916800</v>
+        <v>-69800</v>
       </c>
       <c r="I94" s="3">
-        <v>-38500</v>
+        <v>-1882200</v>
       </c>
       <c r="J94" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="K94" s="3">
         <v>197700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-131100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-57900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-610400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-103700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-430100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-73800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-76100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-98200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-175800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-43600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-28500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-101200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-41400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-51200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-104900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-49100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-111600</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>13800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-77600</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-116000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7634,97 +7866,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-349400</v>
+        <v>-329300</v>
       </c>
       <c r="E96" s="3">
-        <v>-322800</v>
+        <v>-343100</v>
       </c>
       <c r="F96" s="3">
-        <v>-320600</v>
+        <v>-317000</v>
       </c>
       <c r="G96" s="3">
+        <v>-314800</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-299500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-314800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-285700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-305000</v>
       </c>
-      <c r="H96" s="3">
-        <v>-320600</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-291000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-305000</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-250400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-245200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-254500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-263100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-259100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-267600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-267700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-266600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-270300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-262500</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-245600</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-240500</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-223100</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-231900</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-222800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-221000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-214300</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-217300</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-213600</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-212800</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-206700</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7812,8 +8048,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +8140,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7990,271 +8232,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-559700</v>
+        <v>-1037400</v>
       </c>
       <c r="E100" s="3">
-        <v>-195500</v>
+        <v>-549600</v>
       </c>
       <c r="F100" s="3">
-        <v>-566400</v>
+        <v>-191900</v>
       </c>
       <c r="G100" s="3">
-        <v>-157700</v>
+        <v>-556200</v>
       </c>
       <c r="H100" s="3">
-        <v>933600</v>
+        <v>-154900</v>
       </c>
       <c r="I100" s="3">
-        <v>-262100</v>
+        <v>916800</v>
       </c>
       <c r="J100" s="3">
+        <v>-257400</v>
+      </c>
+      <c r="K100" s="3">
         <v>889900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1030400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>350000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-416700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>360600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2221700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>446500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-352500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-704000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-135100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-551900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-462700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-475700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-426600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-299600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-719700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-14900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-337100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-277600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-901100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-574600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>456300</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-54800</v>
+        <v>165000</v>
       </c>
       <c r="E101" s="3">
-        <v>-24400</v>
+        <v>-53800</v>
       </c>
       <c r="F101" s="3">
-        <v>-34100</v>
+        <v>-24000</v>
       </c>
       <c r="G101" s="3">
-        <v>247300</v>
+        <v>-33400</v>
       </c>
       <c r="H101" s="3">
-        <v>57700</v>
+        <v>242800</v>
       </c>
       <c r="I101" s="3">
-        <v>-47400</v>
+        <v>56700</v>
       </c>
       <c r="J101" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>71900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-40500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-47300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-183400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-37600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-127900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>280300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-52200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>29000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-64200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-59300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>153700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-48000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>28600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>57200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>26800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-77400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-59500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-23800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>50700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-353200</v>
+        <v>408600</v>
       </c>
       <c r="E102" s="3">
-        <v>-385700</v>
+        <v>-346800</v>
       </c>
       <c r="F102" s="3">
-        <v>-17000</v>
+        <v>-378800</v>
       </c>
       <c r="G102" s="3">
-        <v>1414100</v>
+        <v>-16700</v>
       </c>
       <c r="H102" s="3">
-        <v>542700</v>
+        <v>1388600</v>
       </c>
       <c r="I102" s="3">
-        <v>-696700</v>
+        <v>532900</v>
       </c>
       <c r="J102" s="3">
+        <v>-684100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-402800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-434100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>447700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1835100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>971100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-270600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2672800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-270800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>408500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-132600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>847700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1495000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>1010000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>296500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-18800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-355300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>390700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>5200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>535100</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1385900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>456300</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>863500</v>
       </c>
     </row>
